--- a/FFFactorsStar.xlsx
+++ b/FFFactorsStar.xlsx
@@ -469,10 +469,10 @@
         <v>0.0493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.098510046505107</v>
+        <v>0.08850388885240856</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03908518472534765</v>
+        <v>-0.02126760245908503</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         <v>-0.0238</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.009358765196154159</v>
+        <v>-0.01611234989430451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01963257093749043</v>
+        <v>0.02233231833009948</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.0308</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01968964899194427</v>
+        <v>-0.0263633608908124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007087572749819028</v>
+        <v>0.01444031974065093</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>0.0451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001247789516403669</v>
+        <v>-0.02931587914152176</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00876933065610706</v>
+        <v>-0.0004383061629142336</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +525,10 @@
         <v>0.0176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04390840814317716</v>
+        <v>0.03135167847801981</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.004379622975835377</v>
+        <v>-0.005050235177201511</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +539,10 @@
         <v>-0.02</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01364087700861624</v>
+        <v>0.01145489650674361</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02403338065460774</v>
+        <v>-0.003033725198625572</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +553,10 @@
         <v>-0.0039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001950783405383115</v>
+        <v>0.01768993388631016</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01105613879758328</v>
+        <v>-0.0137180002609999</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +567,10 @@
         <v>0.0507</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.006735610741274614</v>
+        <v>-0.01678993789598073</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0199415832391982</v>
+        <v>0.002811369453387946</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +581,10 @@
         <v>-0.0157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00155680454235603</v>
+        <v>0.03323706706198506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01296162878587466</v>
+        <v>0.01197148004025567</v>
       </c>
     </row>
     <row r="11">
@@ -595,10 +595,10 @@
         <v>0.0253</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01857106258399157</v>
+        <v>-0.0009112507697111305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009834855871730209</v>
+        <v>-0.01002649153372248</v>
       </c>
     </row>
     <row r="12">
@@ -609,10 +609,10 @@
         <v>-0.008500000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.005742856881848419</v>
+        <v>-0.03501106616840206</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004338465028888959</v>
+        <v>0.004906549844935189</v>
       </c>
     </row>
     <row r="13">
@@ -623,10 +623,10 @@
         <v>0.0183</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04146283354665764</v>
+        <v>-0.04166516967664102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005997814350011735</v>
+        <v>-0.02553720182626147</v>
       </c>
     </row>
     <row r="14">
@@ -637,10 +637,10 @@
         <v>0.0224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04476864209980025</v>
+        <v>0.04157564854768594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01065268728603818</v>
+        <v>0.01076088828354251</v>
       </c>
     </row>
     <row r="15">
@@ -651,10 +651,10 @@
         <v>0.0154</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01222366980387921</v>
+        <v>-0.002984579901808157</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002627008706194499</v>
+        <v>-0.003726765354862667</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         <v>0.0141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01901046710476083</v>
+        <v>0.02417402311314948</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01201511663829138</v>
+        <v>-0.01950774305108282</v>
       </c>
     </row>
     <row r="17">
@@ -679,10 +679,10 @@
         <v>0.001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003388639416435623</v>
+        <v>0.02593055303204884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009187029093655487</v>
+        <v>0.007713228438167866</v>
       </c>
     </row>
     <row r="18">
@@ -693,10 +693,10 @@
         <v>0.0142</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02424381257335603</v>
+        <v>-0.02647066029726427</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0162728299345316</v>
+        <v>-0.02628193065185269</v>
       </c>
     </row>
     <row r="19">
@@ -707,10 +707,10 @@
         <v>0.0127</v>
       </c>
       <c r="C19" t="n">
-        <v>1.228130501185545e-05</v>
+        <v>0.0001592178410118501</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.006600273962149215</v>
+        <v>0.0003388627019850349</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>0.0174</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01267935744856411</v>
+        <v>0.01016256589444324</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001291768891771263</v>
+        <v>-0.00706906754711327</v>
       </c>
     </row>
     <row r="21">
@@ -735,10 +735,10 @@
         <v>-0.0144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02763198166922518</v>
+        <v>0.02329789098638567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007107027458134126</v>
+        <v>-0.01437943486674817</v>
       </c>
     </row>
     <row r="22">
@@ -749,10 +749,10 @@
         <v>0.0269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02338617942402338</v>
+        <v>0.007038405766958893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005503668788978858</v>
+        <v>0.004482585385563467</v>
       </c>
     </row>
     <row r="23">
@@ -763,10 +763,10 @@
         <v>0.0059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01332183561053645</v>
+        <v>0.01838539299435404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004595750414055216</v>
+        <v>0.002369012555227023</v>
       </c>
     </row>
     <row r="24">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.007219668076971865</v>
+        <v>-0.002202772305192517</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003502422484409514</v>
+        <v>-0.005412816363864586</v>
       </c>
     </row>
     <row r="25">
@@ -791,10 +791,10 @@
         <v>0.0003</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02357188554214665</v>
+        <v>-0.02684206283849147</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.006715643486354684</v>
+        <v>-0.005392878155762691</v>
       </c>
     </row>
     <row r="26">
@@ -805,10 +805,10 @@
         <v>0.0354</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05646339789863265</v>
+        <v>0.06810048100768365</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001037319976378931</v>
+        <v>-0.0008090414979924909</v>
       </c>
     </row>
     <row r="27">
@@ -819,10 +819,10 @@
         <v>0.0044</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02987857418527261</v>
+        <v>0.02987585721328985</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00341454711995156</v>
+        <v>0.007068162482201233</v>
       </c>
     </row>
     <row r="28">
@@ -833,10 +833,10 @@
         <v>-0.0134</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04141657458220552</v>
+        <v>0.03833489835940324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002050677891760088</v>
+        <v>-0.0003265125592629061</v>
       </c>
     </row>
     <row r="29">
@@ -847,10 +847,10 @@
         <v>0.0311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02117429959353464</v>
+        <v>0.02907216857545616</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003072243353362564</v>
+        <v>0.001399726051551975</v>
       </c>
     </row>
     <row r="30">
@@ -861,10 +861,10 @@
         <v>-0.0077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01377284551185165</v>
+        <v>0.01634128712016997</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01324998895171236</v>
+        <v>-0.01962302173611995</v>
       </c>
     </row>
     <row r="31">
@@ -875,10 +875,10 @@
         <v>-0.0551</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05805473083544097</v>
+        <v>-0.04984310259179129</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003068389580549502</v>
+        <v>-0.001536174276602006</v>
       </c>
     </row>
     <row r="32">
@@ -889,10 +889,10 @@
         <v>0.0143</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003756034013840621</v>
+        <v>-0.007307333366602747</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.003079040902743448</v>
+        <v>0.01327368880604885</v>
       </c>
     </row>
     <row r="33">
@@ -903,10 +903,10 @@
         <v>0.0273</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009607846050636294</v>
+        <v>-0.001098527790729137</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01017659323263841</v>
+        <v>0.001393724286406356</v>
       </c>
     </row>
     <row r="34">
@@ -917,10 +917,10 @@
         <v>0.0286</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0067868478816802</v>
+        <v>-0.01494915872938303</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006491563539353283</v>
+        <v>-0.009712072911919466</v>
       </c>
     </row>
     <row r="35">
@@ -931,10 +931,10 @@
         <v>0.026</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04359721726524896</v>
+        <v>0.02871118885046966</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01707488308207626</v>
+        <v>0.02161409816477099</v>
       </c>
     </row>
     <row r="36">
@@ -945,10 +945,10 @@
         <v>-0.0003</v>
       </c>
       <c r="C36" t="n">
-        <v>0.05713751037017703</v>
+        <v>0.0524920396777253</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04031252025890086</v>
+        <v>0.05228027900931626</v>
       </c>
     </row>
     <row r="37">
@@ -959,10 +959,10 @@
         <v>0.0101</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01137238967131743</v>
+        <v>0.0257477099158806</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02870612694197953</v>
+        <v>0.004883957591994892</v>
       </c>
     </row>
     <row r="38">
@@ -973,10 +973,10 @@
         <v>0.0072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1017074019482528</v>
+        <v>0.1035454264099961</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01628449506517133</v>
+        <v>0.008402585310255159</v>
       </c>
     </row>
     <row r="39">
@@ -987,10 +987,10 @@
         <v>-0.0121</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05932150267074498</v>
+        <v>0.05005077219811969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02104751968677764</v>
+        <v>0.01694005914158232</v>
       </c>
     </row>
     <row r="40">
@@ -1001,10 +1001,10 @@
         <v>-0.0251</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04004753914436292</v>
+        <v>0.04596871771534478</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001354361510887102</v>
+        <v>-0.003279559373815383</v>
       </c>
     </row>
     <row r="41">
@@ -1015,10 +1015,10 @@
         <v>0.0214</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02144759196141244</v>
+        <v>0.01678579324889096</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03317524664319995</v>
+        <v>0.02730927326619641</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         <v>-0.0566</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.07340997093716664</v>
+        <v>-0.06423365486355162</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.008275415453168122</v>
+        <v>-0.001457682592335086</v>
       </c>
     </row>
     <row r="43">
@@ -1043,10 +1043,10 @@
         <v>-0.0144</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0004658643890168707</v>
+        <v>0.0003644929436082585</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001551700109910908</v>
+        <v>0.002277681158683119</v>
       </c>
     </row>
     <row r="44">
@@ -1057,10 +1057,10 @@
         <v>-0.0163</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.007601059163785716</v>
+        <v>-0.0002476190147682085</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002213510192101184</v>
+        <v>-0.001216742210522422</v>
       </c>
     </row>
     <row r="45">
@@ -1071,10 +1071,10 @@
         <v>-0.0791</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0206135857403362</v>
+        <v>-0.02867137431820135</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01409469343698831</v>
+        <v>-0.01050185328796568</v>
       </c>
     </row>
     <row r="46">
@@ -1085,10 +1085,10 @@
         <v>-0.0106</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.01476704779471644</v>
+        <v>-0.009822586456088307</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.009629413556894119</v>
+        <v>-0.005526632197036991</v>
       </c>
     </row>
     <row r="47">
@@ -1099,10 +1099,10 @@
         <v>0.0386</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.09554792511878252</v>
+        <v>-0.1019847824145832</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.00557159093855271</v>
+        <v>0.01618846208612763</v>
       </c>
     </row>
     <row r="48">
@@ -1113,10 +1113,10 @@
         <v>0.014</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02893885234968476</v>
+        <v>0.03141213020827449</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.006460298868712411</v>
+        <v>-0.02439794162863059</v>
       </c>
     </row>
     <row r="49">
@@ -1127,10 +1127,10 @@
         <v>0.0013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02360776999727524</v>
+        <v>0.02859298789827028</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001717124449577749</v>
+        <v>-0.009482471012004876</v>
       </c>
     </row>
     <row r="50">
@@ -1141,10 +1141,10 @@
         <v>0.0815</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1333190950774201</v>
+        <v>0.1433431054177701</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01408247350103212</v>
+        <v>0.01093183375727796</v>
       </c>
     </row>
     <row r="51">
@@ -1155,10 +1155,10 @@
         <v>0.007800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07937434121163844</v>
+        <v>0.06010509763508543</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.008411457426011577</v>
+        <v>0.001910812185916724</v>
       </c>
     </row>
     <row r="52">
@@ -1169,10 +1169,10 @@
         <v>0.0399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04989610668649262</v>
+        <v>0.02927303379204162</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.001975122490432413</v>
+        <v>-0.00301510464271644</v>
       </c>
     </row>
     <row r="53">
@@ -1183,10 +1183,10 @@
         <v>0.0389</v>
       </c>
       <c r="C53" t="n">
-        <v>0.009241662922412863</v>
+        <v>-0.006821410791909541</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0004315148393313761</v>
+        <v>-0.00463757923620154</v>
       </c>
     </row>
     <row r="54">
@@ -1197,10 +1197,10 @@
         <v>-0.0433</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03641339190472258</v>
+        <v>0.06199649849557164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01927532822447769</v>
+        <v>-0.008071593389404708</v>
       </c>
     </row>
     <row r="55">
@@ -1211,10 +1211,10 @@
         <v>0.0241</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1078198854196422</v>
+        <v>0.08744926403550411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01831373587171591</v>
+        <v>0.01591669759674346</v>
       </c>
     </row>
     <row r="56">
@@ -1225,10 +1225,10 @@
         <v>0.0458</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06351590491826792</v>
+        <v>0.06262469833234971</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01535774071940557</v>
+        <v>0.006110573964921859</v>
       </c>
     </row>
     <row r="57">
@@ -1239,10 +1239,10 @@
         <v>-0.0089</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01055491712037921</v>
+        <v>0.01883339159394703</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03902042289229464</v>
+        <v>0.02672090976157999</v>
       </c>
     </row>
     <row r="58">
@@ -1253,10 +1253,10 @@
         <v>0.0311</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06606705988363772</v>
+        <v>0.06658771579334254</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01331826328627805</v>
+        <v>-0.02122969471251053</v>
       </c>
     </row>
     <row r="59">
@@ -1267,10 +1267,10 @@
         <v>-0.0309</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03766946613763936</v>
+        <v>0.02940943947337405</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02149528050759053</v>
+        <v>-0.02256093920616876</v>
       </c>
     </row>
     <row r="60">
@@ -1281,10 +1281,10 @@
         <v>0.0037</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0323589403265845</v>
+        <v>-0.03002464409152729</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.009420018391162148</v>
+        <v>-0.008673409948365593</v>
       </c>
     </row>
     <row r="61">
@@ -1295,10 +1295,10 @@
         <v>0.0305</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0964288607562727</v>
+        <v>0.09438483651983995</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.006733125788145222</v>
+        <v>-0.01003794649417566</v>
       </c>
     </row>
     <row r="62">
@@ -1309,10 +1309,10 @@
         <v>-0.0406</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1207646099458685</v>
+        <v>0.1201067555921561</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03497416956505917</v>
+        <v>0.05124561331986563</v>
       </c>
     </row>
     <row r="63">
@@ -1323,10 +1323,10 @@
         <v>-0.0375</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0439698565426752</v>
+        <v>-0.04337438604543986</v>
       </c>
       <c r="D63" t="n">
-        <v>0.008776918667703019</v>
+        <v>0.01493034952272626</v>
       </c>
     </row>
     <row r="64">
@@ -1337,10 +1337,10 @@
         <v>0.002</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0358338901630255</v>
+        <v>-0.03230366558104989</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.005303681515286091</v>
+        <v>-0.01484045171575483</v>
       </c>
     </row>
     <row r="65">
@@ -1351,10 +1351,10 @@
         <v>0.09050000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05038260721564079</v>
+        <v>0.06190542907261788</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0209092418376273</v>
+        <v>-0.0217070914448884</v>
       </c>
     </row>
     <row r="66">
@@ -1365,10 +1365,10 @@
         <v>0.0228</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1249853696653458</v>
+        <v>0.1102655789109075</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01333156035911588</v>
+        <v>-0.004945957141603979</v>
       </c>
     </row>
     <row r="67">
@@ -1379,10 +1379,10 @@
         <v>0.0069</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02351676963451712</v>
+        <v>0.01438284097314474</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.00507205132360066</v>
+        <v>0.01918914488112066</v>
       </c>
     </row>
     <row r="68">
@@ -1393,10 +1393,10 @@
         <v>-0.0272</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01036548217711342</v>
+        <v>0.01040582866910405</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04156646731962842</v>
+        <v>0.0477587491510399</v>
       </c>
     </row>
     <row r="69">
@@ -1407,10 +1407,10 @@
         <v>0.0134</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04434652788503937</v>
+        <v>0.03689569136148661</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01968097998654793</v>
+        <v>0.02445386103714628</v>
       </c>
     </row>
     <row r="70">
@@ -1421,10 +1421,10 @@
         <v>0.0403</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02514091818099921</v>
+        <v>0.02018468798088602</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0216850113950777</v>
+        <v>0.02721434556501245</v>
       </c>
     </row>
     <row r="71">
@@ -1435,10 +1435,10 @@
         <v>0.0042</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.008097062808796046</v>
+        <v>-0.0104868409845395</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01962273243589916</v>
+        <v>0.02285106334539366</v>
       </c>
     </row>
     <row r="72">
@@ -1449,10 +1449,10 @@
         <v>0.05429999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02821387872309585</v>
+        <v>0.01242190048417446</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.0002341919820730842</v>
+        <v>0.0007019250275318162</v>
       </c>
     </row>
     <row r="73">
@@ -1463,10 +1463,10 @@
         <v>-0.0394</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0856677811392795</v>
+        <v>0.08677838306621657</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.00432133512298373</v>
+        <v>0.001364231377296638</v>
       </c>
     </row>
     <row r="74">
@@ -1477,10 +1477,10 @@
         <v>-0.0125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01205613913852953</v>
+        <v>0.01310836994356966</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004815034849512836</v>
+        <v>0.01224452776488042</v>
       </c>
     </row>
     <row r="75">
@@ -1491,10 +1491,10 @@
         <v>-0.0584</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.06184655181292877</v>
+        <v>-0.06092480934642704</v>
       </c>
       <c r="D75" t="n">
-        <v>0.007760132108345905</v>
+        <v>0.01100510709499093</v>
       </c>
     </row>
     <row r="76">
@@ -1505,10 +1505,10 @@
         <v>0.0264</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.02004428107208835</v>
+        <v>-0.01521993087943651</v>
       </c>
       <c r="D76" t="n">
-        <v>0.008662568147648927</v>
+        <v>0.001812626554277282</v>
       </c>
     </row>
     <row r="77">
@@ -1519,10 +1519,10 @@
         <v>0.0146</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.0346698802059292</v>
+        <v>-0.04670518224774353</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01139556883081418</v>
+        <v>0.004215126652147156</v>
       </c>
     </row>
     <row r="78">
@@ -1533,10 +1533,10 @@
         <v>-0.001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02146499723806569</v>
+        <v>0.007884045408696199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.004321967694387785</v>
+        <v>0.009213666322569069</v>
       </c>
     </row>
     <row r="79">
@@ -1547,10 +1547,10 @@
         <v>-0.0718</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.07859364864358281</v>
+        <v>-0.08743769119266434</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.008526107338945071</v>
+        <v>0.0004865828166668168</v>
       </c>
     </row>
     <row r="80">
@@ -1561,10 +1561,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05742713703274985</v>
+        <v>-0.060537278979398</v>
       </c>
       <c r="D80" t="n">
-        <v>0.007130791071815426</v>
+        <v>0.01297665942461147</v>
       </c>
     </row>
     <row r="81">
@@ -1575,10 +1575,10 @@
         <v>0.04679999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01570826172316715</v>
+        <v>-0.007600323827198531</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01132939245788341</v>
+        <v>-0.02606414612256528</v>
       </c>
     </row>
     <row r="82">
@@ -1589,10 +1589,10 @@
         <v>-0.0298</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.005676594311501432</v>
+        <v>-0.01271698521251098</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01648067391332931</v>
+        <v>-0.009174224323726627</v>
       </c>
     </row>
     <row r="83">
@@ -1603,10 +1603,10 @@
         <v>0.0506</v>
       </c>
       <c r="C83" t="n">
-        <v>0.05896210124547231</v>
+        <v>0.06906595449171422</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03369544989551762</v>
+        <v>-0.02751353442024515</v>
       </c>
     </row>
     <row r="84">
@@ -1617,10 +1617,10 @@
         <v>-0.0379</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.04982637172496845</v>
+        <v>-0.05011849334120769</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0008546837904807175</v>
+        <v>-0.00420421891356388</v>
       </c>
     </row>
     <row r="85">
@@ -1631,10 +1631,10 @@
         <v>-0.0263</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.08370719117762609</v>
+        <v>-0.08316424767248913</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02045900827263147</v>
+        <v>-0.02873991082385988</v>
       </c>
     </row>
     <row r="86">
@@ -1645,10 +1645,10 @@
         <v>-0.081</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06951211899500519</v>
+        <v>0.06912379578777428</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02150435800743191</v>
+        <v>0.02644270548301489</v>
       </c>
     </row>
     <row r="87">
@@ -1659,10 +1659,10 @@
         <v>0.0513</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.03603890471562685</v>
+        <v>-0.03339492154724977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01906584593027218</v>
+        <v>0.01838813517769631</v>
       </c>
     </row>
     <row r="88">
@@ -1673,10 +1673,10 @@
         <v>-0.0106</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.0367092252766187</v>
+        <v>-0.02750794377378862</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03820689020736002</v>
+        <v>0.03299584071256948</v>
       </c>
     </row>
     <row r="89">
@@ -1687,10 +1687,10 @@
         <v>-0.11</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.09686636044116488</v>
+        <v>-0.1010040685866936</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0714728145678641</v>
+        <v>0.05636518164378768</v>
       </c>
     </row>
     <row r="90">
@@ -1701,10 +1701,10 @@
         <v>-0.0692</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.02505675733407082</v>
+        <v>-0.0235302263555504</v>
       </c>
       <c r="D90" t="n">
-        <v>0.009732139459164679</v>
+        <v>0.003985749657806292</v>
       </c>
     </row>
     <row r="91">
@@ -1715,10 +1715,10 @@
         <v>-0.0579</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02211943159788126</v>
+        <v>-0.03256699059724279</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02051009964551469</v>
+        <v>0.01422483073214001</v>
       </c>
     </row>
     <row r="92">
@@ -1729,10 +1729,10 @@
         <v>0.0693</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.05937803668596207</v>
+        <v>-0.04382561378442976</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01728283799948607</v>
+        <v>0.001612002600221617</v>
       </c>
     </row>
     <row r="93">
@@ -1743,10 +1743,10 @@
         <v>0.0449</v>
       </c>
       <c r="C93" t="n">
-        <v>0.007431054873774885</v>
+        <v>0.001597943861789977</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.003470437597777411</v>
+        <v>0.007251307084971695</v>
       </c>
     </row>
     <row r="94">
@@ -1757,10 +1757,10 @@
         <v>0.0418</v>
       </c>
       <c r="C94" t="n">
-        <v>0.119455614140768</v>
+        <v>0.1421567793958345</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.07877375559084469</v>
+        <v>-0.07582793380564382</v>
       </c>
     </row>
     <row r="95">
@@ -1771,10 +1771,10 @@
         <v>-0.0228</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.07550623482793803</v>
+        <v>-0.07706141578175513</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01784074154971394</v>
+        <v>0.01547962248147444</v>
       </c>
     </row>
     <row r="96">
@@ -1785,10 +1785,10 @@
         <v>0.046</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1080095910081836</v>
+        <v>-0.1112894493567142</v>
       </c>
       <c r="D96" t="n">
-        <v>0.007431721754032511</v>
+        <v>0.00399026090547054</v>
       </c>
     </row>
     <row r="97">
@@ -1799,10 +1799,10 @@
         <v>0.0572</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0228231917534191</v>
+        <v>0.01015409167609989</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02463512347591897</v>
+        <v>0.0323013066352119</v>
       </c>
     </row>
     <row r="98">
@@ -1813,10 +1813,10 @@
         <v>0.0484</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1511579075367223</v>
+        <v>0.160008344650744</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01267077841234589</v>
+        <v>0.03889875158006477</v>
       </c>
     </row>
     <row r="99">
@@ -1827,10 +1827,10 @@
         <v>0.0141</v>
       </c>
       <c r="C99" t="n">
-        <v>0.06644781738297849</v>
+        <v>0.06569624909231538</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.01920112814549479</v>
+        <v>-0.006109829970152601</v>
       </c>
     </row>
     <row r="100">
@@ -1841,10 +1841,10 @@
         <v>0.0413</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02536440814509779</v>
+        <v>0.02004813588516031</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.01653440070464404</v>
+        <v>-0.02443932464354216</v>
       </c>
     </row>
     <row r="101">
@@ -1855,10 +1855,10 @@
         <v>0.0315</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.03041528459215285</v>
+        <v>-0.03635048877411311</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01076780306830102</v>
+        <v>0.02389490316080083</v>
       </c>
     </row>
     <row r="102">
@@ -1869,10 +1869,10 @@
         <v>-0.0398</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.02787029424336739</v>
+        <v>-0.03150920662210214</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.003069469746606657</v>
+        <v>-0.003318078638249636</v>
       </c>
     </row>
     <row r="103">
@@ -1883,10 +1883,10 @@
         <v>-0.001</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.04032441868651634</v>
+        <v>-0.03355834694768645</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0107671060276884</v>
+        <v>-0.02789282903694599</v>
       </c>
     </row>
     <row r="104">
@@ -1897,10 +1897,10 @@
         <v>-0.045</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.03477784951668143</v>
+        <v>-0.02561414600413533</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01914733130328414</v>
+        <v>0.005317265529702464</v>
       </c>
     </row>
     <row r="105">
@@ -1911,10 +1911,10 @@
         <v>0.0379</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0256278572062168</v>
+        <v>-0.04098542744786877</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02423186366836982</v>
+        <v>0.03754721883772246</v>
       </c>
     </row>
     <row r="106">
@@ -1925,10 +1925,10 @@
         <v>-0.008500000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.008437337420657203</v>
+        <v>0.01513516718272884</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.01179889749245411</v>
+        <v>-0.02564143661460317</v>
       </c>
     </row>
     <row r="107">
@@ -1939,10 +1939,10 @@
         <v>-0.0442</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.03107558599038106</v>
+        <v>-0.03353626545638824</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002927409890345178</v>
+        <v>0.006672007243640962</v>
       </c>
     </row>
     <row r="108">
@@ -1953,10 +1953,10 @@
         <v>-0.0046</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.05686422578802406</v>
+        <v>-0.05555753797097969</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01038184659515614</v>
+        <v>-0.01327862667550036</v>
       </c>
     </row>
     <row r="109">
@@ -1967,10 +1967,10 @@
         <v>0.08710000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03052192399614953</v>
+        <v>0.0391546053172334</v>
       </c>
       <c r="D109" t="n">
-        <v>0.005223852317312302</v>
+        <v>-0.006849602009595557</v>
       </c>
     </row>
     <row r="110">
@@ -1981,10 +1981,10 @@
         <v>0.0249</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1480951229341684</v>
+        <v>0.1411243833917961</v>
       </c>
       <c r="D110" t="n">
-        <v>0.002292190117463455</v>
+        <v>0.02083619992021406</v>
       </c>
     </row>
     <row r="111">
@@ -1995,10 +1995,10 @@
         <v>0.0287</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03975993799952927</v>
+        <v>0.03156503915922743</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.01572648324459998</v>
+        <v>-0.01891545171368649</v>
       </c>
     </row>
     <row r="112">
@@ -2009,10 +2009,10 @@
         <v>0.0063</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.009493121889772164</v>
+        <v>-0.01097005511479039</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.022563577512851</v>
+        <v>-0.02423706550968098</v>
       </c>
     </row>
     <row r="113">
@@ -2023,10 +2023,10 @@
         <v>0.0029</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.008507974510790654</v>
+        <v>-0.01874563253605913</v>
       </c>
       <c r="D113" t="n">
-        <v>0.003845632533657878</v>
+        <v>0.007512146691070158</v>
       </c>
     </row>
     <row r="114">
@@ -2037,10 +2037,10 @@
         <v>0.0125</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04349106151957784</v>
+        <v>-0.05042211658457302</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.02183600176518941</v>
+        <v>-0.01823072498471386</v>
       </c>
     </row>
     <row r="115">
@@ -2051,10 +2051,10 @@
         <v>-0.0243</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01399368413180338</v>
+        <v>-0.01245088285832622</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.01154384084363175</v>
+        <v>-0.01132333331601366</v>
       </c>
     </row>
     <row r="116">
@@ -2065,10 +2065,10 @@
         <v>-0.008</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.02653749323175147</v>
+        <v>-0.02195383640371455</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.005367584351291116</v>
+        <v>-0.00421143373597248</v>
       </c>
     </row>
     <row r="117">
@@ -2079,10 +2079,10 @@
         <v>0.0326</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.05612250070367217</v>
+        <v>-0.05332714509011908</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02681588355598558</v>
+        <v>0.02598166598642098</v>
       </c>
     </row>
     <row r="118">
@@ -2093,10 +2093,10 @@
         <v>-0.0114</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.03605851673498076</v>
+        <v>-0.03524770261048834</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005962271829002254</v>
+        <v>-0.002847438620297148</v>
       </c>
     </row>
     <row r="119">
@@ -2107,10 +2107,10 @@
         <v>0.0052</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.03525428138669814</v>
+        <v>-0.04022853314958001</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.003459284159784995</v>
+        <v>0.00355613126105503</v>
       </c>
     </row>
     <row r="120">
@@ -2121,10 +2121,10 @@
         <v>0.046</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.04362476032671345</v>
+        <v>-0.02781627324684707</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04429858539442838</v>
+        <v>0.02336828006528879</v>
       </c>
     </row>
     <row r="121">
@@ -2135,10 +2135,10 @@
         <v>0.0062</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.03303852256061215</v>
+        <v>-0.05340288025436648</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.02255014685628417</v>
+        <v>-0.01708219942600954</v>
       </c>
     </row>
     <row r="122">
@@ -2149,10 +2149,10 @@
         <v>-0.0329</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01176035334129354</v>
+        <v>-0.004361400696418244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006881788775846685</v>
+        <v>0.03072608291827007</v>
       </c>
     </row>
     <row r="123">
@@ -2163,10 +2163,10 @@
         <v>-0.04849999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.03883074337246909</v>
+        <v>-0.04128435295959464</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01154127688127014</v>
+        <v>0.0172809659819837</v>
       </c>
     </row>
     <row r="124">
@@ -2177,10 +2177,10 @@
         <v>-0.013</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.03339926951862626</v>
+        <v>-0.02977826638738162</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0324683267815782</v>
+        <v>0.02428751193014568</v>
       </c>
     </row>
     <row r="125">
@@ -2191,10 +2191,10 @@
         <v>-0.0568</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.03965317949245972</v>
+        <v>-0.05655570667967642</v>
       </c>
       <c r="D125" t="n">
-        <v>0.04587909905645569</v>
+        <v>0.05578670054427399</v>
       </c>
     </row>
     <row r="126">
@@ -2205,10 +2205,10 @@
         <v>-0.0294</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.09238246790583937</v>
+        <v>-0.09640887488848834</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0003896910029482364</v>
+        <v>0.003068984725081866</v>
       </c>
     </row>
     <row r="127">
@@ -2219,10 +2219,10 @@
         <v>-0.0157</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.01889645385882164</v>
+        <v>-0.02720276937152687</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00632321609002004</v>
+        <v>0.007863928574778471</v>
       </c>
     </row>
     <row r="128">
@@ -2233,10 +2233,10 @@
         <v>0.0505</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09175620606500762</v>
+        <v>0.0616603736577559</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.06051464335316301</v>
+        <v>-0.05261610144423259</v>
       </c>
     </row>
     <row r="129">
@@ -2247,10 +2247,10 @@
         <v>-0.0382</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.05115949478512964</v>
+        <v>-0.04252036590805069</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02808129349177454</v>
+        <v>0.017088377363141</v>
       </c>
     </row>
     <row r="130">
@@ -2261,10 +2261,10 @@
         <v>0.0475</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.002802087561741114</v>
+        <v>-0.01602008202336175</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01971950926125948</v>
+        <v>-0.01054035869424806</v>
       </c>
     </row>
     <row r="131">
@@ -2275,10 +2275,10 @@
         <v>-0.0083</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01761790606920866</v>
+        <v>-0.01891315553730001</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.000749194166187732</v>
+        <v>0.02402470288147819</v>
       </c>
     </row>
     <row r="132">
@@ -2289,10 +2289,10 @@
         <v>-0.1275</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.105369831447355</v>
+        <v>-0.08171025118439489</v>
       </c>
       <c r="D132" t="n">
-        <v>0.04932124074532437</v>
+        <v>0.03539414911968589</v>
       </c>
     </row>
     <row r="133">
@@ -2303,10 +2303,10 @@
         <v>0.0061</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1288925903140752</v>
+        <v>-0.12959039536899</v>
       </c>
       <c r="D133" t="n">
-        <v>0.05640961955871808</v>
+        <v>0.02111214949949902</v>
       </c>
     </row>
     <row r="134">
@@ -2317,10 +2317,10 @@
         <v>-0.0017</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2239123187500232</v>
+        <v>0.2203370967308685</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01668611673377787</v>
+        <v>0.004569451047114315</v>
       </c>
     </row>
     <row r="135">
@@ -2331,10 +2331,10 @@
         <v>-0.004699999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.02615161608105866</v>
+        <v>-0.0100097997404157</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0488704024399115</v>
+        <v>0.01166148959659872</v>
       </c>
     </row>
     <row r="136">
@@ -2345,10 +2345,10 @@
         <v>-0.0281</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04288695355808257</v>
+        <v>0.05207918990405765</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.0017134807518814</v>
+        <v>0.001986204210830989</v>
       </c>
     </row>
     <row r="137">
@@ -2359,10 +2359,10 @@
         <v>-0.0529</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.01427682084174247</v>
+        <v>-0.01920285882812225</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01158050532632597</v>
+        <v>0.01948569050097988</v>
       </c>
     </row>
     <row r="138">
@@ -2373,10 +2373,10 @@
         <v>-0.04679999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.02539880228727915</v>
+        <v>-0.02538928426104483</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.01513680511800082</v>
+        <v>-0.01059202915708208</v>
       </c>
     </row>
     <row r="139">
@@ -2387,10 +2387,10 @@
         <v>-0.0283</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.001413455384461353</v>
+        <v>-0.02646433797596304</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.003833713878546696</v>
+        <v>0.01659605094784807</v>
       </c>
     </row>
     <row r="140">
@@ -2401,10 +2401,10 @@
         <v>-0.0805</v>
       </c>
       <c r="C140" t="n">
-        <v>0.03168094072651996</v>
+        <v>-0.005463202083908054</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.004080928002183515</v>
+        <v>0.03649159122917186</v>
       </c>
     </row>
     <row r="141">
@@ -2415,10 +2415,10 @@
         <v>-0.0935</v>
       </c>
       <c r="C141" t="n">
-        <v>0.006733162337473869</v>
+        <v>0.002722363072022588</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01481430008527553</v>
+        <v>0.01958104708734866</v>
       </c>
     </row>
     <row r="142">
@@ -2429,10 +2429,10 @@
         <v>-0.1177</v>
       </c>
       <c r="C142" t="n">
-        <v>0.037794194636339</v>
+        <v>0.00773449570606001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01460386776339057</v>
+        <v>0.03218008638997398</v>
       </c>
     </row>
     <row r="143">
@@ -2443,10 +2443,10 @@
         <v>0.161</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1255365780466612</v>
+        <v>-0.1033853465506433</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.01521976407409199</v>
+        <v>-0.05398058590558009</v>
       </c>
     </row>
     <row r="144">
@@ -2457,10 +2457,10 @@
         <v>-0.0451</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.01458283720110777</v>
+        <v>-0.02114810671200531</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.001339440911813823</v>
+        <v>-0.001231301191582587</v>
       </c>
     </row>
     <row r="145">
@@ -2471,10 +2471,10 @@
         <v>-0.0345</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1000585926454222</v>
+        <v>-0.09901968754737461</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01640133896780255</v>
+        <v>0.01101795615788416</v>
       </c>
     </row>
     <row r="146">
@@ -2485,10 +2485,10 @@
         <v>0.1366</v>
       </c>
       <c r="C146" t="n">
-        <v>0.163770417366003</v>
+        <v>0.1811988529063382</v>
       </c>
       <c r="D146" t="n">
-        <v>0.003425222720485704</v>
+        <v>0.03643543314644437</v>
       </c>
     </row>
     <row r="147">
@@ -2499,10 +2499,10 @@
         <v>0.0556</v>
       </c>
       <c r="C147" t="n">
-        <v>0.02040150924980855</v>
+        <v>0.01002403293205156</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.03781176217850921</v>
+        <v>-0.02058922527893736</v>
       </c>
     </row>
     <row r="148">
@@ -2513,10 +2513,10 @@
         <v>0.0266</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06865027807300049</v>
+        <v>0.08441415721399061</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.02634841304771708</v>
+        <v>-0.01526020403978338</v>
       </c>
     </row>
     <row r="149">
@@ -2527,10 +2527,10 @@
         <v>0.0423</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.01733235817058629</v>
+        <v>-0.01473815336476572</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.0469093107211916</v>
+        <v>-0.03627972307272542</v>
       </c>
     </row>
     <row r="150">
@@ -2541,10 +2541,10 @@
         <v>0.0519</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03312715646303328</v>
+        <v>0.02921647070715178</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.03358019964312712</v>
+        <v>-0.03433825890301966</v>
       </c>
     </row>
     <row r="151">
@@ -2555,10 +2555,10 @@
         <v>0.0483</v>
       </c>
       <c r="C151" t="n">
-        <v>0.02009037886214023</v>
+        <v>0.005623192877163972</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.00112764434430368</v>
+        <v>0.01356903520451665</v>
       </c>
     </row>
     <row r="152">
@@ -2569,10 +2569,10 @@
         <v>-0.0659</v>
       </c>
       <c r="C152" t="n">
-        <v>0.07627935224496823</v>
+        <v>0.08471278085584562</v>
       </c>
       <c r="D152" t="n">
-        <v>0.02008874262025092</v>
+        <v>0.01550211594071313</v>
       </c>
     </row>
     <row r="153">
@@ -2583,10 +2583,10 @@
         <v>-0.0285</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.03811904767681473</v>
+        <v>-0.03841039931060226</v>
       </c>
       <c r="D153" t="n">
-        <v>0.006403514863848769</v>
+        <v>-0.008455732970702241</v>
       </c>
     </row>
     <row r="154">
@@ -2597,10 +2597,10 @@
         <v>-0.0426</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.01909315444573654</v>
+        <v>-0.005391838664522169</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01972843030764979</v>
+        <v>0.001563100913207348</v>
       </c>
     </row>
     <row r="155">
@@ -2611,10 +2611,10 @@
         <v>0.05309999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.05116198829638611</v>
+        <v>-0.05729336698375701</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.009680036693276477</v>
+        <v>-0.005759918826043063</v>
       </c>
     </row>
     <row r="156">
@@ -2625,10 +2625,10 @@
         <v>0.0264</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.02711963773246976</v>
+        <v>-0.02453237841630929</v>
       </c>
       <c r="D156" t="n">
-        <v>0.02861934655588457</v>
+        <v>0.01294879271314381</v>
       </c>
     </row>
     <row r="157">
@@ -2639,10 +2639,10 @@
         <v>-0.016</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.009263287301345747</v>
+        <v>-0.00769448360211042</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01612038070717024</v>
+        <v>0.01663690319734338</v>
       </c>
     </row>
     <row r="158">
@@ -2653,10 +2653,10 @@
         <v>0.1216</v>
       </c>
       <c r="C158" t="n">
-        <v>0.06614950292838653</v>
+        <v>0.0690730654110184</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04819319325015917</v>
+        <v>0.04102294934187645</v>
       </c>
     </row>
     <row r="159">
@@ -2667,10 +2667,10 @@
         <v>0.0032</v>
       </c>
       <c r="C159" t="n">
-        <v>0.134433690343111</v>
+        <v>0.1328666715455779</v>
       </c>
       <c r="D159" t="n">
-        <v>0.05277438227815802</v>
+        <v>0.0495306443226102</v>
       </c>
     </row>
     <row r="160">
@@ -2681,10 +2681,10 @@
         <v>0.0232</v>
       </c>
       <c r="C160" t="n">
-        <v>0.001596499471782382</v>
+        <v>-0.0006479023765642543</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.006170622973100309</v>
+        <v>-0.009535529594222332</v>
       </c>
     </row>
     <row r="161">
@@ -2695,10 +2695,10 @@
         <v>-0.0149</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0100759016411363</v>
+        <v>0.006495850072603867</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.01741491608825532</v>
+        <v>0.006041841013311556</v>
       </c>
     </row>
     <row r="162">
@@ -2709,10 +2709,10 @@
         <v>-0.0134</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.03038027578979794</v>
+        <v>-0.01558350743766754</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.01125131107950873</v>
+        <v>-0.00358095524287151</v>
       </c>
     </row>
     <row r="163">
@@ -2723,10 +2723,10 @@
         <v>0.0405</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.04029785991795193</v>
+        <v>-0.03875236662783796</v>
       </c>
       <c r="D163" t="n">
-        <v>0.005047777737327976</v>
+        <v>0.002925261474026105</v>
       </c>
     </row>
     <row r="164">
@@ -2737,10 +2737,10 @@
         <v>-0.0107</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.0003678873512474798</v>
+        <v>0.005844617276020293</v>
       </c>
       <c r="D164" t="n">
-        <v>0.02389220256583741</v>
+        <v>0.01830324709847266</v>
       </c>
     </row>
     <row r="165">
@@ -2751,10 +2751,10 @@
         <v>-0.005600000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.01616284663896828</v>
+        <v>-0.02180606035305282</v>
       </c>
       <c r="D165" t="n">
-        <v>0.005913538941581191</v>
+        <v>0.009099314301074798</v>
       </c>
     </row>
     <row r="166">
@@ -2765,10 +2765,10 @@
         <v>0.0207</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.01029891525181799</v>
+        <v>-0.01661286573258134</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.001827490275348695</v>
+        <v>-0.007142407059052786</v>
       </c>
     </row>
     <row r="167">
@@ -2779,10 +2779,10 @@
         <v>-0.0242</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.004997573092031853</v>
+        <v>-0.002788645550168903</v>
       </c>
       <c r="D167" t="n">
-        <v>0.006468100855735601</v>
+        <v>0.008296310766533452</v>
       </c>
     </row>
     <row r="168">
@@ -2793,10 +2793,10 @@
         <v>0.0036</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.007131217811841053</v>
+        <v>-0.01271692167648676</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01195758938794439</v>
+        <v>0.01401803617730045</v>
       </c>
     </row>
     <row r="169">
@@ -2807,10 +2807,10 @@
         <v>0.0565</v>
       </c>
       <c r="C169" t="n">
-        <v>0.03748778546357671</v>
+        <v>0.04087342767835882</v>
       </c>
       <c r="D169" t="n">
-        <v>0.007524812670875042</v>
+        <v>0.009028314212519373</v>
       </c>
     </row>
     <row r="170">
@@ -2821,10 +2821,10 @@
         <v>-0.0405</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1074048408355476</v>
+        <v>0.1114871390466898</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01839835760348521</v>
+        <v>0.03744786173285891</v>
       </c>
     </row>
     <row r="171">
@@ -2835,10 +2835,10 @@
         <v>-0.0194</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04346250929339544</v>
+        <v>0.04283418908142621</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.004839582028496846</v>
+        <v>0.002667736210410834</v>
       </c>
     </row>
     <row r="172">
@@ -2849,10 +2849,10 @@
         <v>-0.0137</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02051524551693358</v>
+        <v>0.0177275064008369</v>
       </c>
       <c r="D172" t="n">
-        <v>0.006953230734114593</v>
+        <v>0.005258324854150826</v>
       </c>
     </row>
     <row r="173">
@@ -2863,10 +2863,10 @@
         <v>0.0015</v>
       </c>
       <c r="C173" t="n">
-        <v>0.004061206748808048</v>
+        <v>-0.003888806282534697</v>
       </c>
       <c r="D173" t="n">
-        <v>0.007816458504816623</v>
+        <v>0.0164820181420845</v>
       </c>
     </row>
     <row r="174">
@@ -2877,10 +2877,10 @@
         <v>-0.0145</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01708673840299191</v>
+        <v>0.02538411781317774</v>
       </c>
       <c r="D174" t="n">
-        <v>0.02217050206179345</v>
+        <v>0.005320097036634434</v>
       </c>
     </row>
     <row r="175">
@@ -2891,10 +2891,10 @@
         <v>0.0471</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.01316491846821604</v>
+        <v>-0.01476217129249967</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.001872883882103681</v>
+        <v>-0.004357034837356416</v>
       </c>
     </row>
     <row r="176">
@@ -2905,10 +2905,10 @@
         <v>-0.0169</v>
       </c>
       <c r="C176" t="n">
-        <v>0.045935386323227</v>
+        <v>0.04794422003425677</v>
       </c>
       <c r="D176" t="n">
-        <v>0.004593112523615035</v>
+        <v>-0.0005098089149579545</v>
       </c>
     </row>
     <row r="177">
@@ -2919,10 +2919,10 @@
         <v>-0.0175</v>
       </c>
       <c r="C177" t="n">
-        <v>0.02134354465781378</v>
+        <v>0.02239957242222648</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.02337047412339071</v>
+        <v>-0.02173571048605347</v>
       </c>
     </row>
     <row r="178">
@@ -2933,10 +2933,10 @@
         <v>-0.0027</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01963326249924924</v>
+        <v>0.0187872844029652</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009994177608539748</v>
+        <v>0.006555484232886902</v>
       </c>
     </row>
     <row r="179">
@@ -2947,10 +2947,10 @@
         <v>-0.0438</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01853219020038882</v>
+        <v>0.01687898751686706</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01669240465646386</v>
+        <v>0.01420431836608279</v>
       </c>
     </row>
     <row r="180">
@@ -2961,10 +2961,10 @@
         <v>0.04</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01186519426542141</v>
+        <v>0.01307438226194883</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.00270348460213235</v>
+        <v>-0.003490629198357215</v>
       </c>
     </row>
     <row r="181">
@@ -2975,10 +2975,10 @@
         <v>0.0027</v>
       </c>
       <c r="C181" t="n">
-        <v>0.02919694802995846</v>
+        <v>0.02944353178773906</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0001705182530301608</v>
+        <v>-0.0135611986917793</v>
       </c>
     </row>
     <row r="182">
@@ -2989,10 +2989,10 @@
         <v>-0.0601</v>
       </c>
       <c r="C182" t="n">
-        <v>0.06120692258721898</v>
+        <v>0.05933190567918419</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02234203920587903</v>
+        <v>0.03487678477907905</v>
       </c>
     </row>
     <row r="183">
@@ -3003,10 +3003,10 @@
         <v>-0.0138</v>
       </c>
       <c r="C183" t="n">
-        <v>0.04916592242459199</v>
+        <v>0.06352579816370818</v>
       </c>
       <c r="D183" t="n">
-        <v>0.01061094526306469</v>
+        <v>-0.001144134737321728</v>
       </c>
     </row>
     <row r="184">
@@ -3017,10 +3017,10 @@
         <v>0.0285</v>
       </c>
       <c r="C184" t="n">
-        <v>0.04421460804244517</v>
+        <v>0.04305572755410304</v>
       </c>
       <c r="D184" t="n">
-        <v>0.009753783262063762</v>
+        <v>0.0009950049385293522</v>
       </c>
     </row>
     <row r="185">
@@ -3031,10 +3031,10 @@
         <v>0.0788</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01581891771206767</v>
+        <v>0.002623854699255551</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.02567551128728429</v>
+        <v>-0.02375072832861497</v>
       </c>
     </row>
     <row r="186">
@@ -3045,10 +3045,10 @@
         <v>0.0176</v>
       </c>
       <c r="C186" t="n">
-        <v>0.08004647683416238</v>
+        <v>0.06898778027426934</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001633034660087622</v>
+        <v>-0.007322755485738228</v>
       </c>
     </row>
     <row r="187">
@@ -3059,10 +3059,10 @@
         <v>-0.0169</v>
       </c>
       <c r="C187" t="n">
-        <v>0.03892588193322535</v>
+        <v>0.0365559630277214</v>
       </c>
       <c r="D187" t="n">
-        <v>0.003902029788552772</v>
+        <v>-0.001290930819788937</v>
       </c>
     </row>
     <row r="188">
@@ -3073,10 +3073,10 @@
         <v>0.05110000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.02111577963458545</v>
+        <v>-0.02074980664282253</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.00329258556866318</v>
+        <v>-0.01849266051790979</v>
       </c>
     </row>
     <row r="189">
@@ -3087,10 +3087,10 @@
         <v>0.0375</v>
       </c>
       <c r="C189" t="n">
-        <v>0.09072070050352227</v>
+        <v>0.08915427153606333</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.01004678297388525</v>
+        <v>-0.01429459804254586</v>
       </c>
     </row>
     <row r="190">
@@ -3101,10 +3101,10 @@
         <v>-0.0143</v>
       </c>
       <c r="C190" t="n">
-        <v>0.03249514166330052</v>
+        <v>0.03446132896754651</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007826615031381491</v>
+        <v>0.01067048290385672</v>
       </c>
     </row>
     <row r="191">
@@ -3115,10 +3115,10 @@
         <v>-0.1191</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.09031318272655343</v>
+        <v>-0.08532538032443657</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007820586182118006</v>
+        <v>0.02427545569358963</v>
       </c>
     </row>
     <row r="192">
@@ -3129,10 +3129,10 @@
         <v>0.0271</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.01336924063226006</v>
+        <v>-0.02297513520745851</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.01570381074184523</v>
+        <v>-0.02208491026994966</v>
       </c>
     </row>
     <row r="193">
@@ -3143,10 +3143,10 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.009385409745205431</v>
+        <v>-0.009671314917176384</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.01350007267060905</v>
+        <v>-0.0209877968008314</v>
       </c>
     </row>
     <row r="194">
@@ -3157,10 +3157,10 @@
         <v>0.0423</v>
       </c>
       <c r="C194" t="n">
-        <v>0.03915144531213931</v>
+        <v>0.06574650855236348</v>
       </c>
       <c r="D194" t="n">
-        <v>0.01792328176765795</v>
+        <v>0.00740712715332939</v>
       </c>
     </row>
     <row r="195">
@@ -3171,10 +3171,10 @@
         <v>-0.0356</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02023179215690452</v>
+        <v>0.004464479744100122</v>
       </c>
       <c r="D195" t="n">
-        <v>0.01018025850921805</v>
+        <v>0.02244719553167158</v>
       </c>
     </row>
     <row r="196">
@@ -3185,10 +3185,10 @@
         <v>0.0568</v>
       </c>
       <c r="C196" t="n">
-        <v>0.003690942814356099</v>
+        <v>0.01647582898848568</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.01454143546577401</v>
+        <v>-0.02846071002739183</v>
       </c>
     </row>
     <row r="197">
@@ -3199,10 +3199,10 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04379094921788984</v>
+        <v>0.03517986495879322</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.002610569194983883</v>
+        <v>0.001027141999733805</v>
       </c>
     </row>
     <row r="198">
@@ -3213,10 +3213,10 @@
         <v>-0.0221</v>
       </c>
       <c r="C198" t="n">
-        <v>0.007778262168426087</v>
+        <v>0.007652878470771507</v>
       </c>
       <c r="D198" t="n">
-        <v>0.003628454089728344</v>
+        <v>0.00325515191328366</v>
       </c>
     </row>
     <row r="199">
@@ -3227,10 +3227,10 @@
         <v>0.0385</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01087674348481557</v>
+        <v>0.001857830706694041</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.00557663251804133</v>
+        <v>0.008458127730950837</v>
       </c>
     </row>
     <row r="200">
@@ -3241,10 +3241,10 @@
         <v>0.008199999999999999</v>
       </c>
       <c r="C200" t="n">
-        <v>0.000728966840330976</v>
+        <v>-0.003102801528357945</v>
       </c>
       <c r="D200" t="n">
-        <v>0.005612046265816947</v>
+        <v>0.02001060602351776</v>
       </c>
     </row>
     <row r="201">
@@ -3255,10 +3255,10 @@
         <v>0.0553</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01635686256686577</v>
+        <v>0.01888451015070496</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.009377599462407793</v>
+        <v>-0.01642625184826284</v>
       </c>
     </row>
     <row r="202">
@@ -3269,10 +3269,10 @@
         <v>-0.008199999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>0.006194542667210006</v>
+        <v>0.0002970781483880899</v>
       </c>
       <c r="D202" t="n">
-        <v>0.001374403940428101</v>
+        <v>0.002248037068105773</v>
       </c>
     </row>
     <row r="203">
@@ -3283,10 +3283,10 @@
         <v>-0.081</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.02369123094021779</v>
+        <v>-0.01632174822817131</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0006117972930670817</v>
+        <v>-0.003461269571889067</v>
       </c>
     </row>
     <row r="204">
@@ -3297,10 +3297,10 @@
         <v>0.0521</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.003613155894828343</v>
+        <v>-0.01065021316705218</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.03743219970548362</v>
+        <v>-0.04614099830497969</v>
       </c>
     </row>
     <row r="205">
@@ -3311,10 +3311,10 @@
         <v>0.0179</v>
       </c>
       <c r="C205" t="n">
-        <v>0.05478110629894457</v>
+        <v>0.05095433338780124</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.03508022866635736</v>
+        <v>-0.03933522774485464</v>
       </c>
     </row>
     <row r="206">
@@ -3325,10 +3325,10 @@
         <v>0.0551</v>
       </c>
       <c r="C206" t="n">
-        <v>0.07805420172104856</v>
+        <v>0.08237044886244278</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.01362605269621676</v>
+        <v>-0.007885656158574728</v>
       </c>
     </row>
     <row r="207">
@@ -3339,10 +3339,10 @@
         <v>-0.0122</v>
       </c>
       <c r="C207" t="n">
-        <v>0.008765115012434098</v>
+        <v>0.007865719082493648</v>
       </c>
       <c r="D207" t="n">
-        <v>0.009311186497686665</v>
+        <v>-0.005120917060019334</v>
       </c>
     </row>
     <row r="208">
@@ -3353,10 +3353,10 @@
         <v>-0.129</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.06717629733855172</v>
+        <v>-0.07125345624297649</v>
       </c>
       <c r="D208" t="n">
-        <v>0.01482848381461582</v>
+        <v>0.02681153507186348</v>
       </c>
     </row>
     <row r="209">
@@ -3367,10 +3367,10 @@
         <v>0.0397</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.02234164697974974</v>
+        <v>-0.02045610099016708</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.008346751180047809</v>
+        <v>-0.009493262645233223</v>
       </c>
     </row>
     <row r="210">
@@ -3381,10 +3381,10 @@
         <v>0.0526</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.003993053742960821</v>
+        <v>0.001754056208147316</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.0001330300486606373</v>
+        <v>-0.007332502789491088</v>
       </c>
     </row>
     <row r="211">
@@ -3395,10 +3395,10 @@
         <v>0.0306</v>
       </c>
       <c r="C211" t="n">
-        <v>0.005327741024543066</v>
+        <v>-0.002745903908870112</v>
       </c>
       <c r="D211" t="n">
-        <v>0.001121713202684713</v>
+        <v>0.004750741657203184</v>
       </c>
     </row>
     <row r="212">
@@ -3409,10 +3409,10 @@
         <v>0.0649</v>
       </c>
       <c r="C212" t="n">
-        <v>0.01726531268486327</v>
+        <v>0.02366092777038391</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.04196627951512839</v>
+        <v>-0.04734161431635325</v>
       </c>
     </row>
     <row r="213">
@@ -3423,10 +3423,10 @@
         <v>0.018</v>
       </c>
       <c r="C213" t="n">
-        <v>0.08285436301510231</v>
+        <v>0.07589827239964156</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.02837229137253573</v>
+        <v>-0.04231654832930003</v>
       </c>
     </row>
     <row r="214">
@@ -3437,10 +3437,10 @@
         <v>0.0219</v>
       </c>
       <c r="C214" t="n">
-        <v>0.02939032483155362</v>
+        <v>0.04055589126053158</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.004077936639274173</v>
+        <v>-0.03371860581763898</v>
       </c>
     </row>
     <row r="215">
@@ -3451,10 +3451,10 @@
         <v>0.0106</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0500498065867183</v>
+        <v>0.04919704419316488</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.0275466864015619</v>
+        <v>-0.02929196885675062</v>
       </c>
     </row>
     <row r="216">
@@ -3465,10 +3465,10 @@
         <v>0.0959</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.03448869324278472</v>
+        <v>-0.02576505442185736</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.06036001285757522</v>
+        <v>-0.09761159600463126</v>
       </c>
     </row>
     <row r="217">
@@ -3479,10 +3479,10 @@
         <v>-0.0452</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.02260641291472846</v>
+        <v>-0.02489472348946371</v>
       </c>
       <c r="D217" t="n">
-        <v>0.007732928627480005</v>
+        <v>0.02210277128683776</v>
       </c>
     </row>
     <row r="218">
@@ -3493,10 +3493,10 @@
         <v>-0.0504</v>
       </c>
       <c r="C218" t="n">
-        <v>0.04001032712547981</v>
+        <v>0.05249139866867947</v>
       </c>
       <c r="D218" t="n">
-        <v>0.05757107287558522</v>
+        <v>0.05322518602182987</v>
       </c>
     </row>
     <row r="219">
@@ -3507,10 +3507,10 @@
         <v>0.005699999999999999</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.01883879892278132</v>
+        <v>-0.01920502935341853</v>
       </c>
       <c r="D219" t="n">
-        <v>0.01083722575254481</v>
+        <v>0.01609657833195018</v>
       </c>
     </row>
     <row r="220">
@@ -3521,10 +3521,10 @@
         <v>0.0356</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02192772494224633</v>
+        <v>0.01375686824298056</v>
       </c>
       <c r="D220" t="n">
-        <v>0.01351856082134143</v>
+        <v>0.01662272052132246</v>
       </c>
     </row>
     <row r="221">
@@ -3535,10 +3535,10 @@
         <v>-0.0211</v>
       </c>
       <c r="C221" t="n">
-        <v>0.05721828621584839</v>
+        <v>0.06321768113052934</v>
       </c>
       <c r="D221" t="n">
-        <v>0.01002922399943422</v>
+        <v>-0.002579678357881858</v>
       </c>
     </row>
     <row r="222">
@@ -3549,10 +3549,10 @@
         <v>0.0011</v>
       </c>
       <c r="C222" t="n">
-        <v>0.01874325961834387</v>
+        <v>0.01448801135418593</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.008317600528309165</v>
+        <v>-0.01168405635962082</v>
       </c>
     </row>
     <row r="223">
@@ -3563,10 +3563,10 @@
         <v>-0.0236</v>
       </c>
       <c r="C223" t="n">
-        <v>0.02311929572636867</v>
+        <v>0.01301165842977914</v>
       </c>
       <c r="D223" t="n">
-        <v>0.05688574190706531</v>
+        <v>0.04547183761837705</v>
       </c>
     </row>
     <row r="224">
@@ -3577,10 +3577,10 @@
         <v>-0.0154</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.0286539723056393</v>
+        <v>-0.01900866494649767</v>
       </c>
       <c r="D224" t="n">
-        <v>0.007553594215988453</v>
+        <v>0.004138480026478425</v>
       </c>
     </row>
     <row r="225">
@@ -3591,10 +3591,10 @@
         <v>-0.0704</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.02886793599724299</v>
+        <v>-0.03472239422010513</v>
       </c>
       <c r="D225" t="n">
-        <v>0.03356139720545752</v>
+        <v>0.05596752187315905</v>
       </c>
     </row>
     <row r="226">
@@ -3605,10 +3605,10 @@
         <v>-0.0717</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.03299482980078531</v>
+        <v>-0.05375728385890894</v>
       </c>
       <c r="D226" t="n">
-        <v>0.02165677582572816</v>
+        <v>0.05898795315378414</v>
       </c>
     </row>
     <row r="227">
@@ -3619,10 +3619,10 @@
         <v>0.0492</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.008488212986959079</v>
+        <v>0.001430163507911655</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.02979257833745826</v>
+        <v>-0.05410627269301267</v>
       </c>
     </row>
     <row r="228">
@@ -3633,10 +3633,10 @@
         <v>0.0336</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.05254583385145996</v>
+        <v>-0.05451454285934366</v>
       </c>
       <c r="D228" t="n">
-        <v>0.04195165050982579</v>
+        <v>0.04385252491545729</v>
       </c>
     </row>
     <row r="229">
@@ -3647,10 +3647,10 @@
         <v>-0.0365</v>
       </c>
       <c r="C229" t="n">
-        <v>0.009353142498982971</v>
+        <v>0.002029447635549426</v>
       </c>
       <c r="D229" t="n">
-        <v>0.02134686274731269</v>
+        <v>0.03313993635612997</v>
       </c>
     </row>
     <row r="230">
@@ -3661,10 +3661,10 @@
         <v>-0.03240000000000001</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01579900112921683</v>
+        <v>0.0177595783857324</v>
       </c>
       <c r="D230" t="n">
-        <v>0.009304449386854227</v>
+        <v>0.01912402578877872</v>
       </c>
     </row>
     <row r="231">
@@ -3675,10 +3675,10 @@
         <v>-0.05860000000000001</v>
       </c>
       <c r="C231" t="n">
-        <v>0.01080352014336035</v>
+        <v>-0.01167558587760662</v>
       </c>
       <c r="D231" t="n">
-        <v>0.04877172334298058</v>
+        <v>0.05911898373187169</v>
       </c>
     </row>
     <row r="232">
@@ -3689,10 +3689,10 @@
         <v>-0.0187</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.008068551933323714</v>
+        <v>-0.005477747923938034</v>
       </c>
       <c r="D232" t="n">
-        <v>0.04005289858288202</v>
+        <v>0.03464090609681073</v>
       </c>
     </row>
     <row r="233">
@@ -3703,10 +3703,10 @@
         <v>0.0327</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01365135454714228</v>
+        <v>0.006921551400611611</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.02032896197294855</v>
+        <v>-0.01525793115533462</v>
       </c>
     </row>
     <row r="234">
@@ -3717,10 +3717,10 @@
         <v>-0.0399</v>
       </c>
       <c r="C234" t="n">
-        <v>0.008144067505514073</v>
+        <v>0.01225781312118008</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03041827298201766</v>
+        <v>0.02560875490697069</v>
       </c>
     </row>
     <row r="235">
@@ -3731,10 +3731,10 @@
         <v>-0.0309</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.01585721959404444</v>
+        <v>-0.03454970558572626</v>
       </c>
       <c r="D235" t="n">
-        <v>0.03282509725246067</v>
+        <v>0.0390848188035141</v>
       </c>
     </row>
     <row r="236">
@@ -3745,10 +3745,10 @@
         <v>-0.0319</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0008111128975626415</v>
+        <v>0.00227103676777464</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0244940704733461</v>
+        <v>0.02418907838935027</v>
       </c>
     </row>
     <row r="237">
@@ -3759,10 +3759,10 @@
         <v>0.1114</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.1145838771047636</v>
+        <v>-0.105339150024164</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.00320736653955471</v>
+        <v>0.01392064824835919</v>
       </c>
     </row>
     <row r="238">
@@ -3773,10 +3773,10 @@
         <v>0.0129</v>
       </c>
       <c r="C238" t="n">
-        <v>0.02403998547164059</v>
+        <v>0.002646655450775318</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0167929781259178</v>
+        <v>0.02695146732612155</v>
       </c>
     </row>
     <row r="239">
@@ -3787,10 +3787,10 @@
         <v>0.113</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.01791575723403438</v>
+        <v>-0.01216079116638698</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.03531455362907664</v>
+        <v>-0.02500991844944997</v>
       </c>
     </row>
     <row r="240">
@@ -3801,10 +3801,10 @@
         <v>0.0467</v>
       </c>
       <c r="C240" t="n">
-        <v>0.05886225770860492</v>
+        <v>0.04982890455228223</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.006167967406690456</v>
+        <v>-0.01188320352280156</v>
       </c>
     </row>
     <row r="241">
@@ -3815,10 +3815,10 @@
         <v>0.005500000000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>0.02865482445207936</v>
+        <v>0.02101356275959958</v>
       </c>
       <c r="D241" t="n">
-        <v>0.002584307030345253</v>
+        <v>-0.007094701745213004</v>
       </c>
     </row>
     <row r="242">
@@ -3829,10 +3829,10 @@
         <v>0.036</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1421427740296423</v>
+        <v>0.1320650939861641</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.06179257476681051</v>
+        <v>-0.03218167550546933</v>
       </c>
     </row>
     <row r="243">
@@ -3843,10 +3843,10 @@
         <v>0.0259</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01352374285549962</v>
+        <v>0.005086654758037511</v>
       </c>
       <c r="D243" t="n">
-        <v>0.03746482258029832</v>
+        <v>0.02943017934436945</v>
       </c>
     </row>
     <row r="244">
@@ -3857,10 +3857,10 @@
         <v>0.0282</v>
       </c>
       <c r="C244" t="n">
-        <v>0.02879362221352547</v>
+        <v>0.01428998889247408</v>
       </c>
       <c r="D244" t="n">
-        <v>0.02807567261727679</v>
+        <v>0.02903010610227682</v>
       </c>
     </row>
     <row r="245">
@@ -3871,10 +3871,10 @@
         <v>0.0667</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01851771673989248</v>
+        <v>0.008055513617655691</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02007305971789421</v>
+        <v>0.0222362377971536</v>
       </c>
     </row>
     <row r="246">
@@ -3885,10 +3885,10 @@
         <v>0.0052</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1223169067734404</v>
+        <v>0.1185611761643401</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.02391450364524436</v>
+        <v>0.002500385462122098</v>
       </c>
     </row>
     <row r="247">
@@ -3899,10 +3899,10 @@
         <v>0.0307</v>
       </c>
       <c r="C247" t="n">
-        <v>0.01453391783845634</v>
+        <v>0.014454738282945</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.02092396516729207</v>
+        <v>-0.01870541597909892</v>
       </c>
     </row>
     <row r="248">
@@ -3913,10 +3913,10 @@
         <v>-0.0407</v>
       </c>
       <c r="C248" t="n">
-        <v>0.01997194092842578</v>
+        <v>0.02372286584653045</v>
       </c>
       <c r="D248" t="n">
-        <v>0.03819668914495419</v>
+        <v>0.04876635607492168</v>
       </c>
     </row>
     <row r="249">
@@ -3927,10 +3927,10 @@
         <v>-0.005</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.07256371569835145</v>
+        <v>-0.0680189030156536</v>
       </c>
       <c r="D249" t="n">
-        <v>0.03020845070874067</v>
+        <v>0.05276792213019966</v>
       </c>
     </row>
     <row r="250">
@@ -3941,10 +3941,10 @@
         <v>0.0091</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.04327534508953972</v>
+        <v>-0.04588507170823873</v>
       </c>
       <c r="D250" t="n">
-        <v>0.03131407025340617</v>
+        <v>0.02498872229503097</v>
       </c>
     </row>
     <row r="251">
@@ -3955,10 +3955,10 @@
         <v>-0.0344</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.03473419981884519</v>
+        <v>-0.04355384848597313</v>
       </c>
       <c r="D251" t="n">
-        <v>0.04838147070996902</v>
+        <v>0.05883821665742781</v>
       </c>
     </row>
     <row r="252">
@@ -3969,10 +3969,10 @@
         <v>0.0216</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.02099798636493497</v>
+        <v>-0.01077848361157242</v>
       </c>
       <c r="D252" t="n">
-        <v>0.03063875019121859</v>
+        <v>-0.007525940173568616</v>
       </c>
     </row>
     <row r="253">
@@ -3983,10 +3983,10 @@
         <v>-0.0178</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.00386359381660897</v>
+        <v>-0.01352029992857232</v>
       </c>
       <c r="D253" t="n">
-        <v>0.02526145756664696</v>
+        <v>0.0276746301050587</v>
       </c>
     </row>
     <row r="254">
@@ -3997,10 +3997,10 @@
         <v>-0.0192</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0408173728144277</v>
+        <v>0.05166578993833998</v>
       </c>
       <c r="D254" t="n">
-        <v>0.04662546714799387</v>
+        <v>0.06352180835935034</v>
       </c>
     </row>
     <row r="255">
@@ -4011,10 +4011,10 @@
         <v>-0.0482</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.01917812730572138</v>
+        <v>-0.02698443802984401</v>
       </c>
       <c r="D255" t="n">
-        <v>0.02029193304439146</v>
+        <v>0.03449963846208174</v>
       </c>
     </row>
     <row r="256">
@@ -4025,10 +4025,10 @@
         <v>0.0063</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.005732610866459755</v>
+        <v>-0.01461392993516672</v>
       </c>
       <c r="D256" t="n">
-        <v>0.01473984768667202</v>
+        <v>0.02067920881873395</v>
       </c>
     </row>
     <row r="257">
@@ -4039,10 +4039,10 @@
         <v>-0.0051</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.04894984009045259</v>
+        <v>-0.04966071608968427</v>
       </c>
       <c r="D257" t="n">
-        <v>0.01718503587303328</v>
+        <v>0.01147931952528175</v>
       </c>
     </row>
     <row r="258">
@@ -4053,10 +4053,10 @@
         <v>-0.0597</v>
       </c>
       <c r="C258" t="n">
-        <v>0.01106831534335949</v>
+        <v>0.003190607337157217</v>
       </c>
       <c r="D258" t="n">
-        <v>0.01359773526681529</v>
+        <v>0.01623368615705247</v>
       </c>
     </row>
     <row r="259">
@@ -4067,10 +4067,10 @@
         <v>0.0182</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.03517750876928985</v>
+        <v>-0.02868940769429872</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.002828933989848501</v>
+        <v>-0.01702343680029589</v>
       </c>
     </row>
     <row r="260">
@@ -4081,10 +4081,10 @@
         <v>-0.0274</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.04745094048175245</v>
+        <v>-0.04573020835167459</v>
       </c>
       <c r="D260" t="n">
-        <v>0.02345101441336791</v>
+        <v>0.02434949565688154</v>
       </c>
     </row>
     <row r="261">
@@ -4095,10 +4095,10 @@
         <v>0.1028</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.05922508073962746</v>
+        <v>-0.05948579080018818</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.02604157607738211</v>
+        <v>-0.01924813767051405</v>
       </c>
     </row>
     <row r="262">
@@ -4109,10 +4109,10 @@
         <v>-0.008</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.002397852821435022</v>
+        <v>0.002237158600018528</v>
       </c>
       <c r="D262" t="n">
-        <v>0.04432905598315844</v>
+        <v>0.05042587504163151</v>
       </c>
     </row>
     <row r="263">
@@ -4123,10 +4123,10 @@
         <v>-0.008399999999999999</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.04266804212342066</v>
+        <v>-0.0409605799818011</v>
       </c>
       <c r="D263" t="n">
-        <v>0.03487090685466256</v>
+        <v>0.01919721370747576</v>
       </c>
     </row>
     <row r="264">
@@ -4137,10 +4137,10 @@
         <v>-0.0176</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.03320668693955943</v>
+        <v>-0.04869182130225518</v>
       </c>
       <c r="D264" t="n">
-        <v>0.05501432105570939</v>
+        <v>0.05115898139495976</v>
       </c>
     </row>
     <row r="265">
@@ -4151,10 +4151,10 @@
         <v>0.0184</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.05013293980885979</v>
+        <v>-0.04832645265184812</v>
       </c>
       <c r="D265" t="n">
-        <v>0.02443429783529462</v>
+        <v>0.01556257492462332</v>
       </c>
     </row>
     <row r="266">
@@ -4165,10 +4165,10 @@
         <v>0.0799</v>
       </c>
       <c r="C266" t="n">
-        <v>0.02499283071372078</v>
+        <v>0.04353438706469422</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.05567940130478628</v>
+        <v>-0.02875578770961361</v>
       </c>
     </row>
     <row r="267">
@@ -4179,10 +4179,10 @@
         <v>0.0122</v>
       </c>
       <c r="C267" t="n">
-        <v>0.05712494154273956</v>
+        <v>0.06320167623276593</v>
       </c>
       <c r="D267" t="n">
-        <v>0.009514297769563133</v>
+        <v>-0.001594454144446894</v>
       </c>
     </row>
     <row r="268">
@@ -4193,10 +4193,10 @@
         <v>-0.008399999999999999</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.01063044265059373</v>
+        <v>-0.01085654003579146</v>
       </c>
       <c r="D268" t="n">
-        <v>0.03226671623631262</v>
+        <v>0.01640332784079529</v>
       </c>
     </row>
     <row r="269">
@@ -4207,10 +4207,10 @@
         <v>-0.009599999999999999</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.02191344295194898</v>
+        <v>-0.02266866399776309</v>
       </c>
       <c r="D269" t="n">
-        <v>0.03618422341909456</v>
+        <v>0.01880887425057862</v>
       </c>
     </row>
     <row r="270">
@@ -4221,10 +4221,10 @@
         <v>0.0509</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.05659114770753993</v>
+        <v>-0.0640951896575187</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0001435159586224977</v>
+        <v>-0.0002832551781405818</v>
       </c>
     </row>
     <row r="271">
@@ -4235,10 +4235,10 @@
         <v>0.0127</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.03673161120614054</v>
+        <v>-0.0409850499162499</v>
       </c>
       <c r="D271" t="n">
-        <v>0.01749858308097026</v>
+        <v>0.02099793604069369</v>
       </c>
     </row>
     <row r="272">
@@ -4249,10 +4249,10 @@
         <v>-0.0074</v>
       </c>
       <c r="C272" t="n">
-        <v>0.02082435288375224</v>
+        <v>0.009975981817696265</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.001022297841322767</v>
+        <v>0.001420379803494231</v>
       </c>
     </row>
     <row r="273">
@@ -4263,10 +4263,10 @@
         <v>-0.0102</v>
       </c>
       <c r="C273" t="n">
-        <v>0.00823980875692084</v>
+        <v>-0.009814656437519432</v>
       </c>
       <c r="D273" t="n">
-        <v>0.01970580470403696</v>
+        <v>0.02307643513946528</v>
       </c>
     </row>
     <row r="274">
@@ -4277,10 +4277,10 @@
         <v>-0.0454</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.01937659550806636</v>
+        <v>-0.02945302257984839</v>
       </c>
       <c r="D274" t="n">
-        <v>0.02562626328106391</v>
+        <v>0.02148419374042111</v>
       </c>
     </row>
     <row r="275">
@@ -4291,10 +4291,10 @@
         <v>0.04019999999999999</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.05509206907456168</v>
+        <v>-0.05669584351550216</v>
       </c>
       <c r="D275" t="n">
-        <v>0.01775249119997178</v>
+        <v>0.01313425045764499</v>
       </c>
     </row>
     <row r="276">
@@ -4305,10 +4305,10 @@
         <v>0.06480000000000001</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.04483156101423612</v>
+        <v>-0.0461193274300202</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.005191516718707934</v>
+        <v>-0.01026125407544463</v>
       </c>
     </row>
     <row r="277">
@@ -4319,10 +4319,10 @@
         <v>0.0388</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.03565817485975275</v>
+        <v>-0.04025062511010313</v>
       </c>
       <c r="D277" t="n">
-        <v>0.01727940001068937</v>
+        <v>-0.009003064220527855</v>
       </c>
     </row>
     <row r="278">
@@ -4333,10 +4333,10 @@
         <v>0.006500000000000001</v>
       </c>
       <c r="C278" t="n">
-        <v>0.05124035106556504</v>
+        <v>0.05722152642046488</v>
       </c>
       <c r="D278" t="n">
-        <v>0.02070453998401427</v>
+        <v>0.004600689196154834</v>
       </c>
     </row>
     <row r="279">
@@ -4347,10 +4347,10 @@
         <v>0.0713</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.0330206507935414</v>
+        <v>-0.03956280075089615</v>
       </c>
       <c r="D279" t="n">
-        <v>0.02082788378299617</v>
+        <v>0.002359549856252148</v>
       </c>
     </row>
     <row r="280">
@@ -4361,10 +4361,10 @@
         <v>0.0488</v>
       </c>
       <c r="C280" t="n">
-        <v>0.005864288737657042</v>
+        <v>-0.004459874278405197</v>
       </c>
       <c r="D280" t="n">
-        <v>0.01177066831170338</v>
+        <v>-0.008163807882383786</v>
       </c>
     </row>
     <row r="281">
@@ -4375,10 +4375,10 @@
         <v>-0.0131</v>
       </c>
       <c r="C281" t="n">
-        <v>0.02451495893113405</v>
+        <v>0.03045788249636441</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.01891785564816279</v>
+        <v>-0.02130654005049323</v>
       </c>
     </row>
     <row r="282">
@@ -4389,10 +4389,10 @@
         <v>0.0462</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.006776384231127752</v>
+        <v>-0.02056814830397505</v>
       </c>
       <c r="D282" t="n">
-        <v>0.002194589307733835</v>
+        <v>-0.01261250802860659</v>
       </c>
     </row>
     <row r="283">
@@ -4403,10 +4403,10 @@
         <v>0.0103</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.00853082403374477</v>
+        <v>-0.0142996315201648</v>
       </c>
       <c r="D283" t="n">
-        <v>0.01840349718140648</v>
+        <v>0.005438766717181605</v>
       </c>
     </row>
     <row r="284">
@@ -4417,10 +4417,10 @@
         <v>-0.0645</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.02764324739771373</v>
+        <v>-0.02411309238594676</v>
       </c>
       <c r="D284" t="n">
-        <v>0.04927926548441978</v>
+        <v>0.03442022451705699</v>
       </c>
     </row>
     <row r="285">
@@ -4431,10 +4431,10 @@
         <v>0.0607</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.07609477567059016</v>
+        <v>-0.06897537358667517</v>
       </c>
       <c r="D285" t="n">
-        <v>0.02134914372241348</v>
+        <v>0.02699772165773709</v>
       </c>
     </row>
     <row r="286">
@@ -4445,10 +4445,10 @@
         <v>-0.08599999999999999</v>
       </c>
       <c r="C286" t="n">
-        <v>0.01305748239934676</v>
+        <v>0.01451442518323187</v>
       </c>
       <c r="D286" t="n">
-        <v>0.03688612918425475</v>
+        <v>0.03244143310546279</v>
       </c>
     </row>
     <row r="287">
@@ -4459,10 +4459,10 @@
         <v>0.0466</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.0577693186520076</v>
+        <v>-0.05854487472980897</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.01211551155404188</v>
+        <v>-0.009664106047965797</v>
       </c>
     </row>
     <row r="288">
@@ -4473,10 +4473,10 @@
         <v>0.0117</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.03870118072596553</v>
+        <v>-0.03945378348803609</v>
       </c>
       <c r="D288" t="n">
-        <v>0.001033431657808909</v>
+        <v>0.01199969462628054</v>
       </c>
     </row>
     <row r="289">
@@ -4487,10 +4487,10 @@
         <v>-0.0327</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.02388740766116384</v>
+        <v>-0.02932403181244744</v>
       </c>
       <c r="D289" t="n">
-        <v>0.02448804483614606</v>
+        <v>0.01968743086058335</v>
       </c>
     </row>
     <row r="290">
@@ -4501,10 +4501,10 @@
         <v>0.1247</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.02527753518247358</v>
+        <v>-0.01583050181365643</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.01410732658627849</v>
+        <v>-0.01323614404508375</v>
       </c>
     </row>
     <row r="291">
@@ -4515,10 +4515,10 @@
         <v>0.04389999999999999</v>
       </c>
       <c r="C291" t="n">
-        <v>0.02268764316741811</v>
+        <v>0.03386798229755777</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.04983531182291807</v>
+        <v>-0.04451799393406635</v>
       </c>
     </row>
     <row r="292">
@@ -4529,10 +4529,10 @@
         <v>0.0164</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0350436147802702</v>
+        <v>0.02596605689917289</v>
       </c>
       <c r="D292" t="n">
-        <v>0.01794883565338172</v>
+        <v>0.0224473417567441</v>
       </c>
     </row>
     <row r="293">
@@ -4543,10 +4543,10 @@
         <v>-0.0211</v>
       </c>
       <c r="C293" t="n">
-        <v>0.004767449104589275</v>
+        <v>-0.002277836324277163</v>
       </c>
       <c r="D293" t="n">
-        <v>0.006369407699797457</v>
+        <v>0.03160061164352472</v>
       </c>
     </row>
     <row r="294">
@@ -4557,10 +4557,10 @@
         <v>0.0011</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.001832159457274584</v>
+        <v>-0.007957385319658184</v>
       </c>
       <c r="D294" t="n">
-        <v>0.002003939330214169</v>
+        <v>0.01056837280559382</v>
       </c>
     </row>
     <row r="295">
@@ -4571,10 +4571,10 @@
         <v>0.0394</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.03775858025589188</v>
+        <v>-0.03614743949426986</v>
       </c>
       <c r="D295" t="n">
-        <v>0.02695679775470129</v>
+        <v>0.01409034519980066</v>
       </c>
     </row>
     <row r="296">
@@ -4585,10 +4585,10 @@
         <v>0.0385</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.003695541270466479</v>
+        <v>-0.0137824549713388</v>
       </c>
       <c r="D296" t="n">
-        <v>0.01458542242126688</v>
+        <v>0.01910600763102818</v>
       </c>
     </row>
     <row r="297">
@@ -4599,10 +4599,10 @@
         <v>0.0352</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.03993021436347415</v>
+        <v>-0.04574610235452869</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.009782836745087259</v>
+        <v>0.006937729519896513</v>
       </c>
     </row>
     <row r="298">
@@ -4613,10 +4613,10 @@
         <v>-0.0259</v>
       </c>
       <c r="C298" t="n">
-        <v>0.003098023194946266</v>
+        <v>0.002256734926915534</v>
       </c>
       <c r="D298" t="n">
-        <v>0.01869759580408141</v>
+        <v>0.01968625446028015</v>
       </c>
     </row>
     <row r="299">
@@ -4627,10 +4627,10 @@
         <v>-0.2324</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.07214769320095241</v>
+        <v>-0.07484826870163733</v>
       </c>
       <c r="D299" t="n">
-        <v>0.06321116898342685</v>
+        <v>0.06718170158003831</v>
       </c>
     </row>
     <row r="300">
@@ -4641,10 +4641,10 @@
         <v>-0.07769999999999999</v>
       </c>
       <c r="C300" t="n">
-        <v>0.02333602989551804</v>
+        <v>0.02015809633565781</v>
       </c>
       <c r="D300" t="n">
-        <v>0.03678390409110393</v>
+        <v>0.03188606203120086</v>
       </c>
     </row>
     <row r="301">
@@ -4655,10 +4655,10 @@
         <v>0.06809999999999999</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.1024100501067983</v>
+        <v>-0.1093079623018241</v>
       </c>
       <c r="D301" t="n">
-        <v>0.01204473709320377</v>
+        <v>-0.0240979278667957</v>
       </c>
     </row>
     <row r="302">
@@ -4669,10 +4669,10 @@
         <v>0.0421</v>
       </c>
       <c r="C302" t="n">
-        <v>0.04673614921870186</v>
+        <v>0.07044609937135063</v>
       </c>
       <c r="D302" t="n">
-        <v>0.0136677675625597</v>
+        <v>0.01842142706613596</v>
       </c>
     </row>
     <row r="303">
@@ -4683,10 +4683,10 @@
         <v>0.0475</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.01819425053139759</v>
+        <v>-0.02031040373415932</v>
       </c>
       <c r="D303" t="n">
-        <v>0.005409513339272157</v>
+        <v>-0.004693687704619455</v>
       </c>
     </row>
     <row r="304">
@@ -4697,10 +4697,10 @@
         <v>-0.0227</v>
       </c>
       <c r="C304" t="n">
-        <v>0.06382927719562288</v>
+        <v>0.05378963877126048</v>
       </c>
       <c r="D304" t="n">
-        <v>0.01193139514058211</v>
+        <v>0.01142325368229728</v>
       </c>
     </row>
     <row r="305">
@@ -4711,10 +4711,10 @@
         <v>0.005600000000000001</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.005862912523843777</v>
+        <v>-0.0002033903086341281</v>
       </c>
       <c r="D305" t="n">
-        <v>0.02665330631632318</v>
+        <v>0.01957941414811297</v>
       </c>
     </row>
     <row r="306">
@@ -4725,10 +4725,10 @@
         <v>-0.0029</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.02383779442814868</v>
+        <v>-0.03026722618553172</v>
       </c>
       <c r="D306" t="n">
-        <v>0.01794226397554731</v>
+        <v>0.01870551565706706</v>
       </c>
     </row>
     <row r="307">
@@ -4739,10 +4739,10 @@
         <v>0.0479</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.01860010323759634</v>
+        <v>-0.0258717574395006</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.008464806587492497</v>
+        <v>-0.005793988159431628</v>
       </c>
     </row>
     <row r="308">
@@ -4753,10 +4753,10 @@
         <v>-0.0125</v>
       </c>
       <c r="C308" t="n">
-        <v>0.01581191538808207</v>
+        <v>0.02252755446266833</v>
       </c>
       <c r="D308" t="n">
-        <v>0.01163645047277979</v>
+        <v>-0.001333329806478176</v>
       </c>
     </row>
     <row r="309">
@@ -4767,10 +4767,10 @@
         <v>-0.0331</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.01025457827185761</v>
+        <v>-0.001827051010061045</v>
       </c>
       <c r="D309" t="n">
-        <v>0.01226580694187976</v>
+        <v>0.0106774559422403</v>
       </c>
     </row>
     <row r="310">
@@ -4781,10 +4781,10 @@
         <v>0.033</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.03012903793156006</v>
+        <v>-0.04278830485056517</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.01149587091688126</v>
+        <v>-0.001144312941360213</v>
       </c>
     </row>
     <row r="311">
@@ -4795,10 +4795,10 @@
         <v>0.0115</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.05024476356880492</v>
+        <v>-0.05737487199901073</v>
       </c>
       <c r="D311" t="n">
-        <v>0.02432563549588771</v>
+        <v>0.01933801331783271</v>
       </c>
     </row>
     <row r="312">
@@ -4809,10 +4809,10 @@
         <v>-0.0229</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.03661044176900251</v>
+        <v>-0.04366712091494147</v>
       </c>
       <c r="D312" t="n">
-        <v>0.03082653405426758</v>
+        <v>0.02608237370212362</v>
       </c>
     </row>
     <row r="313">
@@ -4823,10 +4823,10 @@
         <v>0.0149</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.01505595660972128</v>
+        <v>-0.01793552285768236</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.009197481930206339</v>
+        <v>0.001408082481137819</v>
       </c>
     </row>
     <row r="314">
@@ -4837,10 +4837,10 @@
         <v>0.061</v>
       </c>
       <c r="C314" t="n">
-        <v>0.01524280034817567</v>
+        <v>0.01575404570597531</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.009224225308120858</v>
+        <v>0.001168154966939353</v>
       </c>
     </row>
     <row r="315">
@@ -4851,10 +4851,10 @@
         <v>-0.0225</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0234767635577377</v>
+        <v>0.007786851029667618</v>
       </c>
       <c r="D315" t="n">
-        <v>0.003815201841702023</v>
+        <v>0.006144827983645581</v>
       </c>
     </row>
     <row r="316">
@@ -4865,10 +4865,10 @@
         <v>0.0157</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.01893407947921913</v>
+        <v>-0.01952029567377367</v>
       </c>
       <c r="D316" t="n">
-        <v>0.01483966047956734</v>
+        <v>0.006822490455126786</v>
       </c>
     </row>
     <row r="317">
@@ -4879,10 +4879,10 @@
         <v>0.0433</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.02129230846588372</v>
+        <v>-0.02282694154859614</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.002443078909802873</v>
+        <v>-0.01315595240337912</v>
       </c>
     </row>
     <row r="318">
@@ -4893,10 +4893,10 @@
         <v>0.0335</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.02177419513075855</v>
+        <v>-0.02250890014462511</v>
       </c>
       <c r="D318" t="n">
-        <v>0.01038365009773887</v>
+        <v>-0.00683386434673796</v>
       </c>
     </row>
     <row r="319">
@@ -4907,10 +4907,10 @@
         <v>-0.0135</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.02231989317637859</v>
+        <v>-0.02299093473588652</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0430733869868026</v>
+        <v>0.03371397806802633</v>
       </c>
     </row>
     <row r="320">
@@ -4921,10 +4921,10 @@
         <v>0.07200000000000001</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.08573008999090484</v>
+        <v>-0.07923749617954598</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.007554847426991695</v>
+        <v>-0.02298287501161445</v>
       </c>
     </row>
     <row r="321">
@@ -4935,10 +4935,10 @@
         <v>0.0144</v>
       </c>
       <c r="C321" t="n">
-        <v>0.006860907953014476</v>
+        <v>-0.003466104652040364</v>
       </c>
       <c r="D321" t="n">
-        <v>0.01116096236209643</v>
+        <v>0.006225779822009919</v>
       </c>
     </row>
     <row r="322">
@@ -4949,10 +4949,10 @@
         <v>-0.0076</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.0004522177309094549</v>
+        <v>-0.003584663719705514</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.01013637734049632</v>
+        <v>-0.01035939766883322</v>
       </c>
     </row>
     <row r="323">
@@ -4963,10 +4963,10 @@
         <v>-0.0367</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.03001203359098431</v>
+        <v>-0.02523844950863525</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.01496187818431231</v>
+        <v>-0.01966474294838976</v>
       </c>
     </row>
     <row r="324">
@@ -4977,10 +4977,10 @@
         <v>0.0103</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.04729717252997313</v>
+        <v>-0.05684654224075373</v>
       </c>
       <c r="D324" t="n">
-        <v>0.00534069161200893</v>
+        <v>-0.004617751129188308</v>
       </c>
     </row>
     <row r="325">
@@ -4991,10 +4991,10 @@
         <v>0.0116</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.04050048018653307</v>
+        <v>-0.04679291375340042</v>
       </c>
       <c r="D325" t="n">
-        <v>0.004778957666687548</v>
+        <v>0.003416417455917239</v>
       </c>
     </row>
     <row r="326">
@@ -5005,10 +5005,10 @@
         <v>-0.0785</v>
       </c>
       <c r="C326" t="n">
-        <v>0.03800873653632542</v>
+        <v>0.042215289071712</v>
       </c>
       <c r="D326" t="n">
-        <v>0.01943915005889599</v>
+        <v>0.01750138946354318</v>
       </c>
     </row>
     <row r="327">
@@ -5019,10 +5019,10 @@
         <v>0.0111</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.01047075384036183</v>
+        <v>-0.005785227434118292</v>
       </c>
       <c r="D327" t="n">
-        <v>0.004758197441922135</v>
+        <v>0.009000350683707537</v>
       </c>
     </row>
     <row r="328">
@@ -5033,10 +5033,10 @@
         <v>0.0183</v>
       </c>
       <c r="C328" t="n">
-        <v>6.667816145148817e-05</v>
+        <v>0.001242890308401336</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.02397980407690945</v>
+        <v>-0.03875882604466906</v>
       </c>
     </row>
     <row r="329">
@@ -5047,10 +5047,10 @@
         <v>-0.0336</v>
       </c>
       <c r="C329" t="n">
-        <v>0.01088501240844951</v>
+        <v>0.01757763613960795</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.01776723370092387</v>
+        <v>-0.02249371637053043</v>
       </c>
     </row>
     <row r="330">
@@ -5061,10 +5061,10 @@
         <v>0.0842</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.0724448245732616</v>
+        <v>-0.07278582886087884</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.04447352732667612</v>
+        <v>-0.05188315835898119</v>
       </c>
     </row>
     <row r="331">
@@ -5075,10 +5075,10 @@
         <v>-0.0109</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.01057802558372325</v>
+        <v>0.009386950367504468</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.01139613174375768</v>
+        <v>-0.02112468545012602</v>
       </c>
     </row>
     <row r="332">
@@ -5089,10 +5089,10 @@
         <v>-0.019</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.01482636612366886</v>
+        <v>-0.01221504788862285</v>
       </c>
       <c r="D332" t="n">
-        <v>0.01004600676288728</v>
+        <v>-0.009269466737189789</v>
       </c>
     </row>
     <row r="333">
@@ -5103,10 +5103,10 @@
         <v>-0.1015</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.0103275238786093</v>
+        <v>-0.02137064706627068</v>
       </c>
       <c r="D333" t="n">
-        <v>0.0183896001673393</v>
+        <v>0.01821869752210427</v>
       </c>
     </row>
     <row r="334">
@@ -5117,10 +5117,10 @@
         <v>-0.0612</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.01222484215315982</v>
+        <v>-0.01158967432465365</v>
       </c>
       <c r="D334" t="n">
-        <v>0.02348763451545603</v>
+        <v>0.01438711174470254</v>
       </c>
     </row>
     <row r="335">
@@ -5131,10 +5131,10 @@
         <v>-0.0192</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.08801868804042964</v>
+        <v>-0.06716320824429757</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.0008577914302506442</v>
+        <v>-0.01055876398880023</v>
       </c>
     </row>
     <row r="336">
@@ -5145,10 +5145,10 @@
         <v>0.0635</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.07847700816359844</v>
+        <v>-0.07796791608589183</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.0241753579382177</v>
+        <v>-0.02546786931253919</v>
       </c>
     </row>
     <row r="337">
@@ -5159,10 +5159,10 @@
         <v>0.0246</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.0811337361285539</v>
+        <v>-0.09191238587288525</v>
       </c>
       <c r="D337" t="n">
-        <v>0.006199677169900438</v>
+        <v>-0.005113317900710468</v>
       </c>
     </row>
     <row r="338">
@@ -5173,10 +5173,10 @@
         <v>0.0469</v>
       </c>
       <c r="C338" t="n">
-        <v>0.04146179654634689</v>
+        <v>0.04126153198870678</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.0192814528832786</v>
+        <v>0.005516761237168044</v>
       </c>
     </row>
     <row r="339">
@@ -5187,10 +5187,10 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="C339" t="n">
-        <v>0.06328513240202964</v>
+        <v>0.07762030008156276</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.02311601572987027</v>
+        <v>-0.01177370143278995</v>
       </c>
     </row>
     <row r="340">
@@ -5201,10 +5201,10 @@
         <v>0.0265</v>
       </c>
       <c r="C340" t="n">
-        <v>0.05182346863957342</v>
+        <v>0.05678241111057418</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.004397262323277612</v>
+        <v>-0.01710482593074197</v>
       </c>
     </row>
     <row r="341">
@@ -5215,10 +5215,10 @@
         <v>-0.0028</v>
       </c>
       <c r="C341" t="n">
-        <v>0.05581275562111729</v>
+        <v>0.05492797042217581</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.006297148155903522</v>
+        <v>-0.004104755024293544</v>
       </c>
     </row>
     <row r="342">
@@ -5229,10 +5229,10 @@
         <v>0.0365</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.02553640137233426</v>
+        <v>-0.0431964692648099</v>
       </c>
       <c r="D342" t="n">
-        <v>0.01886307629665712</v>
+        <v>0.004376498476823341</v>
       </c>
     </row>
     <row r="343">
@@ -5243,10 +5243,10 @@
         <v>-0.04940000000000001</v>
       </c>
       <c r="C343" t="n">
-        <v>0.01605728267978948</v>
+        <v>0.02181684939301467</v>
       </c>
       <c r="D343" t="n">
-        <v>0.01064239521458849</v>
+        <v>0.0104016171866857</v>
       </c>
     </row>
     <row r="344">
@@ -5257,10 +5257,10 @@
         <v>0.0424</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.02324380867015196</v>
+        <v>-0.03977022900017665</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0174898685556609</v>
+        <v>-0.0035874183224349</v>
       </c>
     </row>
     <row r="345">
@@ -5271,10 +5271,10 @@
         <v>0.0232</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.007010817656506064</v>
+        <v>-0.01285668687385013</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.007086006493867123</v>
+        <v>-0.005310596214972745</v>
       </c>
     </row>
     <row r="346">
@@ -5285,10 +5285,10 @@
         <v>-0.0159</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0311303867322439</v>
+        <v>0.02722979400272713</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.0224263415637822</v>
+        <v>-0.02226883941060234</v>
       </c>
     </row>
     <row r="347">
@@ -5299,10 +5299,10 @@
         <v>0.0129</v>
       </c>
       <c r="C347" t="n">
-        <v>0.001866179463246173</v>
+        <v>0.004678048987912735</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.01063870225896669</v>
+        <v>-0.01795465166657063</v>
       </c>
     </row>
     <row r="348">
@@ -5313,10 +5313,10 @@
         <v>-0.04190000000000001</v>
       </c>
       <c r="C348" t="n">
-        <v>0.02406489168456977</v>
+        <v>0.03452024286954652</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.009314839431151379</v>
+        <v>-0.02423589800095788</v>
       </c>
     </row>
     <row r="349">
@@ -5327,10 +5327,10 @@
         <v>0.1084</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.1337729048021311</v>
+        <v>-0.1534479066128458</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.03181473921373324</v>
+        <v>-0.01722023281215098</v>
       </c>
     </row>
     <row r="350">
@@ -5341,10 +5341,10 @@
         <v>-0.0059</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2423657435922666</v>
+        <v>0.2572419726716891</v>
       </c>
       <c r="D350" t="n">
-        <v>0.02315238824628642</v>
+        <v>0.04534238840819403</v>
       </c>
     </row>
     <row r="351">
@@ -5355,10 +5355,10 @@
         <v>0.0109</v>
       </c>
       <c r="C351" t="n">
-        <v>0.07638822335966663</v>
+        <v>0.07535344233754067</v>
       </c>
       <c r="D351" t="n">
-        <v>0.0365814644744543</v>
+        <v>0.04406495136528122</v>
       </c>
     </row>
     <row r="352">
@@ -5369,10 +5369,10 @@
         <v>-0.0266</v>
       </c>
       <c r="C352" t="n">
-        <v>0.01253139396811631</v>
+        <v>0.005315466173801941</v>
       </c>
       <c r="D352" t="n">
-        <v>0.03945762247416738</v>
+        <v>0.02801305918425073</v>
       </c>
     </row>
     <row r="353">
@@ -5383,10 +5383,10 @@
         <v>0.0107</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.09674187766157233</v>
+        <v>-0.07762599936937864</v>
       </c>
       <c r="D353" t="n">
-        <v>0.05731593110041843</v>
+        <v>0.05409878408177698</v>
       </c>
     </row>
     <row r="354">
@@ -5397,10 +5397,10 @@
         <v>0.003</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.006379952529875006</v>
+        <v>-0.01392714434121229</v>
       </c>
       <c r="D354" t="n">
-        <v>0.0321707787648752</v>
+        <v>0.03350636409869453</v>
       </c>
     </row>
     <row r="355">
@@ -5411,10 +5411,10 @@
         <v>-0.0234</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.05377390885251945</v>
+        <v>-0.05209615979342345</v>
       </c>
       <c r="D355" t="n">
-        <v>0.03570291875151515</v>
+        <v>0.05421938851297249</v>
       </c>
     </row>
     <row r="356">
@@ -5425,10 +5425,10 @@
         <v>0.0377</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.0257867350764961</v>
+        <v>-0.0257334453949478</v>
       </c>
       <c r="D356" t="n">
-        <v>0.003452024223741836</v>
+        <v>-7.943457579219493e-05</v>
       </c>
     </row>
     <row r="357">
@@ -5439,10 +5439,10 @@
         <v>-0.0238</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.01638231846492072</v>
+        <v>-0.01093921736581202</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.006209858422984021</v>
+        <v>-0.006243501739385142</v>
       </c>
     </row>
     <row r="358">
@@ -5453,10 +5453,10 @@
         <v>0.0119</v>
       </c>
       <c r="C358" t="n">
-        <v>0.01456535167857452</v>
+        <v>-0.0064883789654805</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.002838820700908452</v>
+        <v>0.002284799965815806</v>
       </c>
     </row>
     <row r="359">
@@ -5467,10 +5467,10 @@
         <v>0.0102</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.01986514990408328</v>
+        <v>-0.01269154337922616</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.002486718172833042</v>
+        <v>-0.01049755993746749</v>
       </c>
     </row>
     <row r="360">
@@ -5481,10 +5481,10 @@
         <v>0.0413</v>
       </c>
       <c r="C360" t="n">
-        <v>0.02657398144124113</v>
+        <v>0.03566925015151708</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.005584620461482656</v>
+        <v>-0.01457855911555519</v>
       </c>
     </row>
     <row r="361">
@@ -5495,10 +5495,10 @@
         <v>0.0153</v>
       </c>
       <c r="C361" t="n">
-        <v>0.02801287390674176</v>
+        <v>0.01524973004091314</v>
       </c>
       <c r="D361" t="n">
-        <v>0.03018603550528657</v>
+        <v>0.02911504582003448</v>
       </c>
     </row>
     <row r="362">
@@ -5509,10 +5509,10 @@
         <v>0.009300000000000001</v>
       </c>
       <c r="C362" t="n">
-        <v>0.09118817055939971</v>
+        <v>0.07040023789658013</v>
       </c>
       <c r="D362" t="n">
-        <v>0.0445874451230853</v>
+        <v>0.04484539753436897</v>
       </c>
     </row>
     <row r="363">
@@ -5523,10 +5523,10 @@
         <v>0.0012</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.01143905626444818</v>
+        <v>-0.01420497344519512</v>
       </c>
       <c r="D363" t="n">
-        <v>0.05871986326549588</v>
+        <v>0.04302305455455079</v>
       </c>
     </row>
     <row r="364">
@@ -5537,10 +5537,10 @@
         <v>0.023</v>
       </c>
       <c r="C364" t="n">
-        <v>0.003321982635281162</v>
+        <v>-0.003067109145095958</v>
       </c>
       <c r="D364" t="n">
-        <v>0.02100017439341067</v>
+        <v>0.01983355001921926</v>
       </c>
     </row>
     <row r="365">
@@ -5551,10 +5551,10 @@
         <v>-0.0305</v>
       </c>
       <c r="C365" t="n">
-        <v>0.01082016476035407</v>
+        <v>0.016893230768854</v>
       </c>
       <c r="D365" t="n">
-        <v>0.03604059951438927</v>
+        <v>0.02810242671747654</v>
       </c>
     </row>
     <row r="366">
@@ -5565,10 +5565,10 @@
         <v>0.0289</v>
       </c>
       <c r="C366" t="n">
-        <v>0.0312372479548184</v>
+        <v>0.0185931719614303</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.0229399116945976</v>
+        <v>-0.01621597449619845</v>
       </c>
     </row>
     <row r="367">
@@ -5579,10 +5579,10 @@
         <v>0.0031</v>
       </c>
       <c r="C367" t="n">
-        <v>0.03083164111275386</v>
+        <v>0.03001857862967762</v>
       </c>
       <c r="D367" t="n">
-        <v>0.01374390337172112</v>
+        <v>0.01251568990329182</v>
       </c>
     </row>
     <row r="368">
@@ -5593,10 +5593,10 @@
         <v>-0.0034</v>
       </c>
       <c r="C368" t="n">
-        <v>0.01808522387584905</v>
+        <v>0.003966154294669309</v>
       </c>
       <c r="D368" t="n">
-        <v>0.03451055401220055</v>
+        <v>0.04234623815641408</v>
       </c>
     </row>
     <row r="369">
@@ -5607,10 +5607,10 @@
         <v>0.0371</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.007500082037373901</v>
+        <v>-0.01133238433992437</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.01517831719348728</v>
+        <v>0.006126379269144316</v>
       </c>
     </row>
     <row r="370">
@@ -5621,10 +5621,10 @@
         <v>-0.0012</v>
       </c>
       <c r="C370" t="n">
-        <v>0.04436740193698044</v>
+        <v>0.05926006908254482</v>
       </c>
       <c r="D370" t="n">
-        <v>0.007119075343991678</v>
+        <v>0.006578357361509021</v>
       </c>
     </row>
     <row r="371">
@@ -5635,10 +5635,10 @@
         <v>0.0141</v>
       </c>
       <c r="C371" t="n">
-        <v>0.03841703875306139</v>
+        <v>0.02735695573054705</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.02504107713081737</v>
+        <v>-0.004607323902625304</v>
       </c>
     </row>
     <row r="372">
@@ -5649,10 +5649,10 @@
         <v>-0.0189</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.01188585234166755</v>
+        <v>-0.0209054657364188</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.009789931122448119</v>
+        <v>0.01083648923557546</v>
       </c>
     </row>
     <row r="373">
@@ -5663,10 +5663,10 @@
         <v>0.0165</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.03245517800659228</v>
+        <v>-0.03801881501237512</v>
       </c>
       <c r="D373" t="n">
-        <v>0.01993028685792292</v>
+        <v>0.01216407354823981</v>
       </c>
     </row>
     <row r="374">
@@ -5677,10 +5677,10 @@
         <v>0.0287</v>
       </c>
       <c r="C374" t="n">
-        <v>0.0215661334166183</v>
+        <v>0.03544657646916274</v>
       </c>
       <c r="D374" t="n">
-        <v>0.02126420823093222</v>
+        <v>0.01486032454590112</v>
       </c>
     </row>
     <row r="375">
@@ -5691,10 +5691,10 @@
         <v>-0.0255</v>
       </c>
       <c r="C375" t="n">
-        <v>0.01500189287696786</v>
+        <v>0.0141557243349078</v>
       </c>
       <c r="D375" t="n">
-        <v>0.005640593675715819</v>
+        <v>0.01322964923632132</v>
       </c>
     </row>
     <row r="376">
@@ -5705,10 +5705,10 @@
         <v>-0.0478</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.002898070324168098</v>
+        <v>-0.001747177801058361</v>
       </c>
       <c r="D376" t="n">
-        <v>0.02611555512874995</v>
+        <v>0.02868896289137791</v>
       </c>
     </row>
     <row r="377">
@@ -5719,10 +5719,10 @@
         <v>0.0068</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.0372564417349268</v>
+        <v>-0.04002553533830233</v>
       </c>
       <c r="D377" t="n">
-        <v>0.02909421248017652</v>
+        <v>0.02942629283460133</v>
       </c>
     </row>
     <row r="378">
@@ -5733,10 +5733,10 @@
         <v>0.0058</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.02317371899606075</v>
+        <v>-0.0164142866882608</v>
       </c>
       <c r="D378" t="n">
-        <v>0.02685933402813417</v>
+        <v>0.02351198755589116</v>
       </c>
     </row>
     <row r="379">
@@ -5747,10 +5747,10 @@
         <v>-0.0303</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.005122937557846596</v>
+        <v>-0.003059790355046763</v>
       </c>
       <c r="D379" t="n">
-        <v>0.01915567182192299</v>
+        <v>0.01588166568666705</v>
       </c>
     </row>
     <row r="380">
@@ -5761,10 +5761,10 @@
         <v>0.0282</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.02566339939028974</v>
+        <v>-0.0219385505753322</v>
       </c>
       <c r="D380" t="n">
-        <v>0.00443084864155148</v>
+        <v>0.008032569453746894</v>
       </c>
     </row>
     <row r="381">
@@ -5775,10 +5775,10 @@
         <v>0.0401</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.02941305594020847</v>
+        <v>-0.02377811118201243</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.003370895951796522</v>
+        <v>-0.01092010711764632</v>
       </c>
     </row>
     <row r="382">
@@ -5789,10 +5789,10 @@
         <v>-0.0231</v>
       </c>
       <c r="C382" t="n">
-        <v>0.04009183370607659</v>
+        <v>0.04112804343581275</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.00833082486392194</v>
+        <v>-0.01006652333310722</v>
       </c>
     </row>
     <row r="383">
@@ -5803,10 +5803,10 @@
         <v>0.0134</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.01113946918634693</v>
+        <v>-0.01514657634048474</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.01374685394443233</v>
+        <v>-0.005812906378789932</v>
       </c>
     </row>
     <row r="384">
@@ -5817,10 +5817,10 @@
         <v>-0.0404</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.008761378243420451</v>
+        <v>-0.02006879739431791</v>
       </c>
       <c r="D384" t="n">
-        <v>0.004146685647324649</v>
+        <v>0.01327519641914614</v>
       </c>
     </row>
     <row r="385">
@@ -5831,10 +5831,10 @@
         <v>0.0086</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.04964088328163377</v>
+        <v>-0.05671312815670482</v>
       </c>
       <c r="D385" t="n">
-        <v>0.01616735748208423</v>
+        <v>0.0172279525094439</v>
       </c>
     </row>
     <row r="386">
@@ -5845,10 +5845,10 @@
         <v>0.018</v>
       </c>
       <c r="C386" t="n">
-        <v>0.01780936776893455</v>
+        <v>0.02195021500612095</v>
       </c>
       <c r="D386" t="n">
-        <v>0.01582578462587536</v>
+        <v>0.0177953544766629</v>
       </c>
     </row>
     <row r="387">
@@ -5859,10 +5859,10 @@
         <v>0.0363</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.01558241103765214</v>
+        <v>-0.02030835487467766</v>
       </c>
       <c r="D387" t="n">
-        <v>0.005951278785691488</v>
+        <v>0.01072222025885398</v>
       </c>
     </row>
     <row r="388">
@@ -5873,10 +5873,10 @@
         <v>0.0219</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.01105598154677929</v>
+        <v>-0.011835326121062</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.007638776282626108</v>
+        <v>-0.01481647233222982</v>
       </c>
     </row>
     <row r="389">
@@ -5887,10 +5887,10 @@
         <v>0.0211</v>
       </c>
       <c r="C389" t="n">
-        <v>0.001796485513837289</v>
+        <v>-0.00966531531639872</v>
       </c>
       <c r="D389" t="n">
-        <v>0.02023034138212232</v>
+        <v>0.03177065475531886</v>
       </c>
     </row>
     <row r="390">
@@ -5901,10 +5901,10 @@
         <v>0.029</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.02287202482512054</v>
+        <v>-0.03294610168081961</v>
       </c>
       <c r="D390" t="n">
-        <v>0.008874497275048913</v>
+        <v>0.03522970874379927</v>
       </c>
     </row>
     <row r="391">
@@ -5915,10 +5915,10 @@
         <v>0.0272</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0527656864154812</v>
+        <v>0.04318264442759334</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.04487913531121224</v>
+        <v>-0.02724651898939896</v>
       </c>
     </row>
     <row r="392">
@@ -5929,10 +5929,10 @@
         <v>0.0372</v>
       </c>
       <c r="C392" t="n">
-        <v>0.01715988217219364</v>
+        <v>0.02269213696775968</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.008568790984030482</v>
+        <v>-0.01658120375581409</v>
       </c>
     </row>
     <row r="393">
@@ -5943,10 +5943,10 @@
         <v>0.005500000000000001</v>
       </c>
       <c r="C393" t="n">
-        <v>0.02905808732624923</v>
+        <v>0.03686779153177558</v>
       </c>
       <c r="D393" t="n">
-        <v>0.01332860537443252</v>
+        <v>0.001572370554435473</v>
       </c>
     </row>
     <row r="394">
@@ -5957,10 +5957,10 @@
         <v>0.0335</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.004640479973331661</v>
+        <v>-0.01134750983009115</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.0001894934957104855</v>
+        <v>0.002208403265770306</v>
       </c>
     </row>
     <row r="395">
@@ -5971,10 +5971,10 @@
         <v>-0.0152</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.04272083016736861</v>
+        <v>-0.04790881002574964</v>
       </c>
       <c r="D395" t="n">
-        <v>0.02220065211627844</v>
+        <v>0.01723841267147956</v>
       </c>
     </row>
     <row r="396">
@@ -5985,10 +5985,10 @@
         <v>0.0396</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.05257833756537187</v>
+        <v>-0.05677340408693524</v>
       </c>
       <c r="D396" t="n">
-        <v>0.006925495542279066</v>
+        <v>0.0003671288322295626</v>
       </c>
     </row>
     <row r="397">
@@ -5999,10 +5999,10 @@
         <v>0.0103</v>
       </c>
       <c r="C397" t="n">
-        <v>-0.01483105445987489</v>
+        <v>-0.02829507474951284</v>
       </c>
       <c r="D397" t="n">
-        <v>0.01129795894543263</v>
+        <v>0.01731704410121517</v>
       </c>
     </row>
     <row r="398">
@@ -6013,10 +6013,10 @@
         <v>0.0226</v>
       </c>
       <c r="C398" t="n">
-        <v>0.02783444815061376</v>
+        <v>0.0291763983162686</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.02187377355154616</v>
+        <v>-0.004653201944611187</v>
       </c>
     </row>
     <row r="399">
@@ -6027,10 +6027,10 @@
         <v>0.0133</v>
       </c>
       <c r="C399" t="n">
-        <v>0.03657155321224856</v>
+        <v>0.03530931622753599</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.02555778944022367</v>
+        <v>-0.02106997168412313</v>
       </c>
     </row>
     <row r="400">
@@ -6041,10 +6041,10 @@
         <v>0.0073</v>
       </c>
       <c r="C400" t="n">
-        <v>0.02013537390221753</v>
+        <v>0.02177464567250915</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.007213952706911135</v>
+        <v>0.002696426815784327</v>
       </c>
     </row>
     <row r="401">
@@ -6055,10 +6055,10 @@
         <v>0.0206</v>
       </c>
       <c r="C401" t="n">
-        <v>0.04560707805841876</v>
+        <v>0.02984969300847032</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.02797108300774698</v>
+        <v>-0.02980366032675303</v>
       </c>
     </row>
     <row r="402">
@@ -6069,10 +6069,10 @@
         <v>0.0236</v>
       </c>
       <c r="C402" t="n">
-        <v>0.09380896696672</v>
+        <v>0.1007582964065351</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.03029394807322541</v>
+        <v>-0.040681164604187</v>
       </c>
     </row>
     <row r="403">
@@ -6083,10 +6083,10 @@
         <v>-0.0114</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.04892205172531974</v>
+        <v>-0.04246930609267468</v>
       </c>
       <c r="D403" t="n">
-        <v>0.03989659034594222</v>
+        <v>0.04622769358340471</v>
       </c>
     </row>
     <row r="404">
@@ -6097,10 +6097,10 @@
         <v>-0.0597</v>
       </c>
       <c r="C404" t="n">
-        <v>-0.05109420036011606</v>
+        <v>-0.046831302614311</v>
       </c>
       <c r="D404" t="n">
-        <v>0.04553773353500238</v>
+        <v>0.06768180948958749</v>
       </c>
     </row>
     <row r="405">
@@ -6111,10 +6111,10 @@
         <v>0.0277</v>
       </c>
       <c r="C405" t="n">
-        <v>0.009522983020697026</v>
+        <v>-0.006192865734312658</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.003291111060586896</v>
+        <v>0.005401100522067617</v>
       </c>
     </row>
     <row r="406">
@@ -6125,10 +6125,10 @@
         <v>0.0501</v>
       </c>
       <c r="C406" t="n">
-        <v>-0.02801729598043753</v>
+        <v>-0.03718376922005567</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.00985859106802987</v>
+        <v>-0.01040778365346265</v>
       </c>
     </row>
     <row r="407">
@@ -6139,10 +6139,10 @@
         <v>0.0086</v>
       </c>
       <c r="C407" t="n">
-        <v>-0.04921440072813878</v>
+        <v>-0.05395751039473501</v>
       </c>
       <c r="D407" t="n">
-        <v>0.0520633960251088</v>
+        <v>0.05982757671608599</v>
       </c>
     </row>
     <row r="408">
@@ -6153,10 +6153,10 @@
         <v>0.0625</v>
       </c>
       <c r="C408" t="n">
-        <v>-0.06220749449639839</v>
+        <v>-0.06416545463655766</v>
       </c>
       <c r="D408" t="n">
-        <v>0.0201595194616439</v>
+        <v>0.02248400103274528</v>
       </c>
     </row>
     <row r="409">
@@ -6167,10 +6167,10 @@
         <v>-0.017</v>
       </c>
       <c r="C409" t="n">
-        <v>-0.002976619881667669</v>
+        <v>-0.02059080858482071</v>
       </c>
       <c r="D409" t="n">
-        <v>0.02594963320306837</v>
+        <v>0.03466558158728351</v>
       </c>
     </row>
     <row r="410">
@@ -6181,10 +6181,10 @@
         <v>0.0499</v>
       </c>
       <c r="C410" t="n">
-        <v>0.04780318675189711</v>
+        <v>0.06153645599420634</v>
       </c>
       <c r="D410" t="n">
-        <v>-0.04934274433267435</v>
+        <v>-0.04553150020430564</v>
       </c>
     </row>
     <row r="411">
@@ -6195,10 +6195,10 @@
         <v>-0.0049</v>
       </c>
       <c r="C411" t="n">
-        <v>-0.02996810994994743</v>
+        <v>-0.02938405658237085</v>
       </c>
       <c r="D411" t="n">
-        <v>0.06330604716782956</v>
+        <v>0.06192692965858915</v>
       </c>
     </row>
     <row r="412">
@@ -6209,10 +6209,10 @@
         <v>-0.0503</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.006706084045547463</v>
+        <v>-0.01694498747763327</v>
       </c>
       <c r="D412" t="n">
-        <v>0.04964650505057185</v>
+        <v>0.0528444948714317</v>
       </c>
     </row>
     <row r="413">
@@ -6223,10 +6223,10 @@
         <v>0.0404</v>
       </c>
       <c r="C413" t="n">
-        <v>-0.08143942810704183</v>
+        <v>-0.09093685887141742</v>
       </c>
       <c r="D413" t="n">
-        <v>0.001668535565941024</v>
+        <v>0.005674664163119902</v>
       </c>
     </row>
     <row r="414">
@@ -6237,10 +6237,10 @@
         <v>0.0674</v>
       </c>
       <c r="C414" t="n">
-        <v>-0.02288800298294729</v>
+        <v>-0.01481335150582926</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.01415803806935362</v>
+        <v>-0.02484031156248451</v>
       </c>
     </row>
     <row r="415">
@@ -6251,10 +6251,10 @@
         <v>0.04099999999999999</v>
       </c>
       <c r="C415" t="n">
-        <v>-0.00762886971927354</v>
+        <v>-0.01309448194527739</v>
       </c>
       <c r="D415" t="n">
-        <v>0.02106656514993738</v>
+        <v>0.01746519234276697</v>
       </c>
     </row>
     <row r="416">
@@ -6265,10 +6265,10 @@
         <v>0.0733</v>
       </c>
       <c r="C416" t="n">
-        <v>-0.04868644898343387</v>
+        <v>-0.04461615602040805</v>
       </c>
       <c r="D416" t="n">
-        <v>0.02713158917403626</v>
+        <v>0.007275190555892035</v>
       </c>
     </row>
     <row r="417">
@@ -6279,10 +6279,10 @@
         <v>-0.0415</v>
       </c>
       <c r="C417" t="n">
-        <v>0.08192489586883654</v>
+        <v>0.08250038682216847</v>
       </c>
       <c r="D417" t="n">
-        <v>0.01785616225289042</v>
+        <v>0.006624024059646225</v>
       </c>
     </row>
     <row r="418">
@@ -6293,10 +6293,10 @@
         <v>0.0535</v>
       </c>
       <c r="C418" t="n">
-        <v>0.04194975274787435</v>
+        <v>0.03205246981460315</v>
       </c>
       <c r="D418" t="n">
-        <v>0.01579860900884382</v>
+        <v>0.01071164089684719</v>
       </c>
     </row>
     <row r="419">
@@ -6307,10 +6307,10 @@
         <v>-0.038</v>
       </c>
       <c r="C419" t="n">
-        <v>0.03217288896342118</v>
+        <v>0.02868100167694756</v>
       </c>
       <c r="D419" t="n">
-        <v>0.01745032575773628</v>
+        <v>0.02172378252435585</v>
       </c>
     </row>
     <row r="420">
@@ -6321,10 +6321,10 @@
         <v>0.0298</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.07501728562116239</v>
+        <v>-0.08595859760820296</v>
       </c>
       <c r="D420" t="n">
-        <v>0.03425388893527497</v>
+        <v>0.018688040974255</v>
       </c>
     </row>
     <row r="421">
@@ -6335,10 +6335,10 @@
         <v>0.0132</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.09479178324974068</v>
+        <v>-0.1073943260777887</v>
       </c>
       <c r="D421" t="n">
-        <v>0.0726723868489963</v>
+        <v>0.057304837450814</v>
       </c>
     </row>
     <row r="422">
@@ -6349,10 +6349,10 @@
         <v>0.0015</v>
       </c>
       <c r="C422" t="n">
-        <v>0.01933495397279232</v>
+        <v>0.04376617648388011</v>
       </c>
       <c r="D422" t="n">
-        <v>-0.03740222207348145</v>
+        <v>-0.02644598338553343</v>
       </c>
     </row>
     <row r="423">
@@ -6363,10 +6363,10 @@
         <v>0.0704</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.03146082526223907</v>
+        <v>-0.02844256220914949</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.008004235803885609</v>
+        <v>0.000470331501164524</v>
       </c>
     </row>
     <row r="424">
@@ -6377,10 +6377,10 @@
         <v>0.0476</v>
       </c>
       <c r="C424" t="n">
-        <v>0.002506496681942305</v>
+        <v>-0.01137461220705344</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.002530077975867059</v>
+        <v>0.01262562263737182</v>
       </c>
     </row>
     <row r="425">
@@ -6391,10 +6391,10 @@
         <v>0.0073</v>
       </c>
       <c r="C425" t="n">
-        <v>0.04872180381403213</v>
+        <v>0.0420253177449046</v>
       </c>
       <c r="D425" t="n">
-        <v>-0.01076759715911547</v>
+        <v>-0.001673935441991566</v>
       </c>
     </row>
     <row r="426">
@@ -6405,10 +6405,10 @@
         <v>-0.0307</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.0258004547821167</v>
+        <v>-0.01938806940662054</v>
       </c>
       <c r="D426" t="n">
-        <v>0.03088429352886892</v>
+        <v>0.02773233107983529</v>
       </c>
     </row>
     <row r="427">
@@ -6419,10 +6419,10 @@
         <v>0.0318</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.08152421032202366</v>
+        <v>-0.08485490693013359</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.01542642045173133</v>
+        <v>-0.009379125336859955</v>
       </c>
     </row>
     <row r="428">
@@ -6433,10 +6433,10 @@
         <v>-0.0246</v>
       </c>
       <c r="C428" t="n">
-        <v>-0.01531800769700459</v>
+        <v>-0.02098886753407505</v>
       </c>
       <c r="D428" t="n">
-        <v>0.01089858633903733</v>
+        <v>-0.002119148162250561</v>
       </c>
     </row>
     <row r="429">
@@ -6447,10 +6447,10 @@
         <v>-0.1608</v>
       </c>
       <c r="C429" t="n">
-        <v>-0.08405581707829657</v>
+        <v>-0.06757101761487611</v>
       </c>
       <c r="D429" t="n">
-        <v>0.07388471266433927</v>
+        <v>0.0647587553834556</v>
       </c>
     </row>
     <row r="430">
@@ -6461,10 +6461,10 @@
         <v>0.06150000000000001</v>
       </c>
       <c r="C430" t="n">
-        <v>-0.05417464642668492</v>
+        <v>-0.07564167227789768</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.03857466892998969</v>
+        <v>-0.02505421551088317</v>
       </c>
     </row>
     <row r="431">
@@ -6475,10 +6475,10 @@
         <v>0.0713</v>
       </c>
       <c r="C431" t="n">
-        <v>-0.06194082513146003</v>
+        <v>-0.03399834618714002</v>
       </c>
       <c r="D431" t="n">
-        <v>-0.04640558896065176</v>
+        <v>-0.05813655278777984</v>
       </c>
     </row>
     <row r="432">
@@ -6489,10 +6489,10 @@
         <v>0.061</v>
       </c>
       <c r="C432" t="n">
-        <v>0.03853677320902487</v>
+        <v>0.05473620970441503</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.0310801484798945</v>
+        <v>-0.04437258484385367</v>
       </c>
     </row>
     <row r="433">
@@ -6503,10 +6503,10 @@
         <v>0.0616</v>
       </c>
       <c r="C433" t="n">
-        <v>-0.05156818348727429</v>
+        <v>-0.06071480788115444</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.03443821417311817</v>
+        <v>-0.02541613477764352</v>
       </c>
     </row>
     <row r="434">
@@ -6517,10 +6517,10 @@
         <v>0.035</v>
       </c>
       <c r="C434" t="n">
-        <v>0.1304681802074305</v>
+        <v>0.1424508427304788</v>
       </c>
       <c r="D434" t="n">
-        <v>-0.09365995125853603</v>
+        <v>-0.0654973777139089</v>
       </c>
     </row>
     <row r="435">
@@ -6531,10 +6531,10 @@
         <v>-0.0408</v>
       </c>
       <c r="C435" t="n">
-        <v>-0.01873382299192933</v>
+        <v>-0.003830614404502462</v>
       </c>
       <c r="D435" t="n">
-        <v>0.0388395576112115</v>
+        <v>0.008371117254581471</v>
       </c>
     </row>
     <row r="436">
@@ -6545,10 +6545,10 @@
         <v>0.0345</v>
       </c>
       <c r="C436" t="n">
-        <v>-0.05212530393894803</v>
+        <v>-0.07485485163896988</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.03418253551624304</v>
+        <v>-0.03132842126529025</v>
       </c>
     </row>
     <row r="437">
@@ -6559,10 +6559,10 @@
         <v>0.0433</v>
       </c>
       <c r="C437" t="n">
-        <v>0.03540924220489915</v>
+        <v>-0.002579229932860194</v>
       </c>
       <c r="D437" t="n">
-        <v>0.01130089002435367</v>
+        <v>0.0389235534507148</v>
       </c>
     </row>
     <row r="438">
@@ -6573,10 +6573,10 @@
         <v>-0.0246</v>
       </c>
       <c r="C438" t="n">
-        <v>0.04968173820870324</v>
+        <v>0.0346539564694533</v>
       </c>
       <c r="D438" t="n">
-        <v>0.02467429814294242</v>
+        <v>0.04630143459187792</v>
       </c>
     </row>
     <row r="439">
@@ -6587,10 +6587,10 @@
         <v>0.04769999999999999</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.01642118721888561</v>
+        <v>-0.02053329825427341</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.01280505780543311</v>
+        <v>-0.006860844904152071</v>
       </c>
     </row>
     <row r="440">
@@ -6601,10 +6601,10 @@
         <v>-0.0349</v>
       </c>
       <c r="C440" t="n">
-        <v>0.05187886519416053</v>
+        <v>0.06504462235618921</v>
       </c>
       <c r="D440" t="n">
-        <v>0.01173092216496072</v>
+        <v>-0.01357596463003277</v>
       </c>
     </row>
     <row r="441">
@@ -6615,10 +6615,10 @@
         <v>-0.0138</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.02245471033877105</v>
+        <v>-0.02656775923900003</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.0008828149687566608</v>
+        <v>-0.002331170926528375</v>
       </c>
     </row>
     <row r="442">
@@ -6629,10 +6629,10 @@
         <v>-0.0279</v>
       </c>
       <c r="C442" t="n">
-        <v>0.001500751899493728</v>
+        <v>0.01176855877616943</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.01773883402820308</v>
+        <v>-0.03317021030417392</v>
       </c>
     </row>
     <row r="443">
@@ -6643,10 +6643,10 @@
         <v>0.0612</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.08013178819712126</v>
+        <v>-0.06178952320272159</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.01989728911912754</v>
+        <v>-0.0394387021417163</v>
       </c>
     </row>
     <row r="444">
@@ -6657,10 +6657,10 @@
         <v>0.0337</v>
       </c>
       <c r="C444" t="n">
-        <v>0.1506132516373448</v>
+        <v>0.153540630676828</v>
       </c>
       <c r="D444" t="n">
-        <v>-0.1248663834240028</v>
+        <v>-0.1237776298340342</v>
       </c>
     </row>
     <row r="445">
@@ -6671,10 +6671,10 @@
         <v>0.07719999999999999</v>
       </c>
       <c r="C445" t="n">
-        <v>0.09413713239394778</v>
+        <v>0.08506339949736949</v>
       </c>
       <c r="D445" t="n">
-        <v>-0.1383517194122117</v>
+        <v>-0.1001268387876443</v>
       </c>
     </row>
     <row r="446">
@@ -6685,10 +6685,10 @@
         <v>-0.0474</v>
       </c>
       <c r="C446" t="n">
-        <v>0.180101244000946</v>
+        <v>0.1746287412199312</v>
       </c>
       <c r="D446" t="n">
-        <v>-0.03331590769761082</v>
+        <v>-0.03008995550251667</v>
       </c>
     </row>
     <row r="447">
@@ -6699,10 +6699,10 @@
         <v>0.0245</v>
       </c>
       <c r="C447" t="n">
-        <v>0.2824877661402921</v>
+        <v>0.2498285003100716</v>
       </c>
       <c r="D447" t="n">
-        <v>-0.1283038202699393</v>
+        <v>-0.1748921622028703</v>
       </c>
     </row>
     <row r="448">
@@ -6713,10 +6713,10 @@
         <v>0.052</v>
       </c>
       <c r="C448" t="n">
-        <v>-0.1488956539417332</v>
+        <v>-0.137365806048453</v>
       </c>
       <c r="D448" t="n">
-        <v>0.0508346987659856</v>
+        <v>0.03551797250136663</v>
       </c>
     </row>
     <row r="449">
@@ -6727,10 +6727,10 @@
         <v>-0.064</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.1566124737438991</v>
+        <v>-0.108157786246524</v>
       </c>
       <c r="D449" t="n">
-        <v>0.108992834584597</v>
+        <v>0.102704089530003</v>
       </c>
     </row>
     <row r="450">
@@ -6741,10 +6741,10 @@
         <v>-0.0442</v>
       </c>
       <c r="C450" t="n">
-        <v>-0.06965393968515556</v>
+        <v>-0.05492473703816072</v>
       </c>
       <c r="D450" t="n">
-        <v>0.05839450062486978</v>
+        <v>0.05430837398356525</v>
       </c>
     </row>
     <row r="451">
@@ -6755,10 +6755,10 @@
         <v>0.0464</v>
       </c>
       <c r="C451" t="n">
-        <v>0.05286111704497642</v>
+        <v>0.03238127170449741</v>
       </c>
       <c r="D451" t="n">
-        <v>-0.07943613770962445</v>
+        <v>-0.08345116107983994</v>
       </c>
     </row>
     <row r="452">
@@ -6769,10 +6769,10 @@
         <v>-0.0251</v>
       </c>
       <c r="C452" t="n">
-        <v>-0.01891421291731392</v>
+        <v>-0.03833980044622232</v>
       </c>
       <c r="D452" t="n">
-        <v>0.04040409599632693</v>
+        <v>0.09104142447631505</v>
       </c>
     </row>
     <row r="453">
@@ -6783,10 +6783,10 @@
         <v>0.0703</v>
       </c>
       <c r="C453" t="n">
-        <v>-0.03900164061092196</v>
+        <v>-0.05489416863630775</v>
       </c>
       <c r="D453" t="n">
-        <v>0.001964137892151857</v>
+        <v>0.001916313431155663</v>
       </c>
     </row>
     <row r="454">
@@ -6797,10 +6797,10 @@
         <v>-0.0545</v>
       </c>
       <c r="C454" t="n">
-        <v>0.002584615254449283</v>
+        <v>-0.03760331078202267</v>
       </c>
       <c r="D454" t="n">
-        <v>0.02778721335267401</v>
+        <v>0.08645145428647781</v>
       </c>
     </row>
     <row r="455">
@@ -6811,10 +6811,10 @@
         <v>-0.0276</v>
       </c>
       <c r="C455" t="n">
-        <v>-0.07396923393785637</v>
+        <v>-0.08927873809868564</v>
       </c>
       <c r="D455" t="n">
-        <v>0.02139105566324578</v>
+        <v>0.07964328387267876</v>
       </c>
     </row>
     <row r="456">
@@ -6825,10 +6825,10 @@
         <v>-0.1072</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.06335770347557462</v>
+        <v>-0.10610281321903</v>
       </c>
       <c r="D456" t="n">
-        <v>0.1076981060077969</v>
+        <v>0.1859374236604143</v>
       </c>
     </row>
     <row r="457">
@@ -6839,10 +6839,10 @@
         <v>0.0119</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.1235585796631849</v>
+        <v>-0.1457785529271788</v>
       </c>
       <c r="D457" t="n">
-        <v>0.08193769620126279</v>
+        <v>0.1209439166106463</v>
       </c>
     </row>
     <row r="458">
@@ -6853,10 +6853,10 @@
         <v>0.0313</v>
       </c>
       <c r="C458" t="n">
-        <v>0.2647713345570527</v>
+        <v>0.4227237756413021</v>
       </c>
       <c r="D458" t="n">
-        <v>-0.1099462435815424</v>
+        <v>-0.1485848273954668</v>
       </c>
     </row>
     <row r="459">
@@ -6867,10 +6867,10 @@
         <v>-0.1005</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.003511215770741122</v>
+        <v>-0.06651370391208253</v>
       </c>
       <c r="D459" t="n">
-        <v>0.1081553651014573</v>
+        <v>0.1716486988749547</v>
       </c>
     </row>
     <row r="460">
@@ -6881,10 +6881,10 @@
         <v>-0.0726</v>
       </c>
       <c r="C460" t="n">
-        <v>0.002916975230133269</v>
+        <v>-0.06531942381124144</v>
       </c>
       <c r="D460" t="n">
-        <v>0.05345630312327947</v>
+        <v>0.1093299937284365</v>
       </c>
     </row>
     <row r="461">
@@ -6895,10 +6895,10 @@
         <v>0.0794</v>
       </c>
       <c r="C461" t="n">
-        <v>-0.007145902617775368</v>
+        <v>0.02066992023121417</v>
       </c>
       <c r="D461" t="n">
-        <v>-0.05660921854023531</v>
+        <v>-0.08604471114917442</v>
       </c>
     </row>
     <row r="462">
@@ -6909,10 +6909,10 @@
         <v>0.0072</v>
       </c>
       <c r="C462" t="n">
-        <v>0.07700071065651629</v>
+        <v>0.05955863942247785</v>
       </c>
       <c r="D462" t="n">
-        <v>0.01292436420527283</v>
+        <v>0.01992093957132672</v>
       </c>
     </row>
     <row r="463">
@@ -6923,10 +6923,10 @@
         <v>-0.0194</v>
       </c>
       <c r="C463" t="n">
-        <v>0.03615973525967688</v>
+        <v>0.009803988002025978</v>
       </c>
       <c r="D463" t="n">
-        <v>-0.004130012879465558</v>
+        <v>0.005704673477906301</v>
       </c>
     </row>
     <row r="464">
@@ -6937,10 +6937,10 @@
         <v>-0.0213</v>
       </c>
       <c r="C464" t="n">
-        <v>0.01421903805249949</v>
+        <v>-0.02798208585014489</v>
       </c>
       <c r="D464" t="n">
-        <v>0.05868295486221611</v>
+        <v>0.06412888702267674</v>
       </c>
     </row>
     <row r="465">
@@ -6951,10 +6951,10 @@
         <v>-0.0646</v>
       </c>
       <c r="C465" t="n">
-        <v>0.009571549772328568</v>
+        <v>0.03594619317416704</v>
       </c>
       <c r="D465" t="n">
-        <v>0.08193946684104889</v>
+        <v>0.02968245892169007</v>
       </c>
     </row>
     <row r="466">
@@ -6965,10 +6965,10 @@
         <v>-0.0925</v>
       </c>
       <c r="C466" t="n">
-        <v>-0.04176543388259107</v>
+        <v>-0.04818606253003513</v>
       </c>
       <c r="D466" t="n">
-        <v>0.05709464183900144</v>
+        <v>0.04113085140492069</v>
       </c>
     </row>
     <row r="467">
@@ -6979,10 +6979,10 @@
         <v>0.0246</v>
       </c>
       <c r="C467" t="n">
-        <v>0.08279337463628268</v>
+        <v>0.09893346524033361</v>
       </c>
       <c r="D467" t="n">
-        <v>-0.1042867717768059</v>
+        <v>-0.05587625711873231</v>
       </c>
     </row>
     <row r="468">
@@ -6993,10 +6993,10 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.02057984238721264</v>
+        <v>-0.02077835505247473</v>
       </c>
       <c r="D468" t="n">
-        <v>-0.04473500910213007</v>
+        <v>0.02015427439662164</v>
       </c>
     </row>
     <row r="469">
@@ -7007,10 +7007,10 @@
         <v>0.016</v>
       </c>
       <c r="C469" t="n">
-        <v>0.03420338944254846</v>
+        <v>0.03821836304376239</v>
       </c>
       <c r="D469" t="n">
-        <v>-0.00553937767818094</v>
+        <v>0.003856319007246173</v>
       </c>
     </row>
     <row r="470">
@@ -7021,10 +7021,10 @@
         <v>-0.0144</v>
       </c>
       <c r="C470" t="n">
-        <v>0.06688936731589053</v>
+        <v>0.07751174683076008</v>
       </c>
       <c r="D470" t="n">
-        <v>0.05472969880810806</v>
+        <v>0.02563072874332269</v>
       </c>
     </row>
     <row r="471">
@@ -7035,10 +7035,10 @@
         <v>-0.0229</v>
       </c>
       <c r="C471" t="n">
-        <v>-0.06523537260272221</v>
+        <v>-0.01642018969875419</v>
       </c>
       <c r="D471" t="n">
-        <v>0.1055273112953494</v>
+        <v>0.01208365235773422</v>
       </c>
     </row>
     <row r="472">
@@ -7049,10 +7049,10 @@
         <v>0.0424</v>
       </c>
       <c r="C472" t="n">
-        <v>0.03400267813725678</v>
+        <v>0.02944717463464084</v>
       </c>
       <c r="D472" t="n">
-        <v>0.01087804490179411</v>
+        <v>0.01501490352645848</v>
       </c>
     </row>
     <row r="473">
@@ -7063,10 +7063,10 @@
         <v>-0.052</v>
       </c>
       <c r="C473" t="n">
-        <v>0.05795726210987504</v>
+        <v>0.04826329573766316</v>
       </c>
       <c r="D473" t="n">
-        <v>0.06014342799059089</v>
+        <v>0.03315791760207525</v>
       </c>
     </row>
     <row r="474">
@@ -7077,10 +7077,10 @@
         <v>-0.0138</v>
       </c>
       <c r="C474" t="n">
-        <v>-0.00725381905904691</v>
+        <v>-0.001249071669442469</v>
       </c>
       <c r="D474" t="n">
-        <v>0.05125917331823065</v>
+        <v>0.01663374912666431</v>
       </c>
     </row>
     <row r="475">
@@ -7091,10 +7091,10 @@
         <v>-0.0721</v>
       </c>
       <c r="C475" t="n">
-        <v>0.01360474547885192</v>
+        <v>0.01790904220658202</v>
       </c>
       <c r="D475" t="n">
-        <v>0.02365709259430654</v>
+        <v>0.00490170020531587</v>
       </c>
     </row>
     <row r="476">
@@ -7105,10 +7105,10 @@
         <v>-0.0818</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.007728659001254815</v>
+        <v>0.001512975339707789</v>
       </c>
       <c r="D476" t="n">
-        <v>0.001157616278829099</v>
+        <v>-0.02138684334613544</v>
       </c>
     </row>
     <row r="477">
@@ -7119,10 +7119,10 @@
         <v>0.005</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.01835655547031548</v>
+        <v>-0.03566841297364065</v>
       </c>
       <c r="D477" t="n">
-        <v>0.005080258996689636</v>
+        <v>0.02506530610192077</v>
       </c>
     </row>
     <row r="478">
@@ -7133,10 +7133,10 @@
         <v>-0.1035</v>
       </c>
       <c r="C478" t="n">
-        <v>0.03252128367048686</v>
+        <v>0.02002132055648882</v>
       </c>
       <c r="D478" t="n">
-        <v>0.01131285361991186</v>
+        <v>0.01330512367892081</v>
       </c>
     </row>
     <row r="479">
@@ -7147,10 +7147,10 @@
         <v>0.0784</v>
       </c>
       <c r="C479" t="n">
-        <v>-0.04970961021920145</v>
+        <v>-0.03441985179835405</v>
       </c>
       <c r="D479" t="n">
-        <v>-0.05309854018052356</v>
+        <v>-0.0385093703500966</v>
       </c>
     </row>
     <row r="480">
@@ -7161,10 +7161,10 @@
         <v>0.0596</v>
       </c>
       <c r="C480" t="n">
-        <v>0.07281235019147561</v>
+        <v>0.06052424940636049</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.09035378361269322</v>
+        <v>-0.004501722681505393</v>
       </c>
     </row>
     <row r="481">
@@ -7175,10 +7175,10 @@
         <v>-0.0576</v>
       </c>
       <c r="C481" t="n">
-        <v>-0.03334313259491146</v>
+        <v>-0.02548966413690777</v>
       </c>
       <c r="D481" t="n">
-        <v>0.0925976235750065</v>
+        <v>0.04075422360622562</v>
       </c>
     </row>
     <row r="482">
@@ -7189,10 +7189,10 @@
         <v>-0.0257</v>
       </c>
       <c r="C482" t="n">
-        <v>0.06450699578352283</v>
+        <v>0.05746491440915788</v>
       </c>
       <c r="D482" t="n">
-        <v>-0.0002909651440781537</v>
+        <v>0.02390907062179147</v>
       </c>
     </row>
     <row r="483">
@@ -7203,10 +7203,10 @@
         <v>-0.0188</v>
       </c>
       <c r="C483" t="n">
-        <v>0.006307352080025905</v>
+        <v>0.005965309996590024</v>
       </c>
       <c r="D483" t="n">
-        <v>-0.002114069891346704</v>
+        <v>-0.004367838692402898</v>
       </c>
     </row>
     <row r="484">
@@ -7217,10 +7217,10 @@
         <v>0.0109</v>
       </c>
       <c r="C484" t="n">
-        <v>0.007455845403225637</v>
+        <v>0.002068125763585359</v>
       </c>
       <c r="D484" t="n">
-        <v>-0.008297392230841067</v>
+        <v>-0.007117199724343631</v>
       </c>
     </row>
     <row r="485">
@@ -7231,10 +7231,10 @@
         <v>0.08220000000000001</v>
       </c>
       <c r="C485" t="n">
-        <v>0.02943313239325882</v>
+        <v>0.004921933527953032</v>
       </c>
       <c r="D485" t="n">
-        <v>-0.01315940359001656</v>
+        <v>0.05611352337310756</v>
       </c>
     </row>
     <row r="486">
@@ -7245,10 +7245,10 @@
         <v>0.0605</v>
       </c>
       <c r="C486" t="n">
-        <v>0.1300314296020773</v>
+        <v>0.09703740771134974</v>
       </c>
       <c r="D486" t="n">
-        <v>-0.04946004273027056</v>
+        <v>0.07611900030455514</v>
       </c>
     </row>
     <row r="487">
@@ -7259,10 +7259,10 @@
         <v>0.0142</v>
       </c>
       <c r="C487" t="n">
-        <v>0.08178421020206743</v>
+        <v>0.07399462722357592</v>
       </c>
       <c r="D487" t="n">
-        <v>-0.01818577340334512</v>
+        <v>0.007555244869360052</v>
       </c>
     </row>
     <row r="488">
@@ -7273,10 +7273,10 @@
         <v>0.0235</v>
       </c>
       <c r="C488" t="n">
-        <v>0.09871723661739144</v>
+        <v>0.08453165242438897</v>
       </c>
       <c r="D488" t="n">
-        <v>-0.01431231453275815</v>
+        <v>-0.02090158554362522</v>
       </c>
     </row>
     <row r="489">
@@ -7287,10 +7287,10 @@
         <v>0.0234</v>
       </c>
       <c r="C489" t="n">
-        <v>0.0247706720227874</v>
+        <v>0.03290358604342301</v>
       </c>
       <c r="D489" t="n">
-        <v>0.006278707798833383</v>
+        <v>0.01542150670166257</v>
       </c>
     </row>
     <row r="490">
@@ -7301,10 +7301,10 @@
         <v>-0.0124</v>
       </c>
       <c r="C490" t="n">
-        <v>0.09758346121069231</v>
+        <v>0.0793392812982588</v>
       </c>
       <c r="D490" t="n">
-        <v>-0.02117793218270168</v>
+        <v>-0.000166771164838219</v>
       </c>
     </row>
     <row r="491">
@@ -7315,10 +7315,10 @@
         <v>0.0608</v>
       </c>
       <c r="C491" t="n">
-        <v>0.04058309277893247</v>
+        <v>0.02062040040216009</v>
       </c>
       <c r="D491" t="n">
-        <v>0.009095076900947824</v>
+        <v>0.02331289277377947</v>
       </c>
     </row>
     <row r="492">
@@ -7329,10 +7329,10 @@
         <v>0.0135</v>
       </c>
       <c r="C492" t="n">
-        <v>0.01944722530290849</v>
+        <v>0.02237607603044523</v>
       </c>
       <c r="D492" t="n">
-        <v>0.03300474773550339</v>
+        <v>0.02986102378451911</v>
       </c>
     </row>
     <row r="493">
@@ -7343,10 +7343,10 @@
         <v>0.0429</v>
       </c>
       <c r="C493" t="n">
-        <v>-0.01987214582588467</v>
+        <v>-0.01544510415327281</v>
       </c>
       <c r="D493" t="n">
-        <v>0.0117138725834105</v>
+        <v>0.01678803991106229</v>
       </c>
     </row>
     <row r="494">
@@ -7357,10 +7357,10 @@
         <v>0.0215</v>
       </c>
       <c r="C494" t="n">
-        <v>0.09094563939942255</v>
+        <v>0.09176112837392064</v>
       </c>
       <c r="D494" t="n">
-        <v>0.002077049961930449</v>
+        <v>-0.004491895457381379</v>
       </c>
     </row>
     <row r="495">
@@ -7371,10 +7371,10 @@
         <v>0.014</v>
       </c>
       <c r="C495" t="n">
-        <v>-0.02365145597516459</v>
+        <v>-0.02496440210062996</v>
       </c>
       <c r="D495" t="n">
-        <v>0.006421545888438013</v>
+        <v>0.01922316857671287</v>
       </c>
     </row>
     <row r="496">
@@ -7385,10 +7385,10 @@
         <v>-0.0132</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0172236415572988</v>
+        <v>0.01491385449397733</v>
       </c>
       <c r="D496" t="n">
-        <v>-0.007997997315148622</v>
+        <v>0.01209782902164515</v>
       </c>
     </row>
     <row r="497">
@@ -7399,10 +7399,10 @@
         <v>-0.0183</v>
       </c>
       <c r="C497" t="n">
-        <v>0.002321775741688532</v>
+        <v>-0.01230287496922247</v>
       </c>
       <c r="D497" t="n">
-        <v>-0.007346690647983236</v>
+        <v>0.02009365042523847</v>
       </c>
     </row>
     <row r="498">
@@ -7413,10 +7413,10 @@
         <v>0.0117</v>
       </c>
       <c r="C498" t="n">
-        <v>-0.03080354046841956</v>
+        <v>-0.03087903001605118</v>
       </c>
       <c r="D498" t="n">
-        <v>0.01782640487082927</v>
+        <v>0.01481652000101982</v>
       </c>
     </row>
     <row r="499">
@@ -7427,10 +7427,10 @@
         <v>0.0186</v>
       </c>
       <c r="C499" t="n">
-        <v>-0.01904264664076624</v>
+        <v>-0.01640454273349902</v>
       </c>
       <c r="D499" t="n">
-        <v>0.02508405139709439</v>
+        <v>0.02988553463431903</v>
       </c>
     </row>
     <row r="500">
@@ -7441,10 +7441,10 @@
         <v>-0.0406</v>
       </c>
       <c r="C500" t="n">
-        <v>-0.02494784556077383</v>
+        <v>-0.02972116027721688</v>
       </c>
       <c r="D500" t="n">
-        <v>0.01796605853296055</v>
+        <v>0.05637876464004692</v>
       </c>
     </row>
     <row r="501">
@@ -7455,10 +7455,10 @@
         <v>0.0008</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.02586299151414725</v>
+        <v>-0.02555381521943039</v>
       </c>
       <c r="D501" t="n">
-        <v>0.004525897308398615</v>
+        <v>0.02272877594599481</v>
       </c>
     </row>
     <row r="502">
@@ -7469,10 +7469,10 @@
         <v>0.016</v>
       </c>
       <c r="C502" t="n">
-        <v>0.01314814694793201</v>
+        <v>0.01456951341423901</v>
       </c>
       <c r="D502" t="n">
-        <v>0.01219389908551655</v>
+        <v>-0.001956641253929935</v>
       </c>
     </row>
     <row r="503">
@@ -7483,10 +7483,10 @@
         <v>0.0143</v>
       </c>
       <c r="C503" t="n">
-        <v>-0.0008423545326821467</v>
+        <v>-0.002189415605046992</v>
       </c>
       <c r="D503" t="n">
-        <v>-0.000509188892446338</v>
+        <v>0.006664436165267401</v>
       </c>
     </row>
     <row r="504">
@@ -7497,10 +7497,10 @@
         <v>0.0454</v>
       </c>
       <c r="C504" t="n">
-        <v>0.02034369296608168</v>
+        <v>0.03332418136223971</v>
       </c>
       <c r="D504" t="n">
-        <v>0.01682339198432369</v>
+        <v>0.004270762451180604</v>
       </c>
     </row>
     <row r="505">
@@ -7511,10 +7511,10 @@
         <v>0.0343</v>
       </c>
       <c r="C505" t="n">
-        <v>0.05591026783787401</v>
+        <v>0.06383973913919559</v>
       </c>
       <c r="D505" t="n">
-        <v>-0.01635727604594799</v>
+        <v>-0.03394712227676917</v>
       </c>
     </row>
     <row r="506">
@@ -7525,10 +7525,10 @@
         <v>-0.0276</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.007557257446281739</v>
+        <v>-0.004567950585166469</v>
       </c>
       <c r="D506" t="n">
-        <v>0.03096587563822002</v>
+        <v>0.02254526643933481</v>
       </c>
     </row>
     <row r="507">
@@ -7539,10 +7539,10 @@
         <v>0.0189</v>
       </c>
       <c r="C507" t="n">
-        <v>-0.01547373544558628</v>
+        <v>-0.01300463123227132</v>
       </c>
       <c r="D507" t="n">
-        <v>0.03415053196892898</v>
+        <v>0.01788289306843244</v>
       </c>
     </row>
     <row r="508">
@@ -7553,10 +7553,10 @@
         <v>-0.0197</v>
       </c>
       <c r="C508" t="n">
-        <v>-0.03382734993998601</v>
+        <v>-0.02901141232391467</v>
       </c>
       <c r="D508" t="n">
-        <v>0.03412637780770329</v>
+        <v>0.03621429310955504</v>
       </c>
     </row>
     <row r="509">
@@ -7567,10 +7567,10 @@
         <v>-0.0261</v>
       </c>
       <c r="C509" t="n">
-        <v>-0.0430989909455177</v>
+        <v>-0.04272520695712692</v>
       </c>
       <c r="D509" t="n">
-        <v>0.008441607045266503</v>
+        <v>0.01258205391208502</v>
       </c>
     </row>
     <row r="510">
@@ -7581,10 +7581,10 @@
         <v>0.0365</v>
       </c>
       <c r="C510" t="n">
-        <v>-0.0003116932274046247</v>
+        <v>-6.093255662030506e-05</v>
       </c>
       <c r="D510" t="n">
-        <v>-0.003910740657459465</v>
+        <v>-0.01297949316207899</v>
       </c>
     </row>
     <row r="511">
@@ -7595,10 +7595,10 @@
         <v>0.005699999999999999</v>
       </c>
       <c r="C511" t="n">
-        <v>-0.0006278689722435428</v>
+        <v>0.01497204759931951</v>
       </c>
       <c r="D511" t="n">
-        <v>0.02550619065079302</v>
+        <v>0.02517816740254671</v>
       </c>
     </row>
     <row r="512">
@@ -7609,10 +7609,10 @@
         <v>0.0392</v>
       </c>
       <c r="C512" t="n">
-        <v>0.02097981403926308</v>
+        <v>0.02604064058730122</v>
       </c>
       <c r="D512" t="n">
-        <v>-0.0006997108738987512</v>
+        <v>-0.009805054909680332</v>
       </c>
     </row>
     <row r="513">
@@ -7623,10 +7623,10 @@
         <v>-0.0122</v>
       </c>
       <c r="C513" t="n">
-        <v>-0.006966109848869574</v>
+        <v>-0.006648219937061848</v>
       </c>
       <c r="D513" t="n">
-        <v>0.02174983180663936</v>
+        <v>0.02444844894296855</v>
       </c>
     </row>
     <row r="514">
@@ -7637,10 +7637,10 @@
         <v>0.0049</v>
       </c>
       <c r="C514" t="n">
-        <v>-0.0006792695444133457</v>
+        <v>-0.001705420914040787</v>
       </c>
       <c r="D514" t="n">
-        <v>0.008109347268319708</v>
+        <v>0.01151702738713763</v>
       </c>
     </row>
     <row r="515">
@@ -7651,10 +7651,10 @@
         <v>-0.0202</v>
       </c>
       <c r="C515" t="n">
-        <v>-0.02497042702010694</v>
+        <v>-0.02305291919970916</v>
       </c>
       <c r="D515" t="n">
-        <v>0.001591457259927487</v>
+        <v>0.008051585636590093</v>
       </c>
     </row>
     <row r="516">
@@ -7665,10 +7665,10 @@
         <v>0.0361</v>
       </c>
       <c r="C516" t="n">
-        <v>-0.01678256146059985</v>
+        <v>-0.02055500307880406</v>
       </c>
       <c r="D516" t="n">
-        <v>-0.002821919525750956</v>
+        <v>-0.003027013430163893</v>
       </c>
     </row>
     <row r="517">
@@ -7679,10 +7679,10 @@
         <v>-0.0025</v>
       </c>
       <c r="C517" t="n">
-        <v>0.01855866466476457</v>
+        <v>0.01721043886077105</v>
       </c>
       <c r="D517" t="n">
-        <v>0.006706869499825825</v>
+        <v>0.006872879290972821</v>
       </c>
     </row>
     <row r="518">
@@ -7693,10 +7693,10 @@
         <v>0.0304</v>
       </c>
       <c r="C518" t="n">
-        <v>0.04827514107033209</v>
+        <v>0.05588064642984517</v>
       </c>
       <c r="D518" t="n">
-        <v>-0.01080929219909393</v>
+        <v>-0.0221194641873111</v>
       </c>
     </row>
     <row r="519">
@@ -7707,10 +7707,10 @@
         <v>-0.003</v>
       </c>
       <c r="C519" t="n">
-        <v>0.02651664294971787</v>
+        <v>0.009745836722420263</v>
       </c>
       <c r="D519" t="n">
-        <v>-0.006223399844916985</v>
+        <v>0.005305951367564245</v>
       </c>
     </row>
     <row r="520">
@@ -7721,10 +7721,10 @@
         <v>0.0146</v>
       </c>
       <c r="C520" t="n">
-        <v>0.04037357332743317</v>
+        <v>0.03634666044096329</v>
       </c>
       <c r="D520" t="n">
-        <v>-0.008591621275900622</v>
+        <v>0.004597788854450578</v>
       </c>
     </row>
     <row r="521">
@@ -7735,10 +7735,10 @@
         <v>0.0073</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.0125206008999957</v>
+        <v>-0.003839789813711053</v>
       </c>
       <c r="D521" t="n">
-        <v>0.03304661168140037</v>
+        <v>0.01914811814374193</v>
       </c>
     </row>
     <row r="522">
@@ -7749,10 +7749,10 @@
         <v>-0.0357</v>
       </c>
       <c r="C522" t="n">
-        <v>-0.02789533059311091</v>
+        <v>-0.02665078428091541</v>
       </c>
       <c r="D522" t="n">
-        <v>0.04445576785912705</v>
+        <v>0.04108155721255558</v>
       </c>
     </row>
     <row r="523">
@@ -7763,10 +7763,10 @@
         <v>-0.0035</v>
       </c>
       <c r="C523" t="n">
-        <v>-0.01634650799167021</v>
+        <v>-0.02003602071402047</v>
       </c>
       <c r="D523" t="n">
-        <v>0.007801830379280828</v>
+        <v>0.01792661618433615</v>
       </c>
     </row>
     <row r="524">
@@ -7777,10 +7777,10 @@
         <v>-0.007800000000000001</v>
       </c>
       <c r="C524" t="n">
-        <v>-0.03398844059484244</v>
+        <v>-0.03447835581814609</v>
       </c>
       <c r="D524" t="n">
-        <v>0.03040670107599681</v>
+        <v>0.02954867041524528</v>
       </c>
     </row>
     <row r="525">
@@ -7791,10 +7791,10 @@
         <v>0.0203</v>
       </c>
       <c r="C525" t="n">
-        <v>-0.02182006986210082</v>
+        <v>-0.01205287805259474</v>
       </c>
       <c r="D525" t="n">
-        <v>-0.009615709440202033</v>
+        <v>-0.01858188145301346</v>
       </c>
     </row>
     <row r="526">
@@ -7805,10 +7805,10 @@
         <v>0.0184</v>
       </c>
       <c r="C526" t="n">
-        <v>-0.02880861729081867</v>
+        <v>-0.0272719995453264</v>
       </c>
       <c r="D526" t="n">
-        <v>0.0161153955238215</v>
+        <v>0.02155486770315302</v>
       </c>
     </row>
     <row r="527">
@@ -7819,10 +7819,10 @@
         <v>0.0323</v>
       </c>
       <c r="C527" t="n">
-        <v>0.004603940675856698</v>
+        <v>-0.0002818253968291523</v>
       </c>
       <c r="D527" t="n">
-        <v>-0.01302059749577904</v>
+        <v>-0.008620980021066919</v>
       </c>
     </row>
     <row r="528">
@@ -7833,10 +7833,10 @@
         <v>0.0171</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.005739817253404045</v>
+        <v>-0.002754618979449123</v>
       </c>
       <c r="D528" t="n">
-        <v>0.00831623329898994</v>
+        <v>0.0001769834664556505</v>
       </c>
     </row>
     <row r="529">
@@ -7847,10 +7847,10 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="C529" t="n">
-        <v>0.004310195935452567</v>
+        <v>0.004916291137019718</v>
       </c>
       <c r="D529" t="n">
-        <v>0.0176178513640898</v>
+        <v>0.02263931329165485</v>
       </c>
     </row>
     <row r="530">
@@ -7861,10 +7861,10 @@
         <v>0.014</v>
       </c>
       <c r="C530" t="n">
-        <v>0.01952456769373569</v>
+        <v>0.01571486308865123</v>
       </c>
       <c r="D530" t="n">
-        <v>-0.0102187728255776</v>
+        <v>-0.008114623073720198</v>
       </c>
     </row>
     <row r="531">
@@ -7875,10 +7875,10 @@
         <v>-0.0196</v>
       </c>
       <c r="C531" t="n">
-        <v>0.02514930293585593</v>
+        <v>0.02989633818896964</v>
       </c>
       <c r="D531" t="n">
-        <v>0.007901576081357789</v>
+        <v>0.009631102793412562</v>
       </c>
     </row>
     <row r="532">
@@ -7889,10 +7889,10 @@
         <v>0.0068</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.003020059047556242</v>
+        <v>-0.01218338726565007</v>
       </c>
       <c r="D532" t="n">
-        <v>-0.007862779411059607</v>
+        <v>-0.004006383309298183</v>
       </c>
     </row>
     <row r="533">
@@ -7903,10 +7903,10 @@
         <v>0.0349</v>
       </c>
       <c r="C533" t="n">
-        <v>-0.009555116655907671</v>
+        <v>-0.01078487171089719</v>
       </c>
       <c r="D533" t="n">
-        <v>-0.01737584136929509</v>
+        <v>-0.01508894338545152</v>
       </c>
     </row>
     <row r="534">
@@ -7917,10 +7917,10 @@
         <v>0.03240000000000001</v>
       </c>
       <c r="C534" t="n">
-        <v>-0.05377898018818171</v>
+        <v>-0.0495431688548343</v>
       </c>
       <c r="D534" t="n">
-        <v>0.01403652224168656</v>
+        <v>0.009620523807147901</v>
       </c>
     </row>
     <row r="535">
@@ -7931,10 +7931,10 @@
         <v>-0.0196</v>
       </c>
       <c r="C535" t="n">
-        <v>0.01997771396077679</v>
+        <v>0.009354249211973455</v>
       </c>
       <c r="D535" t="n">
-        <v>-0.001656599609583729</v>
+        <v>0.003918174072772441</v>
       </c>
     </row>
     <row r="536">
@@ -7945,10 +7945,10 @@
         <v>-0.0373</v>
       </c>
       <c r="C536" t="n">
-        <v>0.004309566017200939</v>
+        <v>0.003025246819151704</v>
       </c>
       <c r="D536" t="n">
-        <v>-0.01267138924176183</v>
+        <v>-0.01924577304197149</v>
       </c>
     </row>
     <row r="537">
@@ -7959,10 +7959,10 @@
         <v>0.0092</v>
       </c>
       <c r="C537" t="n">
-        <v>-0.06363618889251917</v>
+        <v>-0.0598803214925105</v>
       </c>
       <c r="D537" t="n">
-        <v>-0.01176659171685512</v>
+        <v>-0.01318587552961437</v>
       </c>
     </row>
     <row r="538">
@@ -7973,10 +7973,10 @@
         <v>0.0322</v>
       </c>
       <c r="C538" t="n">
-        <v>-0.01938036016268144</v>
+        <v>-0.0176834409596076</v>
       </c>
       <c r="D538" t="n">
-        <v>-0.02236686220353958</v>
+        <v>-0.02576573045317923</v>
       </c>
     </row>
     <row r="539">
@@ -7987,10 +7987,10 @@
         <v>0.018</v>
       </c>
       <c r="C539" t="n">
-        <v>-0.02005502244708468</v>
+        <v>-0.02742608507980165</v>
       </c>
       <c r="D539" t="n">
-        <v>-0.02069602552353652</v>
+        <v>-0.02745017585081595</v>
       </c>
     </row>
     <row r="540">
@@ -8001,10 +8001,10 @@
         <v>-0.0483</v>
       </c>
       <c r="C540" t="n">
-        <v>-0.04167463468437117</v>
+        <v>-0.04853429465827869</v>
       </c>
       <c r="D540" t="n">
-        <v>-0.001143878413362609</v>
+        <v>0.001355415514892086</v>
       </c>
     </row>
     <row r="541">
@@ -8015,10 +8015,10 @@
         <v>-0.008699999999999999</v>
       </c>
       <c r="C541" t="n">
-        <v>-0.02670346061418654</v>
+        <v>-0.02842146786136804</v>
       </c>
       <c r="D541" t="n">
-        <v>-0.002343368205364139</v>
+        <v>0.002077414168767128</v>
       </c>
     </row>
     <row r="542">
@@ -8029,10 +8029,10 @@
         <v>-0.0636</v>
       </c>
       <c r="C542" t="n">
-        <v>0.01198315594870675</v>
+        <v>0.02182829439362166</v>
       </c>
       <c r="D542" t="n">
-        <v>0.03176228775031431</v>
+        <v>0.04907787069639656</v>
       </c>
     </row>
     <row r="543">
@@ -8043,10 +8043,10 @@
         <v>-0.0309</v>
       </c>
       <c r="C543" t="n">
-        <v>0.01147484705446746</v>
+        <v>0.01736659900120224</v>
       </c>
       <c r="D543" t="n">
-        <v>0.00784416872230936</v>
+        <v>-0.01583261541796402</v>
       </c>
     </row>
     <row r="544">
@@ -8057,10 +8057,10 @@
         <v>-0.009300000000000001</v>
       </c>
       <c r="C544" t="n">
-        <v>-0.04653123686375023</v>
+        <v>-0.04435974234215288</v>
       </c>
       <c r="D544" t="n">
-        <v>0.004340220346192063</v>
+        <v>-0.0002332228929713444</v>
       </c>
     </row>
     <row r="545">
@@ -8071,10 +8071,10 @@
         <v>0.046</v>
       </c>
       <c r="C545" t="n">
-        <v>-0.06272379876681555</v>
+        <v>-0.04469851271684109</v>
       </c>
       <c r="D545" t="n">
-        <v>0.003769377536971475</v>
+        <v>-0.01747317414918308</v>
       </c>
     </row>
     <row r="546">
@@ -8085,10 +8085,10 @@
         <v>0.0186</v>
       </c>
       <c r="C546" t="n">
-        <v>0.006868932405823047</v>
+        <v>0.001111528631155545</v>
       </c>
       <c r="D546" t="n">
-        <v>-0.02294491689784823</v>
+        <v>-0.01777090884487553</v>
       </c>
     </row>
     <row r="547">
@@ -8099,10 +8099,10 @@
         <v>-0.08439999999999999</v>
       </c>
       <c r="C547" t="n">
-        <v>0.009221184400179494</v>
+        <v>0.01743727142651283</v>
       </c>
       <c r="D547" t="n">
-        <v>-0.009521597164139264</v>
+        <v>-0.02118236344396227</v>
       </c>
     </row>
     <row r="548">
@@ -8113,10 +8113,10 @@
         <v>-0.0077</v>
       </c>
       <c r="C548" t="n">
-        <v>-0.04408114089684624</v>
+        <v>-0.03635656337569711</v>
       </c>
       <c r="D548" t="n">
-        <v>-0.00588528557425504</v>
+        <v>0.005064792834457872</v>
       </c>
     </row>
     <row r="549">
@@ -8127,10 +8127,10 @@
         <v>0.0153</v>
       </c>
       <c r="C549" t="n">
-        <v>-0.003333610501160055</v>
+        <v>-0.01563023727564127</v>
       </c>
       <c r="D549" t="n">
-        <v>0.006203355925862051</v>
+        <v>0.0327036667013267</v>
       </c>
     </row>
     <row r="550">
@@ -8141,10 +8141,10 @@
         <v>-0.0924</v>
       </c>
       <c r="C550" t="n">
-        <v>-0.08024547995439064</v>
+        <v>-0.03245791584505796</v>
       </c>
       <c r="D550" t="n">
-        <v>0.0510534131826951</v>
+        <v>0.01911938763197879</v>
       </c>
     </row>
     <row r="551">
@@ -8155,10 +8155,10 @@
         <v>-0.1723</v>
       </c>
       <c r="C551" t="n">
-        <v>-0.02857409903895208</v>
+        <v>-0.02709682610177064</v>
       </c>
       <c r="D551" t="n">
-        <v>0.02406584475684426</v>
+        <v>-0.02299472312239026</v>
       </c>
     </row>
     <row r="552">
@@ -8169,10 +8169,10 @@
         <v>-0.0786</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.07523151128146001</v>
+        <v>-0.07563877497242044</v>
       </c>
       <c r="D552" t="n">
-        <v>0.0007976726038454035</v>
+        <v>-0.04250100868152344</v>
       </c>
     </row>
     <row r="553">
@@ -8183,10 +8183,10 @@
         <v>0.0174</v>
       </c>
       <c r="C553" t="n">
-        <v>-0.05126112564132552</v>
+        <v>-0.04485410204673149</v>
       </c>
       <c r="D553" t="n">
-        <v>-0.02678773710705994</v>
+        <v>-0.01740984493761995</v>
       </c>
     </row>
     <row r="554">
@@ -8197,10 +8197,10 @@
         <v>-0.08119999999999999</v>
       </c>
       <c r="C554" t="n">
-        <v>0.1393931360219487</v>
+        <v>0.2086177572423282</v>
       </c>
       <c r="D554" t="n">
-        <v>-0.09229139799212474</v>
+        <v>-0.1365151590206171</v>
       </c>
     </row>
     <row r="555">
@@ -8211,10 +8211,10 @@
         <v>-0.101</v>
       </c>
       <c r="C555" t="n">
-        <v>-0.006429631789977963</v>
+        <v>-0.01727713388010808</v>
       </c>
       <c r="D555" t="n">
-        <v>-0.01821124059535827</v>
+        <v>-0.03452980520986999</v>
       </c>
     </row>
     <row r="556">
@@ -8225,10 +8225,10 @@
         <v>0.0895</v>
       </c>
       <c r="C556" t="n">
-        <v>-0.009009770719401775</v>
+        <v>0.03095006322349599</v>
       </c>
       <c r="D556" t="n">
-        <v>-0.02695627775911701</v>
+        <v>0.004168300685019138</v>
       </c>
     </row>
     <row r="557">
@@ -8239,10 +8239,10 @@
         <v>0.1018</v>
       </c>
       <c r="C557" t="n">
-        <v>0.1127819944124046</v>
+        <v>0.113145273964441</v>
       </c>
       <c r="D557" t="n">
-        <v>0.01288214512859912</v>
+        <v>0.09874928274121547</v>
       </c>
     </row>
     <row r="558">
@@ -8253,10 +8253,10 @@
         <v>0.0521</v>
       </c>
       <c r="C558" t="n">
-        <v>0.1087062913596424</v>
+        <v>0.07894055790696244</v>
       </c>
       <c r="D558" t="n">
-        <v>-0.006413190106433223</v>
+        <v>0.05267342524509282</v>
       </c>
     </row>
     <row r="559">
@@ -8267,10 +8267,10 @@
         <v>0.0043</v>
       </c>
       <c r="C559" t="n">
-        <v>0.06462920479926339</v>
+        <v>0.05436626243575413</v>
       </c>
       <c r="D559" t="n">
-        <v>-0.0243290413769502</v>
+        <v>-0.03154929038797036</v>
       </c>
     </row>
     <row r="560">
@@ -8281,10 +8281,10 @@
         <v>0.07719999999999999</v>
       </c>
       <c r="C560" t="n">
-        <v>0.0064833715345258</v>
+        <v>0.0007948470009638831</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0170373500205433</v>
+        <v>0.02405540957520311</v>
       </c>
     </row>
     <row r="561">
@@ -8295,10 +8295,10 @@
         <v>0.0333</v>
       </c>
       <c r="C561" t="n">
-        <v>0.06332566577340196</v>
+        <v>0.04406783906095538</v>
       </c>
       <c r="D561" t="n">
-        <v>0.07305243128583498</v>
+        <v>0.09084549361576984</v>
       </c>
     </row>
     <row r="562">
@@ -8309,10 +8309,10 @@
         <v>0.0408</v>
       </c>
       <c r="C562" t="n">
-        <v>0.05683617024412688</v>
+        <v>0.03639423263494775</v>
       </c>
       <c r="D562" t="n">
-        <v>-0.007894011652564287</v>
+        <v>0.01511583488128045</v>
       </c>
     </row>
     <row r="563">
@@ -8323,10 +8323,10 @@
         <v>-0.0259</v>
       </c>
       <c r="C563" t="n">
-        <v>-0.02479185981473437</v>
+        <v>-0.0006649156127201197</v>
       </c>
       <c r="D563" t="n">
-        <v>-0.01134311107551485</v>
+        <v>-0.04638734062194195</v>
       </c>
     </row>
     <row r="564">
@@ -8337,10 +8337,10 @@
         <v>0.0556</v>
       </c>
       <c r="C564" t="n">
-        <v>-0.05252119933794273</v>
+        <v>-0.06456104839469322</v>
       </c>
       <c r="D564" t="n">
-        <v>0.004131827734103793</v>
+        <v>0.005819830866613397</v>
       </c>
     </row>
     <row r="565">
@@ -8351,10 +8351,10 @@
         <v>0.0275</v>
       </c>
       <c r="C565" t="n">
-        <v>0.03259306357825704</v>
+        <v>0.0369537222562084</v>
       </c>
       <c r="D565" t="n">
-        <v>-0.002031788274347412</v>
+        <v>-0.007497441657816128</v>
       </c>
     </row>
     <row r="566">
@@ -8365,10 +8365,10 @@
         <v>-0.0336</v>
       </c>
       <c r="C566" t="n">
-        <v>0.0496367576303363</v>
+        <v>0.05251235999346235</v>
       </c>
       <c r="D566" t="n">
-        <v>0.01892629443953481</v>
+        <v>0.0450226479119205</v>
       </c>
     </row>
     <row r="567">
@@ -8379,10 +8379,10 @@
         <v>0.034</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.01366222845371595</v>
+        <v>-0.01222016282684792</v>
       </c>
       <c r="D567" t="n">
-        <v>-0.002057670702358606</v>
+        <v>-0.008130017426475483</v>
       </c>
     </row>
     <row r="568">
@@ -8393,10 +8393,10 @@
         <v>0.06309999999999999</v>
       </c>
       <c r="C568" t="n">
-        <v>0.01023203356461641</v>
+        <v>-8.257105659076336e-05</v>
       </c>
       <c r="D568" t="n">
-        <v>0.009786044658499332</v>
+        <v>0.03967179072479897</v>
       </c>
     </row>
     <row r="569">
@@ -8407,10 +8407,10 @@
         <v>0.02</v>
       </c>
       <c r="C569" t="n">
-        <v>0.08879262355463491</v>
+        <v>0.06169562605983268</v>
       </c>
       <c r="D569" t="n">
-        <v>0.04001343950580195</v>
+        <v>0.04903505916750393</v>
       </c>
     </row>
     <row r="570">
@@ -8421,10 +8421,10 @@
         <v>-0.0789</v>
       </c>
       <c r="C570" t="n">
-        <v>-0.007936678604069297</v>
+        <v>-0.01386946812811092</v>
       </c>
       <c r="D570" t="n">
-        <v>-0.0169246047214384</v>
+        <v>-0.001029737666812761</v>
       </c>
     </row>
     <row r="571">
@@ -8435,10 +8435,10 @@
         <v>-0.0557</v>
       </c>
       <c r="C571" t="n">
-        <v>-0.02626192137777718</v>
+        <v>-0.02070010320713046</v>
       </c>
       <c r="D571" t="n">
-        <v>-0.02960880612979878</v>
+        <v>-0.01824528005442477</v>
       </c>
     </row>
     <row r="572">
@@ -8449,10 +8449,10 @@
         <v>0.0693</v>
       </c>
       <c r="C572" t="n">
-        <v>-0.03630278912627363</v>
+        <v>-0.03063041021898731</v>
       </c>
       <c r="D572" t="n">
-        <v>0.01152014650615104</v>
+        <v>-0.00904029292090635</v>
       </c>
     </row>
     <row r="573">
@@ -8463,10 +8463,10 @@
         <v>-0.04769999999999999</v>
       </c>
       <c r="C573" t="n">
-        <v>0.004228195250331281</v>
+        <v>0.004658248366133662</v>
       </c>
       <c r="D573" t="n">
-        <v>-0.02131979314844595</v>
+        <v>-0.01388449772811727</v>
       </c>
     </row>
     <row r="574">
@@ -8477,10 +8477,10 @@
         <v>0.09539999999999998</v>
       </c>
       <c r="C574" t="n">
-        <v>-0.03313220356843734</v>
+        <v>-0.01668304982717476</v>
       </c>
       <c r="D574" t="n">
-        <v>-0.0003214525569375515</v>
+        <v>-0.04031816682782288</v>
       </c>
     </row>
     <row r="575">
@@ -8491,10 +8491,10 @@
         <v>0.0388</v>
       </c>
       <c r="C575" t="n">
-        <v>0.005349686363527686</v>
+        <v>0.02056049802425878</v>
       </c>
       <c r="D575" t="n">
-        <v>-0.02426492067175964</v>
+        <v>-0.01599640118394503</v>
       </c>
     </row>
     <row r="576">
@@ -8505,10 +8505,10 @@
         <v>0.006</v>
       </c>
       <c r="C576" t="n">
-        <v>-0.02829548471812224</v>
+        <v>0.008629731591730768</v>
       </c>
       <c r="D576" t="n">
-        <v>-0.02147101312391537</v>
+        <v>-0.001828957512517186</v>
       </c>
     </row>
     <row r="577">
@@ -8519,10 +8519,10 @@
         <v>0.0682</v>
       </c>
       <c r="C577" t="n">
-        <v>0.002842927997826039</v>
+        <v>0.01336418770662581</v>
       </c>
       <c r="D577" t="n">
-        <v>0.03703358011800501</v>
+        <v>0.01802642120871922</v>
       </c>
     </row>
     <row r="578">
@@ -8533,10 +8533,10 @@
         <v>0.0199</v>
       </c>
       <c r="C578" t="n">
-        <v>0.02115954739223725</v>
+        <v>0.02625274314382601</v>
       </c>
       <c r="D578" t="n">
-        <v>0.01601381600926189</v>
+        <v>0.01706212196590263</v>
       </c>
     </row>
     <row r="579">
@@ -8547,10 +8547,10 @@
         <v>0.0349</v>
       </c>
       <c r="C579" t="n">
-        <v>-0.002088827630206062</v>
+        <v>-0.002012609628718992</v>
       </c>
       <c r="D579" t="n">
-        <v>0.017598258917564</v>
+        <v>0.01520392590926918</v>
       </c>
     </row>
     <row r="580">
@@ -8561,10 +8561,10 @@
         <v>0.0046</v>
       </c>
       <c r="C580" t="n">
-        <v>0.002036822821470097</v>
+        <v>-0.00756966696623572</v>
       </c>
       <c r="D580" t="n">
-        <v>-0.01989823464259172</v>
+        <v>-0.02197023902107501</v>
       </c>
     </row>
     <row r="581">
@@ -8575,10 +8575,10 @@
         <v>0.029</v>
       </c>
       <c r="C581" t="n">
-        <v>-0.02100067549666305</v>
+        <v>-0.03219796815319596</v>
       </c>
       <c r="D581" t="n">
-        <v>-0.02769764305049775</v>
+        <v>-0.01811960739807477</v>
       </c>
     </row>
     <row r="582">
@@ -8589,10 +8589,10 @@
         <v>-0.0127</v>
       </c>
       <c r="C582" t="n">
-        <v>-0.0217522985480193</v>
+        <v>-0.03439992076043037</v>
       </c>
       <c r="D582" t="n">
-        <v>-0.008407415270434811</v>
+        <v>-0.001479346042388783</v>
       </c>
     </row>
     <row r="583">
@@ -8603,10 +8603,10 @@
         <v>-0.0175</v>
       </c>
       <c r="C583" t="n">
-        <v>-0.009193788802907752</v>
+        <v>-0.02564505741986522</v>
       </c>
       <c r="D583" t="n">
-        <v>0.01024781397972742</v>
+        <v>0.005322250876904466</v>
       </c>
     </row>
     <row r="584">
@@ -8617,10 +8617,10 @@
         <v>-0.0235</v>
       </c>
       <c r="C584" t="n">
-        <v>0.02909778812380092</v>
+        <v>0.02180261298365758</v>
       </c>
       <c r="D584" t="n">
-        <v>-0.01757246395684239</v>
+        <v>-0.008509160003220096</v>
       </c>
     </row>
     <row r="585">
@@ -8631,10 +8631,10 @@
         <v>-0.0599</v>
       </c>
       <c r="C585" t="n">
-        <v>-0.02810627391055073</v>
+        <v>-0.02129844479656835</v>
       </c>
       <c r="D585" t="n">
-        <v>-0.007667154012978489</v>
+        <v>-0.01338014312466262</v>
       </c>
     </row>
     <row r="586">
@@ -8645,10 +8645,10 @@
         <v>-0.0759</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.01559953791266608</v>
+        <v>-0.01742089720884341</v>
       </c>
       <c r="D586" t="n">
-        <v>-0.007786352760114607</v>
+        <v>-0.0009953378385222506</v>
       </c>
     </row>
     <row r="587">
@@ -8659,10 +8659,10 @@
         <v>0.1135</v>
       </c>
       <c r="C587" t="n">
-        <v>-0.06167630587932991</v>
+        <v>-0.04857421007453168</v>
       </c>
       <c r="D587" t="n">
-        <v>-0.00158127615945175</v>
+        <v>-0.01917186838377134</v>
       </c>
     </row>
     <row r="588">
@@ -8673,10 +8673,10 @@
         <v>-0.0028</v>
       </c>
       <c r="C588" t="n">
-        <v>-0.02047156103558974</v>
+        <v>-0.02156827727857673</v>
       </c>
       <c r="D588" t="n">
-        <v>-0.0008314517284300563</v>
+        <v>0.002335734011485551</v>
       </c>
     </row>
     <row r="589">
@@ -8687,10 +8687,10 @@
         <v>0.0074</v>
       </c>
       <c r="C589" t="n">
-        <v>-0.01984565600953933</v>
+        <v>-0.009417163662764488</v>
       </c>
       <c r="D589" t="n">
-        <v>0.02913517047862936</v>
+        <v>0.0185861582768995</v>
       </c>
     </row>
     <row r="590">
@@ -8701,10 +8701,10 @@
         <v>0.0505</v>
       </c>
       <c r="C590" t="n">
-        <v>0.04276966190674718</v>
+        <v>0.04370636338584349</v>
       </c>
       <c r="D590" t="n">
-        <v>-0.006852764158081365</v>
+        <v>0.002167318108055497</v>
       </c>
     </row>
     <row r="591">
@@ -8715,10 +8715,10 @@
         <v>0.0442</v>
       </c>
       <c r="C591" t="n">
-        <v>0.01454987389003441</v>
+        <v>0.01252321596537447</v>
       </c>
       <c r="D591" t="n">
-        <v>-0.01068996691030374</v>
+        <v>-0.006489469256951604</v>
       </c>
     </row>
     <row r="592">
@@ -8729,10 +8729,10 @@
         <v>0.0311</v>
       </c>
       <c r="C592" t="n">
-        <v>0.006834722765032157</v>
+        <v>0.005037839235567845</v>
       </c>
       <c r="D592" t="n">
-        <v>0.0105642620301209</v>
+        <v>0.003229159833684894</v>
       </c>
     </row>
     <row r="593">
@@ -8743,10 +8743,10 @@
         <v>-0.008500000000000001</v>
       </c>
       <c r="C593" t="n">
-        <v>-0.001434776201040454</v>
+        <v>0.00574775687497129</v>
       </c>
       <c r="D593" t="n">
-        <v>0.007692167765269998</v>
+        <v>-0.01032478928531022</v>
       </c>
     </row>
     <row r="594">
@@ -8757,10 +8757,10 @@
         <v>-0.0619</v>
       </c>
       <c r="C594" t="n">
-        <v>0.006156826935645829</v>
+        <v>0.02791400529159094</v>
       </c>
       <c r="D594" t="n">
-        <v>0.01135947703943208</v>
+        <v>-0.02153202394271585</v>
       </c>
     </row>
     <row r="595">
@@ -8771,10 +8771,10 @@
         <v>0.0389</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.03564103901502557</v>
+        <v>-0.03326346211546433</v>
       </c>
       <c r="D595" t="n">
-        <v>0.01690820514940513</v>
+        <v>0.01188678871783588</v>
       </c>
     </row>
     <row r="596">
@@ -8785,10 +8785,10 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="C596" t="n">
-        <v>0.007811738037917786</v>
+        <v>0.01459656169708391</v>
       </c>
       <c r="D596" t="n">
-        <v>-0.001882333850466498</v>
+        <v>-0.0197480028530132</v>
       </c>
     </row>
     <row r="597">
@@ -8799,10 +8799,10 @@
         <v>0.0255</v>
       </c>
       <c r="C597" t="n">
-        <v>-0.004265333176979667</v>
+        <v>4.490220341449302e-07</v>
       </c>
       <c r="D597" t="n">
-        <v>-0.005188350281450996</v>
+        <v>0.003886483212423797</v>
       </c>
     </row>
     <row r="598">
@@ -8813,10 +8813,10 @@
         <v>0.0273</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.0008790293029899178</v>
+        <v>-0.01168119448412044</v>
       </c>
       <c r="D598" t="n">
-        <v>0.01685412339754579</v>
+        <v>0.03388683843904369</v>
       </c>
     </row>
     <row r="599">
@@ -8827,10 +8827,10 @@
         <v>-0.0176</v>
       </c>
       <c r="C599" t="n">
-        <v>-0.00882280841742635</v>
+        <v>-0.01928214301890317</v>
       </c>
       <c r="D599" t="n">
-        <v>0.05683326341982761</v>
+        <v>0.06156216940227875</v>
       </c>
     </row>
     <row r="600">
@@ -8841,10 +8841,10 @@
         <v>0.007800000000000001</v>
       </c>
       <c r="C600" t="n">
-        <v>-0.009021872592120004</v>
+        <v>-0.02335469790875331</v>
       </c>
       <c r="D600" t="n">
-        <v>-0.01608754737740179</v>
+        <v>-0.002450367939196424</v>
       </c>
     </row>
     <row r="601">
@@ -8855,10 +8855,10 @@
         <v>0.0118</v>
       </c>
       <c r="C601" t="n">
-        <v>-0.02764555215880272</v>
+        <v>-0.02682363750554895</v>
       </c>
       <c r="D601" t="n">
-        <v>0.03502465870731792</v>
+        <v>0.04187190366152792</v>
       </c>
     </row>
     <row r="602">
@@ -8869,10 +8869,10 @@
         <v>0.0557</v>
       </c>
       <c r="C602" t="n">
-        <v>0.02712839373170257</v>
+        <v>0.02920065623422512</v>
       </c>
       <c r="D602" t="n">
-        <v>0.01709095545806352</v>
+        <v>0.01493573149951209</v>
       </c>
     </row>
     <row r="603">
@@ -8883,10 +8883,10 @@
         <v>0.0129</v>
       </c>
       <c r="C603" t="n">
-        <v>0.009531608303274821</v>
+        <v>0.003956411699597972</v>
       </c>
       <c r="D603" t="n">
-        <v>0.01012385545881745</v>
+        <v>0.009187124698783345</v>
       </c>
     </row>
     <row r="604">
@@ -8897,10 +8897,10 @@
         <v>0.0403</v>
       </c>
       <c r="C604" t="n">
-        <v>0.02088057325169954</v>
+        <v>0.009880147286441814</v>
       </c>
       <c r="D604" t="n">
-        <v>-0.01659499247168653</v>
+        <v>-0.008158935136344588</v>
       </c>
     </row>
     <row r="605">
@@ -8911,10 +8911,10 @@
         <v>0.0155</v>
       </c>
       <c r="C605" t="n">
-        <v>-0.01577850763554337</v>
+        <v>-0.01347916837760456</v>
       </c>
       <c r="D605" t="n">
-        <v>0.005531446296036406</v>
+        <v>-0.007478534572596777</v>
       </c>
     </row>
     <row r="606">
@@ -8925,10 +8925,10 @@
         <v>0.028</v>
       </c>
       <c r="C606" t="n">
-        <v>-0.005158732236322558</v>
+        <v>0.0009360605654134477</v>
       </c>
       <c r="D606" t="n">
-        <v>0.0307129007505948</v>
+        <v>0.0275226597810168</v>
       </c>
     </row>
     <row r="607">
@@ -8939,10 +8939,10 @@
         <v>-0.012</v>
       </c>
       <c r="C607" t="n">
-        <v>0.00626599000426885</v>
+        <v>-0.0001957140222737137</v>
       </c>
       <c r="D607" t="n">
-        <v>0.01571416972097281</v>
+        <v>0.01540284807105388</v>
       </c>
     </row>
     <row r="608">
@@ -8953,10 +8953,10 @@
         <v>0.0565</v>
       </c>
       <c r="C608" t="n">
-        <v>0.0223203349185981</v>
+        <v>0.003610320850414378</v>
       </c>
       <c r="D608" t="n">
-        <v>-0.002354472417277043</v>
+        <v>0.01067426847690126</v>
       </c>
     </row>
     <row r="609">
@@ -8967,10 +8967,10 @@
         <v>-0.0271</v>
       </c>
       <c r="C609" t="n">
-        <v>0.02386495425274763</v>
+        <v>0.01519190340013851</v>
       </c>
       <c r="D609" t="n">
-        <v>-0.01197953655696421</v>
+        <v>-0.01395315556819928</v>
       </c>
     </row>
     <row r="610">
@@ -8981,10 +8981,10 @@
         <v>0.0377</v>
       </c>
       <c r="C610" t="n">
-        <v>0.03065979545830616</v>
+        <v>0.01671085556048058</v>
       </c>
       <c r="D610" t="n">
-        <v>-0.02534743363113907</v>
+        <v>-0.01758123586244246</v>
       </c>
     </row>
     <row r="611">
@@ -8995,10 +8995,10 @@
         <v>0.0418</v>
       </c>
       <c r="C611" t="n">
-        <v>-0.02057444738581813</v>
+        <v>-0.01313222926989319</v>
       </c>
       <c r="D611" t="n">
-        <v>0.02036351342672996</v>
+        <v>0.01424835782909127</v>
       </c>
     </row>
     <row r="612">
@@ -9009,10 +9009,10 @@
         <v>0.0313</v>
       </c>
       <c r="C612" t="n">
-        <v>0.005039583032334871</v>
+        <v>-0.003664524927207924</v>
       </c>
       <c r="D612" t="n">
-        <v>-0.01302107796082982</v>
+        <v>-0.002278789935384384</v>
       </c>
     </row>
     <row r="613">
@@ -9023,10 +9023,10 @@
         <v>0.0281</v>
       </c>
       <c r="C613" t="n">
-        <v>0.00757517273013911</v>
+        <v>0.009849029124964142</v>
       </c>
       <c r="D613" t="n">
-        <v>-0.001609687129298293</v>
+        <v>-0.007681689464097734</v>
       </c>
     </row>
     <row r="614">
@@ -9037,10 +9037,10 @@
         <v>-0.0332</v>
       </c>
       <c r="C614" t="n">
-        <v>0.08674332516394692</v>
+        <v>0.08658972554362478</v>
       </c>
       <c r="D614" t="n">
-        <v>-0.02750819015410187</v>
+        <v>-0.02970774730685539</v>
       </c>
     </row>
     <row r="615">
@@ -9051,10 +9051,10 @@
         <v>0.04650000000000001</v>
       </c>
       <c r="C615" t="n">
-        <v>-0.005072042708694373</v>
+        <v>-0.006754025285524476</v>
       </c>
       <c r="D615" t="n">
-        <v>-0.009591239862901613</v>
+        <v>-0.0118003659379259</v>
       </c>
     </row>
     <row r="616">
@@ -9065,10 +9065,10 @@
         <v>0.0043</v>
       </c>
       <c r="C616" t="n">
-        <v>-0.01627319931936815</v>
+        <v>-0.02385784438473456</v>
       </c>
       <c r="D616" t="n">
-        <v>0.04544886426648403</v>
+        <v>0.04706877142910514</v>
       </c>
     </row>
     <row r="617">
@@ -9079,10 +9079,10 @@
         <v>-0.0019</v>
       </c>
       <c r="C617" t="n">
-        <v>-0.05332881223896591</v>
+        <v>-0.05340351446551638</v>
       </c>
       <c r="D617" t="n">
-        <v>0.02375541998882769</v>
+        <v>0.02430070430355332</v>
       </c>
     </row>
     <row r="618">
@@ -9093,10 +9093,10 @@
         <v>0.0206</v>
       </c>
       <c r="C618" t="n">
-        <v>-0.03421540065153278</v>
+        <v>-0.03081920502048607</v>
       </c>
       <c r="D618" t="n">
-        <v>0.005122351841672138</v>
+        <v>-0.008429914467847577</v>
       </c>
     </row>
     <row r="619">
@@ -9107,10 +9107,10 @@
         <v>0.0261</v>
       </c>
       <c r="C619" t="n">
-        <v>0.005949759677966768</v>
+        <v>0.008726771445130694</v>
       </c>
       <c r="D619" t="n">
-        <v>0.003695477347685223</v>
+        <v>0.001132783889213153</v>
       </c>
     </row>
     <row r="620">
@@ -9121,10 +9121,10 @@
         <v>-0.0204</v>
       </c>
       <c r="C620" t="n">
-        <v>-0.01802509820273459</v>
+        <v>-0.02261817304137045</v>
       </c>
       <c r="D620" t="n">
-        <v>0.01209633060942164</v>
+        <v>0.007971977062154953</v>
       </c>
     </row>
     <row r="621">
@@ -9135,10 +9135,10 @@
         <v>0.0424</v>
       </c>
       <c r="C621" t="n">
-        <v>-0.0253885374027264</v>
+        <v>-0.0210794485337481</v>
       </c>
       <c r="D621" t="n">
-        <v>0.003421099308676165</v>
+        <v>-0.001631868113668368</v>
       </c>
     </row>
     <row r="622">
@@ -9149,10 +9149,10 @@
         <v>-0.0197</v>
       </c>
       <c r="C622" t="n">
-        <v>-0.021980268916317</v>
+        <v>-0.02488560615076957</v>
       </c>
       <c r="D622" t="n">
-        <v>-0.00135731993130371</v>
+        <v>0.001971114096405491</v>
       </c>
     </row>
     <row r="623">
@@ -9163,10 +9163,10 @@
         <v>0.0252</v>
       </c>
       <c r="C623" t="n">
-        <v>-0.04175207093549307</v>
+        <v>-0.04048912258629757</v>
       </c>
       <c r="D623" t="n">
-        <v>-0.00464418406407007</v>
+        <v>-0.006171027138412302</v>
       </c>
     </row>
     <row r="624">
@@ -9177,10 +9177,10 @@
         <v>0.0255</v>
       </c>
       <c r="C624" t="n">
-        <v>-0.03280844364644211</v>
+        <v>-0.03612472021835918</v>
       </c>
       <c r="D624" t="n">
-        <v>-0.009051519193657057</v>
+        <v>-0.006373043854661538</v>
       </c>
     </row>
     <row r="625">
@@ -9191,10 +9191,10 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="C625" t="n">
-        <v>-0.001812623847341047</v>
+        <v>0.005398626881641135</v>
       </c>
       <c r="D625" t="n">
-        <v>0.02349442865014112</v>
+        <v>0.01475678140375679</v>
       </c>
     </row>
     <row r="626">
@@ -9205,10 +9205,10 @@
         <v>-0.0311</v>
       </c>
       <c r="C626" t="n">
-        <v>0.01805286838400442</v>
+        <v>0.03382311929288515</v>
       </c>
       <c r="D626" t="n">
-        <v>-0.02894247706040571</v>
+        <v>-0.04454626551882139</v>
       </c>
     </row>
     <row r="627">
@@ -9219,10 +9219,10 @@
         <v>0.0613</v>
       </c>
       <c r="C627" t="n">
-        <v>-0.004547370096823988</v>
+        <v>-0.006931777784369902</v>
       </c>
       <c r="D627" t="n">
-        <v>-0.02887740850422513</v>
+        <v>-0.02232746473118387</v>
       </c>
     </row>
     <row r="628">
@@ -9233,10 +9233,10 @@
         <v>-0.0112</v>
       </c>
       <c r="C628" t="n">
-        <v>0.005252958710951356</v>
+        <v>-0.001783108639472602</v>
       </c>
       <c r="D628" t="n">
-        <v>0.01476301296436331</v>
+        <v>0.004245694047495975</v>
       </c>
     </row>
     <row r="629">
@@ -9247,10 +9247,10 @@
         <v>0.0059</v>
       </c>
       <c r="C629" t="n">
-        <v>-0.007641079914951485</v>
+        <v>-0.0007235162154248485</v>
       </c>
       <c r="D629" t="n">
-        <v>0.02394098941542236</v>
+        <v>0.02630107759847687</v>
       </c>
     </row>
     <row r="630">
@@ -9261,10 +9261,10 @@
         <v>0.0136</v>
       </c>
       <c r="C630" t="n">
-        <v>-0.01441560080046993</v>
+        <v>-0.02411310264801329</v>
       </c>
       <c r="D630" t="n">
-        <v>-0.01145905292612593</v>
+        <v>-0.01137320957129007</v>
       </c>
     </row>
     <row r="631">
@@ -9275,10 +9275,10 @@
         <v>-0.0153</v>
       </c>
       <c r="C631" t="n">
-        <v>0.002386211219864634</v>
+        <v>-0.006457410411127852</v>
       </c>
       <c r="D631" t="n">
-        <v>0.001055202549781795</v>
+        <v>0.005177023301776421</v>
       </c>
     </row>
     <row r="632">
@@ -9289,10 +9289,10 @@
         <v>0.0154</v>
       </c>
       <c r="C632" t="n">
-        <v>-0.05531334471895574</v>
+        <v>-0.05523610649981127</v>
       </c>
       <c r="D632" t="n">
-        <v>-0.0219786478266154</v>
+        <v>-0.02996247264814861</v>
       </c>
     </row>
     <row r="633">
@@ -9303,10 +9303,10 @@
         <v>-0.0604</v>
       </c>
       <c r="C633" t="n">
-        <v>0.02669989862267282</v>
+        <v>0.03968234353244322</v>
       </c>
       <c r="D633" t="n">
-        <v>0.03899687324221177</v>
+        <v>0.02964857908340888</v>
       </c>
     </row>
     <row r="634">
@@ -9317,10 +9317,10 @@
         <v>-0.0307</v>
       </c>
       <c r="C634" t="n">
-        <v>-0.01345452271615999</v>
+        <v>-0.01395806006072822</v>
       </c>
       <c r="D634" t="n">
-        <v>0.01642012803025879</v>
+        <v>0.003463933634627367</v>
       </c>
     </row>
     <row r="635">
@@ -9331,10 +9331,10 @@
         <v>0.0775</v>
       </c>
       <c r="C635" t="n">
-        <v>-0.0415779143490807</v>
+        <v>-0.03798405705808861</v>
       </c>
       <c r="D635" t="n">
-        <v>-0.006504421951568848</v>
+        <v>-0.00938919454107276</v>
       </c>
     </row>
     <row r="636">
@@ -9345,10 +9345,10 @@
         <v>0.005600000000000001</v>
       </c>
       <c r="C636" t="n">
-        <v>0.006408621331285564</v>
+        <v>-0.007902036552467203</v>
       </c>
       <c r="D636" t="n">
-        <v>-0.01096589599931058</v>
+        <v>0.002594896126074385</v>
       </c>
     </row>
     <row r="637">
@@ -9359,10 +9359,10 @@
         <v>-0.0217</v>
       </c>
       <c r="C637" t="n">
-        <v>-0.008798462343186219</v>
+        <v>-0.01646646752354179</v>
       </c>
       <c r="D637" t="n">
-        <v>0.005683760489763809</v>
+        <v>-0.009375013020704433</v>
       </c>
     </row>
     <row r="638">
@@ -9373,10 +9373,10 @@
         <v>-0.05769999999999999</v>
       </c>
       <c r="C638" t="n">
-        <v>-0.03713742250091901</v>
+        <v>-0.0348244147139777</v>
       </c>
       <c r="D638" t="n">
-        <v>0.0447411526811823</v>
+        <v>0.03257853993790784</v>
       </c>
     </row>
     <row r="639">
@@ -9387,10 +9387,10 @@
         <v>-0.0007000000000000001</v>
       </c>
       <c r="C639" t="n">
-        <v>0.0228988011352841</v>
+        <v>0.01039839768080114</v>
       </c>
       <c r="D639" t="n">
-        <v>-0.01374628637698986</v>
+        <v>-0.007083454256724557</v>
       </c>
     </row>
     <row r="640">
@@ -9401,10 +9401,10 @@
         <v>0.0696</v>
       </c>
       <c r="C640" t="n">
-        <v>-0.02072910568664331</v>
+        <v>-0.0255289550844995</v>
       </c>
       <c r="D640" t="n">
-        <v>0.01837913191768144</v>
+        <v>0.04871749262154691</v>
       </c>
     </row>
     <row r="641">
@@ -9415,10 +9415,10 @@
         <v>0.0091</v>
       </c>
       <c r="C641" t="n">
-        <v>0.03656658268302489</v>
+        <v>0.02874385534161274</v>
       </c>
       <c r="D641" t="n">
-        <v>0.03645472630396596</v>
+        <v>0.05115279472987259</v>
       </c>
     </row>
     <row r="642">
@@ -9429,10 +9429,10 @@
         <v>0.0178</v>
       </c>
       <c r="C642" t="n">
-        <v>-0.02291827375714038</v>
+        <v>-0.0342367469725077</v>
       </c>
       <c r="D642" t="n">
-        <v>-0.01392234852453715</v>
+        <v>-0.02036428651105807</v>
       </c>
     </row>
     <row r="643">
@@ -9443,10 +9443,10 @@
         <v>-0.0005</v>
       </c>
       <c r="C643" t="n">
-        <v>-0.01190816926840108</v>
+        <v>-0.01776252372795881</v>
       </c>
       <c r="D643" t="n">
-        <v>0.02002270073456798</v>
+        <v>0.01816544919648827</v>
       </c>
     </row>
     <row r="644">
@@ -9457,10 +9457,10 @@
         <v>0.0395</v>
       </c>
       <c r="C644" t="n">
-        <v>0.01238035156565718</v>
+        <v>0.0100387082711115</v>
       </c>
       <c r="D644" t="n">
-        <v>-0.02378589527894363</v>
+        <v>-0.01278709350782853</v>
       </c>
     </row>
     <row r="645">
@@ -9471,10 +9471,10 @@
         <v>0.0049</v>
       </c>
       <c r="C645" t="n">
-        <v>0.02235190449448343</v>
+        <v>0.01120662038604188</v>
       </c>
       <c r="D645" t="n">
-        <v>0.01942790830675559</v>
+        <v>0.02412396862371912</v>
       </c>
     </row>
     <row r="646">
@@ -9485,10 +9485,10 @@
         <v>0.0025</v>
       </c>
       <c r="C646" t="n">
-        <v>0.01916993895246833</v>
+        <v>0.02887812001355346</v>
       </c>
       <c r="D646" t="n">
-        <v>0.01488293057518927</v>
+        <v>-0.003419220076871272</v>
       </c>
     </row>
     <row r="647">
@@ -9499,10 +9499,10 @@
         <v>-0.0202</v>
       </c>
       <c r="C647" t="n">
-        <v>-0.06782784640944409</v>
+        <v>-0.06840873681006622</v>
       </c>
       <c r="D647" t="n">
-        <v>0.07423124100014186</v>
+        <v>0.05309392690832565</v>
       </c>
     </row>
     <row r="648">
@@ -9513,10 +9513,10 @@
         <v>0.0486</v>
       </c>
       <c r="C648" t="n">
-        <v>-0.00354846413618596</v>
+        <v>-0.02861589771777705</v>
       </c>
       <c r="D648" t="n">
-        <v>0.06842350341549076</v>
+        <v>0.08663652451081702</v>
       </c>
     </row>
     <row r="649">
@@ -9527,10 +9527,10 @@
         <v>0.0181</v>
       </c>
       <c r="C649" t="n">
-        <v>-0.01848782544269231</v>
+        <v>-0.01119266557603916</v>
       </c>
       <c r="D649" t="n">
-        <v>0.06755174876258539</v>
+        <v>0.04931279866382679</v>
       </c>
     </row>
     <row r="650">
@@ -9541,10 +9541,10 @@
         <v>0.0194</v>
       </c>
       <c r="C650" t="n">
-        <v>0.01491824404521275</v>
+        <v>-2.029957847609135e-05</v>
       </c>
       <c r="D650" t="n">
-        <v>-0.02166720679432397</v>
+        <v>-0.001786901057356856</v>
       </c>
     </row>
     <row r="651">
@@ -9555,10 +9555,10 @@
         <v>0.0357</v>
       </c>
       <c r="C651" t="n">
-        <v>4.613701081013222e-05</v>
+        <v>-0.01533501797349826</v>
       </c>
       <c r="D651" t="n">
-        <v>-0.03613313473664931</v>
+        <v>-0.01369234949622268</v>
       </c>
     </row>
     <row r="652">
@@ -9569,10 +9569,10 @@
         <v>0.0017</v>
       </c>
       <c r="C652" t="n">
-        <v>0.03257099407784728</v>
+        <v>0.0239467385697386</v>
       </c>
       <c r="D652" t="n">
-        <v>-0.03722657853794749</v>
+        <v>-0.01370313307548452</v>
       </c>
     </row>
     <row r="653">
@@ -9583,10 +9583,10 @@
         <v>0.0109</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.02071559560778844</v>
+        <v>-0.02664254262183192</v>
       </c>
       <c r="D653" t="n">
-        <v>-0.01671557545526386</v>
+        <v>-0.005517729535605097</v>
       </c>
     </row>
     <row r="654">
@@ -9597,10 +9597,10 @@
         <v>0.0106</v>
       </c>
       <c r="C654" t="n">
-        <v>-0.0203515013659008</v>
+        <v>-0.02969032975583083</v>
       </c>
       <c r="D654" t="n">
-        <v>-0.01506462858524678</v>
+        <v>-0.02251392221967786</v>
       </c>
     </row>
     <row r="655">
@@ -9611,10 +9611,10 @@
         <v>0.007800000000000001</v>
       </c>
       <c r="C655" t="n">
-        <v>0.02211621999296538</v>
+        <v>0.02172644508718158</v>
       </c>
       <c r="D655" t="n">
-        <v>-0.01426839142541927</v>
+        <v>-0.002989051401995714</v>
       </c>
     </row>
     <row r="656">
@@ -9625,10 +9625,10 @@
         <v>0.0187</v>
       </c>
       <c r="C656" t="n">
-        <v>-0.03849957373007686</v>
+        <v>-0.03604259027664822</v>
       </c>
       <c r="D656" t="n">
-        <v>0.004720251369176285</v>
+        <v>0.009859858562381987</v>
       </c>
     </row>
     <row r="657">
@@ -9639,10 +9639,10 @@
         <v>0.0016</v>
       </c>
       <c r="C657" t="n">
-        <v>-0.01470957042014139</v>
+        <v>-0.02731547943073275</v>
       </c>
       <c r="D657" t="n">
-        <v>-0.01928403687130587</v>
+        <v>-0.003622679799920714</v>
       </c>
     </row>
     <row r="658">
@@ -9653,10 +9653,10 @@
         <v>0.0251</v>
       </c>
       <c r="C658" t="n">
-        <v>0.05274483617476534</v>
+        <v>0.06887474736508786</v>
       </c>
       <c r="D658" t="n">
-        <v>0.02837628489597792</v>
+        <v>0.003898527444647637</v>
       </c>
     </row>
     <row r="659">
@@ -9667,10 +9667,10 @@
         <v>0.0225</v>
       </c>
       <c r="C659" t="n">
-        <v>-0.04116586101772934</v>
+        <v>-0.0427113680248116</v>
       </c>
       <c r="D659" t="n">
-        <v>0.02443313357065844</v>
+        <v>0.009708867473845468</v>
       </c>
     </row>
     <row r="660">
@@ -9681,10 +9681,10 @@
         <v>0.0312</v>
       </c>
       <c r="C660" t="n">
-        <v>-0.02139529018711231</v>
+        <v>0.000920361030655889</v>
       </c>
       <c r="D660" t="n">
-        <v>0.003744379189908949</v>
+        <v>-0.005277011355054064</v>
       </c>
     </row>
     <row r="661">
@@ -9695,10 +9695,10 @@
         <v>0.0106</v>
       </c>
       <c r="C661" t="n">
-        <v>0.01341026988197645</v>
+        <v>0.02383197714972999</v>
       </c>
       <c r="D661" t="n">
-        <v>0.001740243437864454</v>
+        <v>-0.002793196796564253</v>
       </c>
     </row>
     <row r="662">
@@ -9709,10 +9709,10 @@
         <v>0.0557</v>
       </c>
       <c r="C662" t="n">
-        <v>-0.04619401983542532</v>
+        <v>-0.04220696399432684</v>
       </c>
       <c r="D662" t="n">
-        <v>-0.001696300885997135</v>
+        <v>-0.001753738059893466</v>
       </c>
     </row>
     <row r="663">
@@ -9723,10 +9723,10 @@
         <v>-0.0365</v>
       </c>
       <c r="C663" t="n">
-        <v>0.008559308206781444</v>
+        <v>-0.004618994619313213</v>
       </c>
       <c r="D663" t="n">
-        <v>-0.005119582423957172</v>
+        <v>-0.01189484116430186</v>
       </c>
     </row>
     <row r="664">
@@ -9737,10 +9737,10 @@
         <v>-0.0235</v>
       </c>
       <c r="C664" t="n">
-        <v>0.03357045131844443</v>
+        <v>0.03296883285233203</v>
       </c>
       <c r="D664" t="n">
-        <v>0.00074230969035937</v>
+        <v>0.01286382634631141</v>
       </c>
     </row>
     <row r="665">
@@ -9751,10 +9751,10 @@
         <v>0.0028</v>
       </c>
       <c r="C665" t="n">
-        <v>-0.002490835799168201</v>
+        <v>0.007169796740729857</v>
       </c>
       <c r="D665" t="n">
-        <v>0.007653210417859025</v>
+        <v>0.01106149998715216</v>
       </c>
     </row>
     <row r="666">
@@ -9765,10 +9765,10 @@
         <v>0.0265</v>
       </c>
       <c r="C666" t="n">
-        <v>0.01917918028715799</v>
+        <v>0.02076098778618398</v>
       </c>
       <c r="D666" t="n">
-        <v>-0.03914327473040462</v>
+        <v>-0.02646304640237124</v>
       </c>
     </row>
     <row r="667">
@@ -9779,10 +9779,10 @@
         <v>0.0048</v>
       </c>
       <c r="C667" t="n">
-        <v>0.003679316253598781</v>
+        <v>0.004725930004587106</v>
       </c>
       <c r="D667" t="n">
-        <v>0.005753086008655198</v>
+        <v>-0.00513194761089151</v>
       </c>
     </row>
     <row r="668">
@@ -9793,10 +9793,10 @@
         <v>0.0319</v>
       </c>
       <c r="C668" t="n">
-        <v>-0.04491761638027059</v>
+        <v>-0.04987919780175652</v>
       </c>
       <c r="D668" t="n">
-        <v>-0.001624968797662461</v>
+        <v>0.008235865963033434</v>
       </c>
     </row>
     <row r="669">
@@ -9807,10 +9807,10 @@
         <v>0.0344</v>
       </c>
       <c r="C669" t="n">
-        <v>0.01598944182787421</v>
+        <v>0.009725452148824452</v>
       </c>
       <c r="D669" t="n">
-        <v>-0.0466288619822888</v>
+        <v>-0.05052618151206867</v>
       </c>
     </row>
     <row r="670">
@@ -9821,10 +9821,10 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C670" t="n">
-        <v>-0.02124460676732698</v>
+        <v>-0.007685423220751626</v>
       </c>
       <c r="D670" t="n">
-        <v>0.003164484779919902</v>
+        <v>-0.008071824946584597</v>
       </c>
     </row>
     <row r="671">
@@ -9835,10 +9835,10 @@
         <v>-0.07679999999999999</v>
       </c>
       <c r="C671" t="n">
-        <v>-0.04184432998865209</v>
+        <v>-0.04411935232362728</v>
       </c>
       <c r="D671" t="n">
-        <v>0.03581272150493235</v>
+        <v>0.05008851962561041</v>
       </c>
     </row>
     <row r="672">
@@ -9849,10 +9849,10 @@
         <v>0.0169</v>
       </c>
       <c r="C672" t="n">
-        <v>-0.04870423849565114</v>
+        <v>-0.06118218581212134</v>
       </c>
       <c r="D672" t="n">
-        <v>0.000161199416809004</v>
+        <v>0.01377528445471544</v>
       </c>
     </row>
     <row r="673">
@@ -9863,10 +9863,10 @@
         <v>-0.09570000000000001</v>
       </c>
       <c r="C673" t="n">
-        <v>-0.04164650697639748</v>
+        <v>-0.05055682776832124</v>
       </c>
       <c r="D673" t="n">
-        <v>0.004420409313922388</v>
+        <v>0.005832394864273296</v>
       </c>
     </row>
     <row r="674">
@@ -9877,10 +9877,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="C674" t="n">
-        <v>0.2349645718431866</v>
+        <v>0.0952325584684893</v>
       </c>
       <c r="D674" t="n">
-        <v>-0.04916323641587993</v>
+        <v>-0.01769239847479881</v>
       </c>
     </row>
     <row r="675">
@@ -9891,10 +9891,10 @@
         <v>0.034</v>
       </c>
       <c r="C675" t="n">
-        <v>-0.06776954667894752</v>
+        <v>0.03851737562714527</v>
       </c>
       <c r="D675" t="n">
-        <v>-0.01648315184540394</v>
+        <v>-0.0477669557328866</v>
       </c>
     </row>
     <row r="676">
@@ -9905,10 +9905,10 @@
         <v>0.011</v>
       </c>
       <c r="C676" t="n">
-        <v>-0.02926687947490188</v>
+        <v>-0.03034550521445852</v>
       </c>
       <c r="D676" t="n">
-        <v>-0.03014797876745715</v>
+        <v>-0.03337684181741013</v>
       </c>
     </row>
     <row r="677">
@@ -9919,10 +9919,10 @@
         <v>0.0397</v>
       </c>
       <c r="C677" t="n">
-        <v>-0.03810270184977985</v>
+        <v>-0.040908351567099</v>
       </c>
       <c r="D677" t="n">
-        <v>0.004666203985265384</v>
+        <v>0.01534216817423289</v>
       </c>
     </row>
     <row r="678">
@@ -9933,10 +9933,10 @@
         <v>-0.0694</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.003891524382067052</v>
+        <v>-0.01276740979127476</v>
       </c>
       <c r="D678" t="n">
-        <v>-0.01339012256759364</v>
+        <v>-0.01862865922108436</v>
       </c>
     </row>
     <row r="679">
@@ -9947,10 +9947,10 @@
         <v>0.0693</v>
       </c>
       <c r="C679" t="n">
-        <v>-0.04837351134717953</v>
+        <v>-0.04885088859186956</v>
       </c>
       <c r="D679" t="n">
-        <v>-0.01033902994854384</v>
+        <v>-0.00142853281212664</v>
       </c>
     </row>
     <row r="680">
@@ -9961,10 +9961,10 @@
         <v>0.0119</v>
       </c>
       <c r="C680" t="n">
-        <v>-0.02927615798827969</v>
+        <v>-0.04524771419317414</v>
       </c>
       <c r="D680" t="n">
-        <v>-0.005546516157474832</v>
+        <v>0.01224151205562753</v>
       </c>
     </row>
     <row r="681">
@@ -9975,10 +9975,10 @@
         <v>-0.0258</v>
       </c>
       <c r="C681" t="n">
-        <v>-0.01976541350085356</v>
+        <v>-0.008425265025138941</v>
       </c>
       <c r="D681" t="n">
-        <v>-0.0274564799119827</v>
+        <v>-0.03964642426720312</v>
       </c>
     </row>
     <row r="682">
@@ -9989,10 +9989,10 @@
         <v>0.0143</v>
       </c>
       <c r="C682" t="n">
-        <v>-0.02100445593369543</v>
+        <v>-0.007294035112394778</v>
       </c>
       <c r="D682" t="n">
-        <v>0.06172527367617799</v>
+        <v>0.05699170907956905</v>
       </c>
     </row>
     <row r="683">
@@ -10003,10 +10003,10 @@
         <v>0.0206</v>
       </c>
       <c r="C683" t="n">
-        <v>-0.04738376485545544</v>
+        <v>-0.05343423556007763</v>
       </c>
       <c r="D683" t="n">
-        <v>0.002222020325741383</v>
+        <v>-0.01422616090782219</v>
       </c>
     </row>
     <row r="684">
@@ -10017,10 +10017,10 @@
         <v>0.0387</v>
       </c>
       <c r="C684" t="n">
-        <v>-0.005988401131470898</v>
+        <v>0.001120574484875646</v>
       </c>
       <c r="D684" t="n">
-        <v>-0.01257057598318487</v>
+        <v>-0.02211957343218079</v>
       </c>
     </row>
     <row r="685">
@@ -10031,10 +10031,10 @@
         <v>0.0277</v>
       </c>
       <c r="C685" t="n">
-        <v>0.0567681178931646</v>
+        <v>0.05722917608528971</v>
       </c>
       <c r="D685" t="n">
-        <v>0.004102000368203365</v>
+        <v>0.02782981362179928</v>
       </c>
     </row>
     <row r="686">
@@ -10045,10 +10045,10 @@
         <v>-0.0011</v>
       </c>
       <c r="C686" t="n">
-        <v>-0.01709138389646584</v>
+        <v>0.0115248407202925</v>
       </c>
       <c r="D686" t="n">
-        <v>-0.04732314314215517</v>
+        <v>-0.06592099861039558</v>
       </c>
     </row>
     <row r="687">
@@ -10059,10 +10059,10 @@
         <v>-0.08130000000000001</v>
       </c>
       <c r="C687" t="n">
-        <v>0.03817126085130131</v>
+        <v>0.03269782939460811</v>
       </c>
       <c r="D687" t="n">
-        <v>-0.03035238773125155</v>
+        <v>-0.01471924587845534</v>
       </c>
     </row>
     <row r="688">
@@ -10073,10 +10073,10 @@
         <v>-0.1339</v>
       </c>
       <c r="C688" t="n">
-        <v>-0.100048750911093</v>
+        <v>-0.06024068983055575</v>
       </c>
       <c r="D688" t="n">
-        <v>-0.06725551976363522</v>
+        <v>-0.1174878715970244</v>
       </c>
     </row>
     <row r="689">
@@ -10087,10 +10087,10 @@
         <v>0.1365</v>
       </c>
       <c r="C689" t="n">
-        <v>0.05333991566981797</v>
+        <v>0.1143083190890402</v>
       </c>
       <c r="D689" t="n">
-        <v>-0.0375380677753186</v>
+        <v>0.008233881007245397</v>
       </c>
     </row>
     <row r="690">
@@ -10101,10 +10101,10 @@
         <v>0.0558</v>
       </c>
       <c r="C690" t="n">
-        <v>0.047658419584659</v>
+        <v>0.058079018701952</v>
       </c>
       <c r="D690" t="n">
-        <v>-0.05918224398702805</v>
+        <v>-0.08819234479421409</v>
       </c>
     </row>
     <row r="691">
@@ -10115,10 +10115,10 @@
         <v>0.0246</v>
       </c>
       <c r="C691" t="n">
-        <v>0.08357746913227354</v>
+        <v>0.06309475128363159</v>
       </c>
       <c r="D691" t="n">
-        <v>-0.02607788019741095</v>
+        <v>-0.006846900320028042</v>
       </c>
     </row>
     <row r="692">
@@ -10129,10 +10129,10 @@
         <v>0.05769999999999999</v>
       </c>
       <c r="C692" t="n">
-        <v>0.05894220235711279</v>
+        <v>0.01330108846032763</v>
       </c>
       <c r="D692" t="n">
-        <v>-0.04025557836719047</v>
+        <v>-0.004612032810334149</v>
       </c>
     </row>
     <row r="693">
@@ -10143,10 +10143,10 @@
         <v>0.07629999999999999</v>
       </c>
       <c r="C693" t="n">
-        <v>-0.07959805582904922</v>
+        <v>-0.0664391405259997</v>
       </c>
       <c r="D693" t="n">
-        <v>-0.0002695070454406256</v>
+        <v>-0.00385633793293251</v>
       </c>
     </row>
     <row r="694">
@@ -10157,10 +10157,10 @@
         <v>-0.0363</v>
       </c>
       <c r="C694" t="n">
-        <v>0.04316046974137177</v>
+        <v>0.04618623361402754</v>
       </c>
       <c r="D694" t="n">
-        <v>-0.004059647711442568</v>
+        <v>-0.02994720396514642</v>
       </c>
     </row>
     <row r="695">
@@ -10171,10 +10171,10 @@
         <v>-0.021</v>
       </c>
       <c r="C695" t="n">
-        <v>-0.006386539299828031</v>
+        <v>-0.0003440071004189357</v>
       </c>
       <c r="D695" t="n">
-        <v>0.03267939980034394</v>
+        <v>0.0502745063602535</v>
       </c>
     </row>
     <row r="696">
@@ -10185,10 +10185,10 @@
         <v>0.1247</v>
       </c>
       <c r="C696" t="n">
-        <v>0.09901106414727573</v>
+        <v>0.06810418805365312</v>
       </c>
       <c r="D696" t="n">
-        <v>0.004344954847549765</v>
+        <v>0.08981876466360453</v>
       </c>
     </row>
     <row r="697">
@@ -10199,10 +10199,10 @@
         <v>0.0463</v>
       </c>
       <c r="C697" t="n">
-        <v>0.08955706462719784</v>
+        <v>0.06552555986171034</v>
       </c>
       <c r="D697" t="n">
-        <v>-0.0560050454570957</v>
+        <v>-0.004665034964513592</v>
       </c>
     </row>
     <row r="698">
@@ -10213,10 +10213,10 @@
         <v>-0.0003</v>
       </c>
       <c r="C698" t="n">
-        <v>0.2044452813361106</v>
+        <v>0.1815275174497704</v>
       </c>
       <c r="D698" t="n">
-        <v>0.0185202271628291</v>
+        <v>-0.02051003642118389</v>
       </c>
     </row>
     <row r="699">
@@ -10227,10 +10227,10 @@
         <v>0.0278</v>
       </c>
       <c r="C699" t="n">
-        <v>0.06451213350810757</v>
+        <v>0.02156794381321549</v>
       </c>
       <c r="D699" t="n">
-        <v>0.04988176247889899</v>
+        <v>0.08260643863823036</v>
       </c>
     </row>
     <row r="700">
@@ -10241,10 +10241,10 @@
         <v>0.0308</v>
       </c>
       <c r="C700" t="n">
-        <v>-0.03769088659340496</v>
+        <v>-0.0559207634519574</v>
       </c>
       <c r="D700" t="n">
-        <v>0.05578930683213516</v>
+        <v>0.09452396592765681</v>
       </c>
     </row>
     <row r="701">
@@ -10255,10 +10255,10 @@
         <v>0.0493</v>
       </c>
       <c r="C701" t="n">
-        <v>-0.07621066971726027</v>
+        <v>-0.07471438754791973</v>
       </c>
       <c r="D701" t="n">
-        <v>-0.01033474710522552</v>
+        <v>0.007189260606847365</v>
       </c>
     </row>
     <row r="702">
@@ -10269,10 +10269,10 @@
         <v>0.0029</v>
       </c>
       <c r="C702" t="n">
-        <v>0.0288307374239097</v>
+        <v>0.01254782013994815</v>
       </c>
       <c r="D702" t="n">
-        <v>0.05502833473881817</v>
+        <v>0.08246702133178146</v>
       </c>
     </row>
     <row r="703">
@@ -10283,10 +10283,10 @@
         <v>0.0275</v>
       </c>
       <c r="C703" t="n">
-        <v>0.04540364366319236</v>
+        <v>0.04420305388257612</v>
       </c>
       <c r="D703" t="n">
-        <v>-0.03840994275601891</v>
+        <v>-0.0477213005269503</v>
       </c>
     </row>
     <row r="704">
@@ -10297,10 +10297,10 @@
         <v>0.0127</v>
       </c>
       <c r="C704" t="n">
-        <v>-0.06662775220435321</v>
+        <v>-0.06902369651818258</v>
       </c>
       <c r="D704" t="n">
-        <v>-0.01299014520111102</v>
+        <v>0.01582249885673313</v>
       </c>
     </row>
     <row r="705">
@@ -10311,10 +10311,10 @@
         <v>0.0291</v>
       </c>
       <c r="C705" t="n">
-        <v>0.00675100060377996</v>
+        <v>-0.004942727983689516</v>
       </c>
       <c r="D705" t="n">
-        <v>0.005288849116938825</v>
+        <v>0.0001105104529669429</v>
       </c>
     </row>
     <row r="706">
@@ -10325,10 +10325,10 @@
         <v>-0.0437</v>
       </c>
       <c r="C706" t="n">
-        <v>-0.0005090057762646288</v>
+        <v>-0.004619665799638045</v>
       </c>
       <c r="D706" t="n">
-        <v>0.06126151692156535</v>
+        <v>0.06940931631512422</v>
       </c>
     </row>
     <row r="707">
@@ -10339,10 +10339,10 @@
         <v>0.0665</v>
       </c>
       <c r="C707" t="n">
-        <v>-0.08082707362451509</v>
+        <v>-0.08570292111077553</v>
       </c>
       <c r="D707" t="n">
-        <v>0.01281015131496621</v>
+        <v>-3.550352953527597e-05</v>
       </c>
     </row>
     <row r="708">
@@ -10353,10 +10353,10 @@
         <v>-0.0155</v>
       </c>
       <c r="C708" t="n">
-        <v>-0.05421812502447332</v>
+        <v>-0.05412825769157739</v>
       </c>
       <c r="D708" t="n">
-        <v>0.01112285964004071</v>
+        <v>0.01777568162319751</v>
       </c>
     </row>
     <row r="709">
@@ -10367,10 +10367,10 @@
         <v>0.031</v>
       </c>
       <c r="C709" t="n">
-        <v>-0.08939346459202357</v>
+        <v>-0.09016656551720699</v>
       </c>
       <c r="D709" t="n">
-        <v>0.04867139827097808</v>
+        <v>0.0700640835700449</v>
       </c>
     </row>
   </sheetData>

--- a/FFFactorsStar.xlsx
+++ b/FFFactorsStar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
